--- a/22807.xlsx
+++ b/22807.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1055" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="284">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>14-sep</t>
+  </si>
+  <si>
+    <t>20-sep</t>
   </si>
   <si>
     <t>alvarezhfs21@gmail.com</t>
@@ -116,15 +119,6 @@
   </si>
   <si>
     <t>Farias Irazabal</t>
-  </si>
-  <si>
-    <t>igitino@gmail.com</t>
-  </si>
-  <si>
-    <t>Jorge</t>
-  </si>
-  <si>
-    <t>Lopez</t>
   </si>
   <si>
     <t>silviacarolina9680@gmail.com</t>
@@ -211,15 +205,6 @@
     <t>Sena</t>
   </si>
   <si>
-    <t>nicolas.martinez9@gmail.com</t>
-  </si>
-  <si>
-    <t>Nicolas</t>
-  </si>
-  <si>
-    <t>Martínez</t>
-  </si>
-  <si>
     <t>osebaez@gmail.com</t>
   </si>
   <si>
@@ -227,15 +212,6 @@
   </si>
   <si>
     <t>Báez</t>
-  </si>
-  <si>
-    <t>clo.revollo@gmail.com</t>
-  </si>
-  <si>
-    <t>Claudia Carmen</t>
-  </si>
-  <si>
-    <t>Revollo Callao</t>
   </si>
   <si>
     <t>davidsuarezlarrea@gmail.com</t>
@@ -263,15 +239,6 @@
   </si>
   <si>
     <t>Echagüe</t>
-  </si>
-  <si>
-    <t>hemogro@gmail.com</t>
-  </si>
-  <si>
-    <t>Hugo Eduardo</t>
-  </si>
-  <si>
-    <t>Mogro</t>
   </si>
   <si>
     <t>gabrielcolussi@gmail.com</t>
@@ -319,15 +286,6 @@
     <t>Berrini</t>
   </si>
   <si>
-    <t>gfernandezpao@gmail.com</t>
-  </si>
-  <si>
-    <t>Paola del Valle</t>
-  </si>
-  <si>
-    <t>Fernandez Galvan</t>
-  </si>
-  <si>
     <t>lizzy_vadillo@hotmail.com</t>
   </si>
   <si>
@@ -341,15 +299,6 @@
   </si>
   <si>
     <t>Jaimez</t>
-  </si>
-  <si>
-    <t>nattymercado15125@gmail.com</t>
-  </si>
-  <si>
-    <t>Natalia</t>
-  </si>
-  <si>
-    <t>Mercado</t>
   </si>
   <si>
     <t>dm.lucero91@gmail.com</t>
@@ -433,15 +382,6 @@
     <t>quiroga</t>
   </si>
   <si>
-    <t>belu.jad@hotmail.com</t>
-  </si>
-  <si>
-    <t>María Belén</t>
-  </si>
-  <si>
-    <t>Jader</t>
-  </si>
-  <si>
     <t>Ceciliaolejarczyk@gmail.com</t>
   </si>
   <si>
@@ -458,12 +398,6 @@
   </si>
   <si>
     <t>marin Palomino</t>
-  </si>
-  <si>
-    <t>gabmb79@gmail.com</t>
-  </si>
-  <si>
-    <t>Varese</t>
   </si>
   <si>
     <t>carlagleadell@gmail.com</t>
@@ -487,6 +421,9 @@
     <t>martinezcecilia2707@gmail.com</t>
   </si>
   <si>
+    <t>Martínez</t>
+  </si>
+  <si>
     <t>danielemiro@gmail.com</t>
   </si>
   <si>
@@ -494,15 +431,6 @@
   </si>
   <si>
     <t>Emiro Mauthone</t>
-  </si>
-  <si>
-    <t>andru.ocatorres@gmail.com</t>
-  </si>
-  <si>
-    <t>anderson</t>
-  </si>
-  <si>
-    <t>ocaña</t>
   </si>
   <si>
     <t>javier6282@gmail.com</t>
@@ -550,15 +478,6 @@
     <t>Federico</t>
   </si>
   <si>
-    <t>sofitabattipede@gmail.com</t>
-  </si>
-  <si>
-    <t>Sofia</t>
-  </si>
-  <si>
-    <t>Battipede</t>
-  </si>
-  <si>
     <t>federicobonifacio94@gmail.com</t>
   </si>
   <si>
@@ -568,28 +487,10 @@
     <t>Bonifacio</t>
   </si>
   <si>
-    <t>valentinapernuzzi@gmail.com</t>
-  </si>
-  <si>
-    <t>Valentina</t>
-  </si>
-  <si>
-    <t>Pernuzzi</t>
-  </si>
-  <si>
     <t>jefersonjbsousa@gmail.com</t>
   </si>
   <si>
     <t>Jeferson</t>
-  </si>
-  <si>
-    <t>edimar.morles@gmail.com</t>
-  </si>
-  <si>
-    <t>Edimar</t>
-  </si>
-  <si>
-    <t>Morles</t>
   </si>
   <si>
     <t>julian_delisio@hotmail.com</t>
@@ -626,15 +527,6 @@
   </si>
   <si>
     <t>Figueroa</t>
-  </si>
-  <si>
-    <t>sebastianemanuelsevilla@gmail.com</t>
-  </si>
-  <si>
-    <t>Sebastián emanuel</t>
-  </si>
-  <si>
-    <t>SEVILLA</t>
   </si>
   <si>
     <t>lucasgmedina96@gmail.com</t>
@@ -725,6 +617,117 @@
   </si>
   <si>
     <t>Gunsett</t>
+  </si>
+  <si>
+    <t>igitino@gmail.com</t>
+  </si>
+  <si>
+    <t>Jorge</t>
+  </si>
+  <si>
+    <t>Lopez</t>
+  </si>
+  <si>
+    <t>nicolas.martinez9@gmail.com</t>
+  </si>
+  <si>
+    <t>Nicolas</t>
+  </si>
+  <si>
+    <t>clo.revollo@gmail.com</t>
+  </si>
+  <si>
+    <t>Claudia Carmen</t>
+  </si>
+  <si>
+    <t>Revollo Callao</t>
+  </si>
+  <si>
+    <t>hemogro@gmail.com</t>
+  </si>
+  <si>
+    <t>Hugo Eduardo</t>
+  </si>
+  <si>
+    <t>Mogro</t>
+  </si>
+  <si>
+    <t>gfernandezpao@gmail.com</t>
+  </si>
+  <si>
+    <t>Paola del Valle</t>
+  </si>
+  <si>
+    <t>Fernandez Galvan</t>
+  </si>
+  <si>
+    <t>nattymercado15125@gmail.com</t>
+  </si>
+  <si>
+    <t>Natalia</t>
+  </si>
+  <si>
+    <t>Mercado</t>
+  </si>
+  <si>
+    <t>belu.jad@hotmail.com</t>
+  </si>
+  <si>
+    <t>María Belén</t>
+  </si>
+  <si>
+    <t>Jader</t>
+  </si>
+  <si>
+    <t>gabmb79@gmail.com</t>
+  </si>
+  <si>
+    <t>Varese</t>
+  </si>
+  <si>
+    <t>andru.ocatorres@gmail.com</t>
+  </si>
+  <si>
+    <t>anderson</t>
+  </si>
+  <si>
+    <t>ocaña</t>
+  </si>
+  <si>
+    <t>sofitabattipede@gmail.com</t>
+  </si>
+  <si>
+    <t>Sofia</t>
+  </si>
+  <si>
+    <t>Battipede</t>
+  </si>
+  <si>
+    <t>valentinapernuzzi@gmail.com</t>
+  </si>
+  <si>
+    <t>Valentina</t>
+  </si>
+  <si>
+    <t>Pernuzzi</t>
+  </si>
+  <si>
+    <t>edimar.morles@gmail.com</t>
+  </si>
+  <si>
+    <t>Edimar</t>
+  </si>
+  <si>
+    <t>Morles</t>
+  </si>
+  <si>
+    <t>sebastianemanuelsevilla@gmail.com</t>
+  </si>
+  <si>
+    <t>Sebastián emanuel</t>
+  </si>
+  <si>
+    <t>SEVILLA</t>
   </si>
   <si>
     <t>yoanamorello1995@gmail.com</t>
@@ -1314,7 +1317,9 @@
       <c r="L1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="5"/>
+      <c r="M1" s="4" t="s">
+        <v>9</v>
+      </c>
       <c r="N1" s="5"/>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
@@ -1331,39 +1336,41 @@
         <v>22807</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M2" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M2" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N2" s="11"/>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
@@ -1380,39 +1387,41 @@
         <v>22807</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M3" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M3" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N3" s="11"/>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
@@ -1429,39 +1438,41 @@
         <v>22807</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M4" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M4" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
@@ -1478,39 +1489,41 @@
         <v>22807</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M5" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M5" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N5" s="11"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
@@ -1527,39 +1540,41 @@
         <v>22807</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M6" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M6" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
@@ -1576,39 +1591,41 @@
         <v>22807</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M7" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M7" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
@@ -1625,39 +1642,41 @@
         <v>22807</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M8" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M8" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
@@ -1674,39 +1693,41 @@
         <v>22807</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M9" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M9" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
@@ -1723,39 +1744,41 @@
         <v>22807</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M10" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M10" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
@@ -1772,39 +1795,41 @@
         <v>22807</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M11" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M11" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
@@ -1821,39 +1846,41 @@
         <v>22807</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M12" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M12" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
@@ -1870,39 +1897,41 @@
         <v>22807</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M13" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M13" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
@@ -1919,39 +1948,41 @@
         <v>22807</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="10" t="s">
-        <v>12</v>
+        <v>55</v>
+      </c>
+      <c r="E14" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M14" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M14" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
@@ -1968,39 +1999,41 @@
         <v>22807</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="E15" s="10" t="s">
-        <v>12</v>
+        <v>59</v>
+      </c>
+      <c r="E15" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M15" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M15" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
@@ -2017,39 +2050,41 @@
         <v>22807</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="E16" s="12" t="s">
-        <v>58</v>
+        <v>62</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M16" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M16" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
@@ -2066,39 +2101,41 @@
         <v>22807</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="E17" s="12" t="s">
-        <v>58</v>
+        <v>65</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M17" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M17" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
@@ -2115,39 +2152,41 @@
         <v>22807</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M18" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M18" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
@@ -2164,39 +2203,41 @@
         <v>22807</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="D19" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="C19" s="8" t="s">
-        <v>72</v>
-      </c>
-      <c r="D19" s="8" t="s">
-        <v>73</v>
-      </c>
       <c r="E19" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M19" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M19" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
@@ -2213,39 +2254,41 @@
         <v>22807</v>
       </c>
       <c r="B20" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C20" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="D20" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="C20" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="D20" s="8" t="s">
-        <v>76</v>
-      </c>
       <c r="E20" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M20" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M20" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
@@ -2262,39 +2305,41 @@
         <v>22807</v>
       </c>
       <c r="B21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="D21" s="8" t="s">
         <v>77</v>
       </c>
-      <c r="C21" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="D21" s="8" t="s">
-        <v>79</v>
-      </c>
       <c r="E21" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M21" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M21" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
@@ -2311,39 +2356,41 @@
         <v>22807</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M22" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M22" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N22" s="11"/>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
@@ -2360,39 +2407,41 @@
         <v>22807</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M23" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M23" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N23" s="11"/>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
@@ -2409,39 +2458,41 @@
         <v>22807</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M24" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M24" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N24" s="11"/>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
@@ -2458,39 +2509,41 @@
         <v>22807</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M25" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M25" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N25" s="11"/>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
@@ -2507,39 +2560,41 @@
         <v>22807</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>96</v>
+        <v>58</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M26" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M26" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N26" s="11"/>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
@@ -2556,39 +2611,41 @@
         <v>22807</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M27" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M27" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N27" s="11"/>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
@@ -2605,39 +2662,41 @@
         <v>22807</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>60</v>
+        <v>96</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M28" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M28" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N28" s="11"/>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
@@ -2654,39 +2713,41 @@
         <v>22807</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M29" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M29" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N29" s="11"/>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
@@ -2703,39 +2764,41 @@
         <v>22807</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M30" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M30" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N30" s="11"/>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
@@ -2752,39 +2815,41 @@
         <v>22807</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>117</v>
+        <v>106</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M31" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M31" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N31" s="11"/>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
@@ -2801,39 +2866,41 @@
         <v>22807</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>118</v>
+        <v>107</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M32" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M32" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N32" s="11"/>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
@@ -2850,39 +2917,41 @@
         <v>22807</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>121</v>
+        <v>110</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>122</v>
+        <v>111</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M33" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M33" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N33" s="11"/>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
@@ -2899,39 +2968,41 @@
         <v>22807</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>124</v>
+        <v>113</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>125</v>
+        <v>114</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>126</v>
+        <v>115</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M34" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M34" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N34" s="11"/>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
@@ -2948,39 +3019,41 @@
         <v>22807</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>127</v>
+        <v>116</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>128</v>
+        <v>117</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M35" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M35" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N35" s="11"/>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
@@ -2997,39 +3070,41 @@
         <v>22807</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>130</v>
+        <v>122</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M36" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M36" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N36" s="11"/>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
@@ -3046,39 +3121,41 @@
         <v>22807</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M37" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M37" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N37" s="11"/>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
@@ -3095,39 +3172,41 @@
         <v>22807</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M38" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M38" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N38" s="11"/>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
@@ -3144,39 +3223,41 @@
         <v>22807</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>143</v>
+        <v>120</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>144</v>
+        <v>132</v>
       </c>
       <c r="E39" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M39" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M39" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N39" s="11"/>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
@@ -3193,39 +3274,41 @@
         <v>22807</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>147</v>
+        <v>133</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>149</v>
+        <v>135</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G40" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M40" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M40" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N40" s="11"/>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
@@ -3242,39 +3325,41 @@
         <v>22807</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>150</v>
+        <v>136</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>151</v>
+        <v>137</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G41" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M41" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N41" s="11"/>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
@@ -3291,39 +3376,41 @@
         <v>22807</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>153</v>
+        <v>139</v>
       </c>
       <c r="C42" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="D42" s="8" t="s">
         <v>140</v>
       </c>
-      <c r="D42" s="8" t="s">
-        <v>64</v>
-      </c>
       <c r="E42" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I42" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M42" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M42" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N42" s="11"/>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
@@ -3340,39 +3427,41 @@
         <v>22807</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>156</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>12</v>
+        <v>143</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M43" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M43" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N43" s="11"/>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
@@ -3389,39 +3478,41 @@
         <v>22807</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G44" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G44" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J44" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M44" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M44" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N44" s="11"/>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
@@ -3438,39 +3529,41 @@
         <v>22807</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>163</v>
+        <v>149</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>90</v>
+        <v>150</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>164</v>
+        <v>106</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G45" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G45" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J45" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M45" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M45" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N45" s="11"/>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
@@ -3487,39 +3580,41 @@
         <v>22807</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>165</v>
+        <v>151</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>166</v>
+        <v>152</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>167</v>
-      </c>
-      <c r="E46" s="12" t="s">
-        <v>58</v>
+        <v>153</v>
+      </c>
+      <c r="E46" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I46" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I46" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="J46" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M46" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M46" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N46" s="11"/>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
@@ -3536,39 +3631,41 @@
         <v>22807</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>170</v>
+        <v>140</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G47" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="G47" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I47" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I47" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="J47" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M47" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M47" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N47" s="11"/>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
@@ -3585,39 +3682,41 @@
         <v>22807</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>123</v>
+        <v>158</v>
       </c>
       <c r="E48" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G48" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="G48" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J48" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M48" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M48" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N48" s="11"/>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
@@ -3634,39 +3733,41 @@
         <v>22807</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>123</v>
+        <v>161</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G49" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="G49" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J49" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J49" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="K49" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M49" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M49" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N49" s="11"/>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
@@ -3683,39 +3784,41 @@
         <v>22807</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>180</v>
+        <v>164</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G50" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I50" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J50" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="K50" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M50" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M50" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N50" s="11"/>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
@@ -3732,39 +3835,41 @@
         <v>22807</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F51" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I51" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J51" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M51" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M51" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N51" s="11"/>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
@@ -3781,39 +3886,41 @@
         <v>22807</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>191</v>
+        <v>170</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J52" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J52" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="K52" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M52" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M52" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N52" s="11"/>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
@@ -3830,39 +3937,41 @@
         <v>22807</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>193</v>
+        <v>172</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E53" s="10" t="s">
-        <v>12</v>
+        <v>173</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J53" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L53" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M53" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M53" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N53" s="11"/>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
@@ -3879,39 +3988,41 @@
         <v>22807</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>195</v>
+        <v>174</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>196</v>
+        <v>175</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>197</v>
+        <v>176</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I54" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I54" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="J54" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L54" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M54" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M54" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N54" s="11"/>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
@@ -3928,39 +4039,41 @@
         <v>22807</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>198</v>
+        <v>180</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>199</v>
+        <v>181</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>200</v>
+        <v>182</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J55" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K55" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="L55" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M55" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M55" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N55" s="11"/>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
@@ -3977,39 +4090,41 @@
         <v>22807</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>204</v>
+        <v>183</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>205</v>
+        <v>184</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="E56" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G56" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J56" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K56" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="L56" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M56" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M56" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N56" s="11"/>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
@@ -4026,39 +4141,41 @@
         <v>22807</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>207</v>
+        <v>189</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>208</v>
+        <v>190</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>209</v>
-      </c>
-      <c r="E57" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F57" s="10" t="s">
-        <v>12</v>
+        <v>191</v>
+      </c>
+      <c r="E57" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F57" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J57" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="J57" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L57" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M57" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M57" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N57" s="11"/>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
@@ -4075,39 +4192,41 @@
         <v>22807</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>210</v>
+        <v>192</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>211</v>
+        <v>193</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>212</v>
-      </c>
-      <c r="E58" s="10" t="s">
-        <v>12</v>
+        <v>194</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I58" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="I58" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="J58" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K58" s="10" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="K58" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="L58" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M58" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M58" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N58" s="11"/>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
@@ -4124,39 +4243,41 @@
         <v>22807</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>213</v>
+        <v>195</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>214</v>
+        <v>196</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G59" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I59" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="I59" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="J59" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K59" s="10" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="K59" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="L59" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M59" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="M59" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N59" s="11"/>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
@@ -4173,39 +4294,41 @@
         <v>22807</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>216</v>
+        <v>198</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>217</v>
+        <v>199</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I60" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K60" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L60" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M60" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="K60" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L60" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M60" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N60" s="11"/>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
@@ -4222,39 +4345,41 @@
         <v>22807</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>219</v>
+        <v>201</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>220</v>
+        <v>202</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>221</v>
+        <v>132</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G61" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I61" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K61" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L61" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M61" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="K61" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L61" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M61" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N61" s="11"/>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
@@ -4271,39 +4396,41 @@
         <v>22807</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>222</v>
+        <v>203</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>223</v>
+        <v>204</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>224</v>
+        <v>205</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I62" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="I62" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K62" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L62" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M62" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="K62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L62" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M62" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N62" s="11"/>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
@@ -4320,39 +4447,41 @@
         <v>22807</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>225</v>
+        <v>209</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>226</v>
+        <v>210</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="E63" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F63" s="12" t="s">
-        <v>58</v>
+        <v>211</v>
+      </c>
+      <c r="E63" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F63" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L63" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M63" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="L63" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M63" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N63" s="11"/>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
@@ -4369,39 +4498,41 @@
         <v>22807</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>228</v>
+        <v>212</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>229</v>
+        <v>213</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>230</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>58</v>
+        <v>214</v>
+      </c>
+      <c r="E64" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G64" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J64" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K64" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L64" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M64" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="J64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L64" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M64" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N64" s="11"/>
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
@@ -4418,39 +4549,41 @@
         <v>22807</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>231</v>
+        <v>215</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>233</v>
+        <v>217</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I65" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J65" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="L65" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="M65" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L65" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N65" s="11"/>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
@@ -4467,39 +4600,41 @@
         <v>22807</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>31</v>
+        <v>218</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>32</v>
+        <v>99</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>33</v>
+        <v>219</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M66" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M66" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N66" s="11"/>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
@@ -4516,39 +4651,41 @@
         <v>22807</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>62</v>
+        <v>220</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>63</v>
+        <v>221</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>64</v>
+        <v>222</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L67" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M67" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M67" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N67" s="11"/>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
@@ -4565,39 +4702,41 @@
         <v>22807</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>68</v>
+        <v>223</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>69</v>
+        <v>224</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>70</v>
+        <v>225</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I68" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I68" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L68" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M68" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M68" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N68" s="11"/>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
@@ -4614,39 +4753,41 @@
         <v>22807</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>80</v>
+        <v>229</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>81</v>
+        <v>230</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>82</v>
+        <v>231</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I69" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I69" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L69" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M69" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M69" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N69" s="11"/>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
@@ -4663,39 +4804,41 @@
         <v>22807</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>98</v>
+        <v>241</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>99</v>
+        <v>242</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>100</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F70" s="10" t="s">
-        <v>12</v>
+        <v>243</v>
+      </c>
+      <c r="E70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="F70" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I70" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J70" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K70" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="I70" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J70" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="K70" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="L70" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M70" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M70" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="N70" s="11"/>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
@@ -4712,39 +4855,41 @@
         <v>22807</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>106</v>
+        <v>26</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>107</v>
+        <v>27</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I71" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L71" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M71" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M71" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N71" s="11"/>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
@@ -4761,39 +4906,41 @@
         <v>22807</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>136</v>
+        <v>47</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>137</v>
+        <v>48</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>138</v>
+        <v>49</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I72" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J72" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L72" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M72" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M72" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N72" s="11"/>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
@@ -4810,39 +4957,41 @@
         <v>22807</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>145</v>
+        <v>119</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
       <c r="E73" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J73" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K73" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L73" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M73" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="L73" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M73" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N73" s="11"/>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
@@ -4859,39 +5008,41 @@
         <v>22807</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>159</v>
+        <v>106</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G74" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G74" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L74" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M74" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="L74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M74" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N74" s="11"/>
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
@@ -4908,39 +5059,41 @@
         <v>22807</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F75" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="G75" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="G75" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="J75" s="10" t="s">
-        <v>12</v>
+        <v>56</v>
+      </c>
+      <c r="J75" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="K75" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L75" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M75" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="L75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M75" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N75" s="11"/>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
@@ -4957,39 +5110,41 @@
         <v>22807</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>183</v>
-      </c>
-      <c r="E76" s="12" t="s">
-        <v>58</v>
+        <v>188</v>
+      </c>
+      <c r="E76" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I76" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="K76" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="L76" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M76" s="11"/>
+        <v>13</v>
+      </c>
+      <c r="K76" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="L76" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M76" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N76" s="11"/>
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
@@ -5006,39 +5161,41 @@
         <v>22807</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>187</v>
+        <v>207</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>188</v>
+        <v>208</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G77" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I77" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="I77" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="J77" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L77" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M77" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M77" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N77" s="11"/>
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
@@ -5055,39 +5212,41 @@
         <v>22807</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>201</v>
+        <v>226</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>202</v>
+        <v>227</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>203</v>
+        <v>228</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="F78" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="F78" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I78" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="J78" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="I78" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="J78" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M78" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M78" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N78" s="11"/>
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
@@ -5104,39 +5263,41 @@
         <v>22807</v>
       </c>
       <c r="B79" s="8" t="s">
+        <v>232</v>
+      </c>
+      <c r="C79" s="8" t="s">
+        <v>233</v>
+      </c>
+      <c r="D79" s="8" t="s">
         <v>234</v>
       </c>
-      <c r="C79" s="8" t="s">
-        <v>235</v>
-      </c>
-      <c r="D79" s="8" t="s">
-        <v>236</v>
-      </c>
-      <c r="E79" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F79" s="10" t="s">
-        <v>12</v>
+      <c r="E79" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="F79" s="12" t="s">
+        <v>56</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="I79" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="I79" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="K79" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
+      </c>
+      <c r="K79" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M79" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M79" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N79" s="11"/>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
@@ -5153,39 +5314,41 @@
         <v>22807</v>
       </c>
       <c r="B80" s="8" t="s">
+        <v>235</v>
+      </c>
+      <c r="C80" s="8" t="s">
+        <v>236</v>
+      </c>
+      <c r="D80" s="8" t="s">
         <v>237</v>
       </c>
-      <c r="C80" s="8" t="s">
-        <v>238</v>
-      </c>
-      <c r="D80" s="8" t="s">
-        <v>239</v>
-      </c>
       <c r="E80" s="10" t="s">
-        <v>12</v>
-      </c>
-      <c r="F80" s="12" t="s">
-        <v>58</v>
+        <v>13</v>
+      </c>
+      <c r="F80" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M80" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M80" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N80" s="11"/>
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
@@ -5202,39 +5365,41 @@
         <v>22807</v>
       </c>
       <c r="B81" s="8" t="s">
+        <v>238</v>
+      </c>
+      <c r="C81" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="D81" s="8" t="s">
         <v>240</v>
       </c>
-      <c r="C81" s="8" t="s">
-        <v>241</v>
-      </c>
-      <c r="D81" s="8" t="s">
-        <v>242</v>
-      </c>
       <c r="E81" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M81" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M81" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N81" s="11"/>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
@@ -5251,39 +5416,41 @@
         <v>22807</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M82" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M82" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N82" s="11"/>
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
@@ -5300,39 +5467,41 @@
         <v>22807</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M83" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M83" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N83" s="11"/>
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
@@ -5349,39 +5518,41 @@
         <v>22807</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>232</v>
+        <v>196</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M84" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M84" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N84" s="11"/>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
@@ -5398,39 +5569,41 @@
         <v>22807</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M85" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M85" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N85" s="11"/>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
@@ -5447,39 +5620,41 @@
         <v>22807</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>76</v>
+        <v>68</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M86" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M86" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N86" s="11"/>
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
@@ -5496,39 +5671,41 @@
         <v>22807</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M87" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M87" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N87" s="11"/>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
@@ -5545,39 +5722,41 @@
         <v>22807</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M88" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M88" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N88" s="11"/>
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
@@ -5594,39 +5773,41 @@
         <v>22807</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M89" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M89" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N89" s="11"/>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
@@ -5643,39 +5824,41 @@
         <v>22807</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M90" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M90" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N90" s="11"/>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
@@ -5692,39 +5875,41 @@
         <v>22807</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>110</v>
+        <v>93</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M91" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M91" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N91" s="11"/>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
@@ -5741,39 +5926,41 @@
         <v>22807</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M92" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M92" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N92" s="11"/>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
@@ -5790,39 +5977,41 @@
         <v>22807</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M93" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M93" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N93" s="11"/>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
@@ -5839,39 +6028,41 @@
         <v>22807</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M94" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M94" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N94" s="11"/>
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
@@ -5888,39 +6079,41 @@
         <v>22807</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M95" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M95" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N95" s="11"/>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
@@ -5937,39 +6130,41 @@
         <v>22807</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>58</v>
-      </c>
-      <c r="M96" s="11"/>
+        <v>56</v>
+      </c>
+      <c r="M96" s="12" t="s">
+        <v>56</v>
+      </c>
       <c r="N96" s="11"/>
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
@@ -6608,7 +6803,7 @@
     </row>
     <row r="122" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -28384,12 +28579,7 @@
       <c r="W992" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W992">
-    <sortState ref="A2:Z992">
-      <sortCondition ref="L1:L992"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
--- a/22807.xlsx
+++ b/22807.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1151" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="284">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -103,15 +103,6 @@
     <t>Sayans</t>
   </si>
   <si>
-    <t>marioramb@gmail.com</t>
-  </si>
-  <si>
-    <t>Mario Antonio</t>
-  </si>
-  <si>
-    <t>Ramb</t>
-  </si>
-  <si>
     <t>fernando.farias@hotmail.com.ar</t>
   </si>
   <si>
@@ -164,15 +155,6 @@
   </si>
   <si>
     <t>Araneo</t>
-  </si>
-  <si>
-    <t>torresricardoe@gmail.com</t>
-  </si>
-  <si>
-    <t>Ricardo Enrique</t>
-  </si>
-  <si>
-    <t>Torres</t>
   </si>
   <si>
     <t>leonardorodrigog@gmail.com</t>
@@ -382,15 +364,6 @@
     <t>quiroga</t>
   </si>
   <si>
-    <t>Ceciliaolejarczyk@gmail.com</t>
-  </si>
-  <si>
-    <t>Cecilia</t>
-  </si>
-  <si>
-    <t>Olejarczyk</t>
-  </si>
-  <si>
     <t>marin.manuel.enrique@gmail.com</t>
   </si>
   <si>
@@ -419,6 +392,9 @@
   </si>
   <si>
     <t>martinezcecilia2707@gmail.com</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
   </si>
   <si>
     <t>Martínez</t>
@@ -464,12 +440,6 @@
   </si>
   <si>
     <t>Vies</t>
-  </si>
-  <si>
-    <t>txalomdq@gmail.com</t>
-  </si>
-  <si>
-    <t>Gonzalo</t>
   </si>
   <si>
     <t>fgcabrera.21@gmail.com</t>
@@ -556,15 +526,6 @@
     <t>Lavanchy</t>
   </si>
   <si>
-    <t>lurdes.gmartinez@gmail.com</t>
-  </si>
-  <si>
-    <t>Lurdes Viviana</t>
-  </si>
-  <si>
-    <t>Martínez Gamarra</t>
-  </si>
-  <si>
     <t>alanmmarasca@gmail.com</t>
   </si>
   <si>
@@ -581,15 +542,6 @@
   </si>
   <si>
     <t>barrientos</t>
-  </si>
-  <si>
-    <t>leandro.bado.42@gmail.com</t>
-  </si>
-  <si>
-    <t>Leandro Martin</t>
-  </si>
-  <si>
-    <t>Bado</t>
   </si>
   <si>
     <t>javiercristianc.15.c@gmail.com</t>
@@ -643,15 +595,6 @@
     <t>Revollo Callao</t>
   </si>
   <si>
-    <t>hemogro@gmail.com</t>
-  </si>
-  <si>
-    <t>Hugo Eduardo</t>
-  </si>
-  <si>
-    <t>Mogro</t>
-  </si>
-  <si>
     <t>gfernandezpao@gmail.com</t>
   </si>
   <si>
@@ -703,6 +646,81 @@
     <t>Battipede</t>
   </si>
   <si>
+    <t>edimar.morles@gmail.com</t>
+  </si>
+  <si>
+    <t>Edimar</t>
+  </si>
+  <si>
+    <t>Morles</t>
+  </si>
+  <si>
+    <t>cmartinezarmas@gmail.com</t>
+  </si>
+  <si>
+    <t>Christians</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>marioramb@gmail.com</t>
+  </si>
+  <si>
+    <t>Mario Antonio</t>
+  </si>
+  <si>
+    <t>Ramb</t>
+  </si>
+  <si>
+    <t>torresricardoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Ricardo Enrique</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>Ceciliaolejarczyk@gmail.com</t>
+  </si>
+  <si>
+    <t>Olejarczyk</t>
+  </si>
+  <si>
+    <t>txalomdq@gmail.com</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>lurdes.gmartinez@gmail.com</t>
+  </si>
+  <si>
+    <t>Lurdes Viviana</t>
+  </si>
+  <si>
+    <t>Martínez Gamarra</t>
+  </si>
+  <si>
+    <t>leandro.bado.42@gmail.com</t>
+  </si>
+  <si>
+    <t>Leandro Martin</t>
+  </si>
+  <si>
+    <t>Bado</t>
+  </si>
+  <si>
+    <t>hemogro@gmail.com</t>
+  </si>
+  <si>
+    <t>Hugo Eduardo</t>
+  </si>
+  <si>
+    <t>Mogro</t>
+  </si>
+  <si>
     <t>valentinapernuzzi@gmail.com</t>
   </si>
   <si>
@@ -710,15 +728,6 @@
   </si>
   <si>
     <t>Pernuzzi</t>
-  </si>
-  <si>
-    <t>edimar.morles@gmail.com</t>
-  </si>
-  <si>
-    <t>Edimar</t>
-  </si>
-  <si>
-    <t>Morles</t>
   </si>
   <si>
     <t>sebastianemanuelsevilla@gmail.com</t>
@@ -746,15 +755,6 @@
   </si>
   <si>
     <t>Miranda</t>
-  </si>
-  <si>
-    <t>cmartinezarmas@gmail.com</t>
-  </si>
-  <si>
-    <t>Christians</t>
-  </si>
-  <si>
-    <t>Martinez</t>
   </si>
   <si>
     <t>vbusca1971@gmail.com</t>
@@ -1320,7 +1320,9 @@
       <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="5"/>
+      <c r="N1" s="3">
+        <v>44826</v>
+      </c>
       <c r="O1" s="5"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
@@ -1371,7 +1373,9 @@
       <c r="M2" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N2" s="11"/>
+      <c r="N2" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O2" s="11"/>
       <c r="P2" s="11"/>
       <c r="Q2" s="11"/>
@@ -1422,7 +1426,9 @@
       <c r="M3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="11"/>
+      <c r="N3" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O3" s="11"/>
       <c r="P3" s="11"/>
       <c r="Q3" s="11"/>
@@ -1473,7 +1479,9 @@
       <c r="M4" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N4" s="11"/>
+      <c r="N4" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
       <c r="Q4" s="11"/>
@@ -1524,7 +1532,9 @@
       <c r="M5" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N5" s="11"/>
+      <c r="N5" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
       <c r="Q5" s="11"/>
@@ -1575,7 +1585,9 @@
       <c r="M6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N6" s="11"/>
+      <c r="N6" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
       <c r="Q6" s="11"/>
@@ -1591,13 +1603,13 @@
         <v>22807</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>13</v>
@@ -1626,7 +1638,9 @@
       <c r="M7" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N7" s="11"/>
+      <c r="N7" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
       <c r="Q7" s="11"/>
@@ -1642,13 +1656,13 @@
         <v>22807</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>13</v>
@@ -1677,7 +1691,9 @@
       <c r="M8" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N8" s="11"/>
+      <c r="N8" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
       <c r="Q8" s="11"/>
@@ -1693,13 +1709,13 @@
         <v>22807</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>13</v>
@@ -1728,7 +1744,9 @@
       <c r="M9" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N9" s="11"/>
+      <c r="N9" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
       <c r="Q9" s="11"/>
@@ -1744,13 +1762,13 @@
         <v>22807</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>13</v>
@@ -1779,7 +1797,9 @@
       <c r="M10" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N10" s="11"/>
+      <c r="N10" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
       <c r="Q10" s="11"/>
@@ -1795,13 +1815,13 @@
         <v>22807</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>13</v>
@@ -1830,7 +1850,9 @@
       <c r="M11" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N11" s="11"/>
+      <c r="N11" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
       <c r="Q11" s="11"/>
@@ -1846,13 +1868,13 @@
         <v>22807</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="E12" s="10" t="s">
         <v>13</v>
@@ -1881,7 +1903,9 @@
       <c r="M12" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N12" s="11"/>
+      <c r="N12" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
       <c r="Q12" s="11"/>
@@ -1897,13 +1921,13 @@
         <v>22807</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="E13" s="10" t="s">
         <v>13</v>
@@ -1932,7 +1956,9 @@
       <c r="M13" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N13" s="11"/>
+      <c r="N13" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
       <c r="Q13" s="11"/>
@@ -1948,16 +1974,16 @@
         <v>22807</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>13</v>
@@ -1983,7 +2009,9 @@
       <c r="M14" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N14" s="11"/>
+      <c r="N14" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
       <c r="Q14" s="11"/>
@@ -1999,16 +2027,16 @@
         <v>22807</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E15" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>13</v>
@@ -2034,7 +2062,9 @@
       <c r="M15" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N15" s="11"/>
+      <c r="N15" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
       <c r="Q15" s="11"/>
@@ -2050,13 +2080,13 @@
         <v>22807</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>13</v>
@@ -2085,7 +2115,9 @@
       <c r="M16" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N16" s="11"/>
+      <c r="N16" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
       <c r="Q16" s="11"/>
@@ -2101,13 +2133,13 @@
         <v>22807</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>13</v>
@@ -2136,7 +2168,9 @@
       <c r="M17" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="11"/>
+      <c r="N17" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
       <c r="Q17" s="11"/>
@@ -2152,13 +2186,13 @@
         <v>22807</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>13</v>
@@ -2187,7 +2221,9 @@
       <c r="M18" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N18" s="11"/>
+      <c r="N18" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
       <c r="Q18" s="11"/>
@@ -2203,13 +2239,13 @@
         <v>22807</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>13</v>
@@ -2238,7 +2274,9 @@
       <c r="M19" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N19" s="11"/>
+      <c r="N19" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
       <c r="Q19" s="11"/>
@@ -2254,13 +2292,13 @@
         <v>22807</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>13</v>
@@ -2289,7 +2327,9 @@
       <c r="M20" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N20" s="11"/>
+      <c r="N20" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
       <c r="Q20" s="11"/>
@@ -2340,7 +2380,9 @@
       <c r="M21" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N21" s="11"/>
+      <c r="N21" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
       <c r="Q21" s="11"/>
@@ -2356,13 +2398,13 @@
         <v>22807</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>13</v>
@@ -2391,7 +2433,9 @@
       <c r="M22" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N22" s="11"/>
+      <c r="N22" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O22" s="11"/>
       <c r="P22" s="11"/>
       <c r="Q22" s="11"/>
@@ -2407,13 +2451,13 @@
         <v>22807</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>13</v>
@@ -2442,7 +2486,9 @@
       <c r="M23" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N23" s="11"/>
+      <c r="N23" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O23" s="11"/>
       <c r="P23" s="11"/>
       <c r="Q23" s="11"/>
@@ -2458,13 +2504,13 @@
         <v>22807</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>13</v>
@@ -2493,7 +2539,9 @@
       <c r="M24" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N24" s="11"/>
+      <c r="N24" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O24" s="11"/>
       <c r="P24" s="11"/>
       <c r="Q24" s="11"/>
@@ -2509,13 +2557,13 @@
         <v>22807</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>13</v>
@@ -2544,7 +2592,9 @@
       <c r="M25" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N25" s="11"/>
+      <c r="N25" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O25" s="11"/>
       <c r="P25" s="11"/>
       <c r="Q25" s="11"/>
@@ -2560,13 +2610,13 @@
         <v>22807</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>13</v>
@@ -2595,7 +2645,9 @@
       <c r="M26" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N26" s="11"/>
+      <c r="N26" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O26" s="11"/>
       <c r="P26" s="11"/>
       <c r="Q26" s="11"/>
@@ -2611,13 +2663,13 @@
         <v>22807</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>13</v>
@@ -2646,7 +2698,9 @@
       <c r="M27" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N27" s="11"/>
+      <c r="N27" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O27" s="11"/>
       <c r="P27" s="11"/>
       <c r="Q27" s="11"/>
@@ -2662,13 +2716,13 @@
         <v>22807</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>13</v>
@@ -2697,7 +2751,9 @@
       <c r="M28" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N28" s="11"/>
+      <c r="N28" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O28" s="11"/>
       <c r="P28" s="11"/>
       <c r="Q28" s="11"/>
@@ -2713,13 +2769,13 @@
         <v>22807</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>13</v>
@@ -2748,7 +2804,9 @@
       <c r="M29" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N29" s="11"/>
+      <c r="N29" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O29" s="11"/>
       <c r="P29" s="11"/>
       <c r="Q29" s="11"/>
@@ -2764,13 +2822,13 @@
         <v>22807</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>13</v>
@@ -2799,7 +2857,9 @@
       <c r="M30" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N30" s="11"/>
+      <c r="N30" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O30" s="11"/>
       <c r="P30" s="11"/>
       <c r="Q30" s="11"/>
@@ -2815,13 +2875,13 @@
         <v>22807</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>13</v>
@@ -2850,7 +2910,9 @@
       <c r="M31" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N31" s="11"/>
+      <c r="N31" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O31" s="11"/>
       <c r="P31" s="11"/>
       <c r="Q31" s="11"/>
@@ -2866,13 +2928,13 @@
         <v>22807</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>13</v>
@@ -2901,7 +2963,9 @@
       <c r="M32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N32" s="11"/>
+      <c r="N32" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O32" s="11"/>
       <c r="P32" s="11"/>
       <c r="Q32" s="11"/>
@@ -2917,13 +2981,13 @@
         <v>22807</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>13</v>
@@ -2952,7 +3016,9 @@
       <c r="M33" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N33" s="11"/>
+      <c r="N33" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O33" s="11"/>
       <c r="P33" s="11"/>
       <c r="Q33" s="11"/>
@@ -2968,13 +3034,13 @@
         <v>22807</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>13</v>
@@ -3003,7 +3069,9 @@
       <c r="M34" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N34" s="11"/>
+      <c r="N34" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O34" s="11"/>
       <c r="P34" s="11"/>
       <c r="Q34" s="11"/>
@@ -3019,13 +3087,13 @@
         <v>22807</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>13</v>
@@ -3054,7 +3122,9 @@
       <c r="M35" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N35" s="11"/>
+      <c r="N35" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O35" s="11"/>
       <c r="P35" s="11"/>
       <c r="Q35" s="11"/>
@@ -3070,13 +3140,13 @@
         <v>22807</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>13</v>
@@ -3105,7 +3175,9 @@
       <c r="M36" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N36" s="11"/>
+      <c r="N36" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O36" s="11"/>
       <c r="P36" s="11"/>
       <c r="Q36" s="11"/>
@@ -3121,13 +3193,13 @@
         <v>22807</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E37" s="10" t="s">
         <v>13</v>
@@ -3156,7 +3228,9 @@
       <c r="M37" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N37" s="11"/>
+      <c r="N37" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O37" s="11"/>
       <c r="P37" s="11"/>
       <c r="Q37" s="11"/>
@@ -3172,13 +3246,13 @@
         <v>22807</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>129</v>
+        <v>73</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>13</v>
@@ -3207,7 +3281,9 @@
       <c r="M38" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N38" s="11"/>
+      <c r="N38" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O38" s="11"/>
       <c r="P38" s="11"/>
       <c r="Q38" s="11"/>
@@ -3223,16 +3299,16 @@
         <v>22807</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>132</v>
-      </c>
-      <c r="E39" s="10" t="s">
-        <v>13</v>
+        <v>135</v>
+      </c>
+      <c r="E39" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F39" s="10" t="s">
         <v>13</v>
@@ -3258,7 +3334,9 @@
       <c r="M39" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N39" s="11"/>
+      <c r="N39" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O39" s="11"/>
       <c r="P39" s="11"/>
       <c r="Q39" s="11"/>
@@ -3274,13 +3352,13 @@
         <v>22807</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>13</v>
@@ -3288,8 +3366,8 @@
       <c r="F40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G40" s="10" t="s">
-        <v>13</v>
+      <c r="G40" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="H40" s="10" t="s">
         <v>13</v>
@@ -3309,7 +3387,9 @@
       <c r="M40" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N40" s="11"/>
+      <c r="N40" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O40" s="11"/>
       <c r="P40" s="11"/>
       <c r="Q40" s="11"/>
@@ -3325,13 +3405,13 @@
         <v>22807</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>138</v>
+        <v>100</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>13</v>
@@ -3339,8 +3419,8 @@
       <c r="F41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G41" s="10" t="s">
-        <v>13</v>
+      <c r="G41" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>13</v>
@@ -3360,7 +3440,9 @@
       <c r="M41" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N41" s="11"/>
+      <c r="N41" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O41" s="11"/>
       <c r="P41" s="11"/>
       <c r="Q41" s="11"/>
@@ -3376,13 +3458,13 @@
         <v>22807</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>13</v>
@@ -3396,8 +3478,8 @@
       <c r="H42" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I42" s="10" t="s">
-        <v>13</v>
+      <c r="I42" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="J42" s="10" t="s">
         <v>13</v>
@@ -3411,7 +3493,9 @@
       <c r="M42" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N42" s="11"/>
+      <c r="N42" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O42" s="11"/>
       <c r="P42" s="11"/>
       <c r="Q42" s="11"/>
@@ -3427,16 +3511,16 @@
         <v>22807</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E43" s="12" t="s">
-        <v>56</v>
+        <v>148</v>
+      </c>
+      <c r="E43" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F43" s="10" t="s">
         <v>13</v>
@@ -3462,7 +3546,9 @@
       <c r="M43" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N43" s="11"/>
+      <c r="N43" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O43" s="11"/>
       <c r="P43" s="11"/>
       <c r="Q43" s="11"/>
@@ -3478,13 +3564,13 @@
         <v>22807</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>13</v>
@@ -3492,8 +3578,8 @@
       <c r="F44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G44" s="12" t="s">
-        <v>56</v>
+      <c r="G44" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="H44" s="10" t="s">
         <v>13</v>
@@ -3501,8 +3587,8 @@
       <c r="I44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J44" s="10" t="s">
-        <v>13</v>
+      <c r="J44" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="K44" s="10" t="s">
         <v>13</v>
@@ -3513,7 +3599,9 @@
       <c r="M44" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N44" s="11"/>
+      <c r="N44" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O44" s="11"/>
       <c r="P44" s="11"/>
       <c r="Q44" s="11"/>
@@ -3529,13 +3617,13 @@
         <v>22807</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>106</v>
+        <v>154</v>
       </c>
       <c r="E45" s="10" t="s">
         <v>13</v>
@@ -3543,8 +3631,8 @@
       <c r="F45" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G45" s="12" t="s">
-        <v>56</v>
+      <c r="G45" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="H45" s="10" t="s">
         <v>13</v>
@@ -3552,8 +3640,8 @@
       <c r="I45" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J45" s="10" t="s">
-        <v>13</v>
+      <c r="J45" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="K45" s="10" t="s">
         <v>13</v>
@@ -3564,7 +3652,9 @@
       <c r="M45" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N45" s="11"/>
+      <c r="N45" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O45" s="11"/>
       <c r="P45" s="11"/>
       <c r="Q45" s="11"/>
@@ -3580,13 +3670,13 @@
         <v>22807</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>13</v>
@@ -3600,11 +3690,11 @@
       <c r="H46" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I46" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J46" s="10" t="s">
-        <v>13</v>
+      <c r="I46" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J46" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="K46" s="10" t="s">
         <v>13</v>
@@ -3615,7 +3705,9 @@
       <c r="M46" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N46" s="11"/>
+      <c r="N46" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O46" s="11"/>
       <c r="P46" s="11"/>
       <c r="Q46" s="11"/>
@@ -3631,13 +3723,13 @@
         <v>22807</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>140</v>
+        <v>160</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>13</v>
@@ -3651,11 +3743,11 @@
       <c r="H47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I47" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J47" s="10" t="s">
-        <v>13</v>
+      <c r="I47" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J47" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="K47" s="10" t="s">
         <v>13</v>
@@ -3666,7 +3758,9 @@
       <c r="M47" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N47" s="11"/>
+      <c r="N47" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O47" s="11"/>
       <c r="P47" s="11"/>
       <c r="Q47" s="11"/>
@@ -3682,16 +3776,16 @@
         <v>22807</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>157</v>
+        <v>162</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>158</v>
-      </c>
-      <c r="E48" s="10" t="s">
-        <v>13</v>
+        <v>163</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F48" s="10" t="s">
         <v>13</v>
@@ -3705,8 +3799,8 @@
       <c r="I48" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J48" s="10" t="s">
-        <v>13</v>
+      <c r="J48" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>13</v>
@@ -3717,7 +3811,9 @@
       <c r="M48" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N48" s="11"/>
+      <c r="N48" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O48" s="11"/>
       <c r="P48" s="11"/>
       <c r="Q48" s="11"/>
@@ -3733,13 +3829,13 @@
         <v>22807</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>13</v>
@@ -3756,11 +3852,11 @@
       <c r="I49" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J49" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K49" s="10" t="s">
-        <v>13</v>
+      <c r="J49" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K49" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="L49" s="10" t="s">
         <v>13</v>
@@ -3768,7 +3864,9 @@
       <c r="M49" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N49" s="11"/>
+      <c r="N49" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O49" s="11"/>
       <c r="P49" s="11"/>
       <c r="Q49" s="11"/>
@@ -3784,13 +3882,13 @@
         <v>22807</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>13</v>
@@ -3798,8 +3896,8 @@
       <c r="F50" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G50" s="10" t="s">
-        <v>13</v>
+      <c r="G50" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="H50" s="10" t="s">
         <v>13</v>
@@ -3807,11 +3905,11 @@
       <c r="I50" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J50" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K50" s="10" t="s">
-        <v>13</v>
+      <c r="J50" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K50" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="L50" s="10" t="s">
         <v>13</v>
@@ -3819,7 +3917,9 @@
       <c r="M50" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N50" s="11"/>
+      <c r="N50" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O50" s="11"/>
       <c r="P50" s="11"/>
       <c r="Q50" s="11"/>
@@ -3835,19 +3935,19 @@
         <v>22807</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F51" s="10" t="s">
-        <v>13</v>
+      <c r="F51" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="G51" s="10" t="s">
         <v>13</v>
@@ -3858,8 +3958,8 @@
       <c r="I51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J51" s="12" t="s">
-        <v>56</v>
+      <c r="J51" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="K51" s="10" t="s">
         <v>13</v>
@@ -3870,7 +3970,9 @@
       <c r="M51" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N51" s="11"/>
+      <c r="N51" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O51" s="11"/>
       <c r="P51" s="11"/>
       <c r="Q51" s="11"/>
@@ -3886,13 +3988,13 @@
         <v>22807</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="E52" s="10" t="s">
         <v>13</v>
@@ -3910,10 +4012,10 @@
         <v>13</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K52" s="10" t="s">
-        <v>13</v>
+        <v>50</v>
+      </c>
+      <c r="K52" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="L52" s="10" t="s">
         <v>13</v>
@@ -3921,7 +4023,9 @@
       <c r="M52" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N52" s="11"/>
+      <c r="N52" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O52" s="11"/>
       <c r="P52" s="11"/>
       <c r="Q52" s="11"/>
@@ -3937,16 +4041,16 @@
         <v>22807</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>173</v>
-      </c>
-      <c r="E53" s="12" t="s">
-        <v>56</v>
+        <v>184</v>
+      </c>
+      <c r="E53" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F53" s="10" t="s">
         <v>13</v>
@@ -3960,19 +4064,21 @@
       <c r="I53" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J53" s="12" t="s">
-        <v>56</v>
+      <c r="J53" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="K53" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L53" s="10" t="s">
-        <v>13</v>
+      <c r="L53" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="M53" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N53" s="11"/>
+      <c r="N53" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O53" s="11"/>
       <c r="P53" s="11"/>
       <c r="Q53" s="11"/>
@@ -3988,13 +4094,13 @@
         <v>22807</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>176</v>
+        <v>124</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>13</v>
@@ -4008,22 +4114,24 @@
       <c r="H54" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I54" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J54" s="12" t="s">
-        <v>56</v>
+      <c r="I54" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J54" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="K54" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L54" s="10" t="s">
-        <v>13</v>
+      <c r="L54" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="M54" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N54" s="11"/>
+      <c r="N54" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O54" s="11"/>
       <c r="P54" s="11"/>
       <c r="Q54" s="11"/>
@@ -4039,13 +4147,13 @@
         <v>22807</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>180</v>
+        <v>187</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>181</v>
+        <v>188</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>182</v>
+        <v>189</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>13</v>
@@ -4065,16 +4173,18 @@
       <c r="J55" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K55" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L55" s="10" t="s">
-        <v>13</v>
+      <c r="K55" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L55" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="M55" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N55" s="11"/>
+      <c r="N55" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O55" s="11"/>
       <c r="P55" s="11"/>
       <c r="Q55" s="11"/>
@@ -4090,22 +4200,22 @@
         <v>22807</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>183</v>
+        <v>190</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>184</v>
+        <v>191</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>185</v>
-      </c>
-      <c r="E56" s="10" t="s">
-        <v>13</v>
+        <v>192</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F56" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G56" s="12" t="s">
-        <v>56</v>
+      <c r="G56" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="H56" s="10" t="s">
         <v>13</v>
@@ -4116,16 +4226,18 @@
       <c r="J56" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K56" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L56" s="10" t="s">
-        <v>13</v>
+      <c r="K56" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L56" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="M56" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N56" s="11"/>
+      <c r="N56" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O56" s="11"/>
       <c r="P56" s="11"/>
       <c r="Q56" s="11"/>
@@ -4141,19 +4253,19 @@
         <v>22807</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F57" s="12" t="s">
-        <v>56</v>
+      <c r="F57" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="G57" s="10" t="s">
         <v>13</v>
@@ -4170,13 +4282,15 @@
       <c r="K57" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L57" s="10" t="s">
-        <v>13</v>
+      <c r="L57" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="M57" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N57" s="11"/>
+      <c r="N57" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O57" s="11"/>
       <c r="P57" s="11"/>
       <c r="Q57" s="11"/>
@@ -4192,16 +4306,16 @@
         <v>22807</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>192</v>
+        <v>199</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>194</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>56</v>
+        <v>200</v>
+      </c>
+      <c r="E58" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F58" s="10" t="s">
         <v>13</v>
@@ -4215,19 +4329,21 @@
       <c r="I58" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J58" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K58" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L58" s="10" t="s">
-        <v>13</v>
+      <c r="J58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K58" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L58" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="M58" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N58" s="11"/>
+      <c r="N58" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O58" s="11"/>
       <c r="P58" s="11"/>
       <c r="Q58" s="11"/>
@@ -4243,13 +4359,13 @@
         <v>22807</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>195</v>
+        <v>201</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>13</v>
@@ -4266,19 +4382,21 @@
       <c r="I59" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J59" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K59" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L59" s="10" t="s">
-        <v>13</v>
+      <c r="J59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K59" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L59" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="M59" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N59" s="11"/>
+      <c r="N59" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O59" s="11"/>
       <c r="P59" s="11"/>
       <c r="Q59" s="11"/>
@@ -4294,13 +4412,13 @@
         <v>22807</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>13</v>
@@ -4314,8 +4432,8 @@
       <c r="H60" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I60" s="10" t="s">
-        <v>13</v>
+      <c r="I60" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="J60" s="10" t="s">
         <v>13</v>
@@ -4324,12 +4442,14 @@
         <v>13</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M60" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N60" s="11"/>
+      <c r="N60" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O60" s="11"/>
       <c r="P60" s="11"/>
       <c r="Q60" s="11"/>
@@ -4345,13 +4465,13 @@
         <v>22807</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>132</v>
+        <v>209</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>13</v>
@@ -4365,8 +4485,8 @@
       <c r="H61" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I61" s="10" t="s">
-        <v>13</v>
+      <c r="I61" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="J61" s="10" t="s">
         <v>13</v>
@@ -4375,12 +4495,14 @@
         <v>13</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M61" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N61" s="11"/>
+      <c r="N61" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O61" s="11"/>
       <c r="P61" s="11"/>
       <c r="Q61" s="11"/>
@@ -4396,13 +4518,13 @@
         <v>22807</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>203</v>
+        <v>213</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>204</v>
+        <v>214</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>205</v>
+        <v>215</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>13</v>
@@ -4425,13 +4547,15 @@
       <c r="K62" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L62" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M62" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N62" s="11"/>
+      <c r="L62" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M62" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N62" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O62" s="11"/>
       <c r="P62" s="11"/>
       <c r="Q62" s="11"/>
@@ -4447,16 +4571,16 @@
         <v>22807</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>209</v>
+        <v>219</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>210</v>
+        <v>123</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>211</v>
-      </c>
-      <c r="E63" s="12" t="s">
-        <v>56</v>
+        <v>220</v>
+      </c>
+      <c r="E63" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="F63" s="10" t="s">
         <v>13</v>
@@ -4476,13 +4600,15 @@
       <c r="K63" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L63" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M63" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N63" s="11"/>
+      <c r="L63" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M63" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N63" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O63" s="11"/>
       <c r="P63" s="11"/>
       <c r="Q63" s="11"/>
@@ -4498,13 +4624,13 @@
         <v>22807</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>213</v>
+        <v>222</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>214</v>
+        <v>100</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>13</v>
@@ -4512,8 +4638,8 @@
       <c r="F64" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G64" s="10" t="s">
-        <v>13</v>
+      <c r="G64" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="H64" s="10" t="s">
         <v>13</v>
@@ -4527,13 +4653,15 @@
       <c r="K64" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L64" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M64" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N64" s="11"/>
+      <c r="L64" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M64" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N64" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O64" s="11"/>
       <c r="P64" s="11"/>
       <c r="Q64" s="11"/>
@@ -4549,13 +4677,13 @@
         <v>22807</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>216</v>
+        <v>227</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>217</v>
+        <v>228</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>13</v>
@@ -4569,22 +4697,24 @@
       <c r="H65" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I65" s="10" t="s">
-        <v>13</v>
+      <c r="I65" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="J65" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K65" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L65" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M65" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N65" s="11"/>
+      <c r="K65" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M65" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O65" s="11"/>
       <c r="P65" s="11"/>
       <c r="Q65" s="11"/>
@@ -4600,13 +4730,13 @@
         <v>22807</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>99</v>
+        <v>230</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>219</v>
+        <v>231</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>13</v>
@@ -4630,12 +4760,14 @@
         <v>13</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="M66" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N66" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="M66" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="N66" s="10" t="s">
+        <v>13</v>
+      </c>
       <c r="O66" s="11"/>
       <c r="P66" s="11"/>
       <c r="Q66" s="11"/>
@@ -4651,13 +4783,13 @@
         <v>22807</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>220</v>
+        <v>66</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>221</v>
+        <v>67</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>222</v>
+        <v>68</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>13</v>
@@ -4680,13 +4812,15 @@
       <c r="K67" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L67" s="12" t="s">
-        <v>56</v>
+      <c r="L67" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="M67" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N67" s="11"/>
+      <c r="N67" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O67" s="11"/>
       <c r="P67" s="11"/>
       <c r="Q67" s="11"/>
@@ -4702,13 +4836,13 @@
         <v>22807</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>223</v>
+        <v>72</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>224</v>
+        <v>73</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>225</v>
+        <v>74</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>13</v>
@@ -4722,8 +4856,8 @@
       <c r="H68" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I68" s="12" t="s">
-        <v>56</v>
+      <c r="I68" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="J68" s="10" t="s">
         <v>13</v>
@@ -4731,13 +4865,15 @@
       <c r="K68" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L68" s="12" t="s">
-        <v>56</v>
+      <c r="L68" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="M68" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N68" s="11"/>
+      <c r="N68" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O68" s="11"/>
       <c r="P68" s="11"/>
       <c r="Q68" s="11"/>
@@ -4753,13 +4889,13 @@
         <v>22807</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>229</v>
+        <v>78</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>230</v>
+        <v>79</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>231</v>
+        <v>80</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>13</v>
@@ -4773,8 +4909,8 @@
       <c r="H69" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I69" s="12" t="s">
-        <v>56</v>
+      <c r="I69" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="J69" s="10" t="s">
         <v>13</v>
@@ -4782,13 +4918,15 @@
       <c r="K69" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L69" s="12" t="s">
-        <v>56</v>
+      <c r="L69" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="M69" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N69" s="11"/>
+      <c r="N69" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O69" s="11"/>
       <c r="P69" s="11"/>
       <c r="Q69" s="11"/>
@@ -4804,19 +4942,19 @@
         <v>22807</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>241</v>
+        <v>113</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>242</v>
+        <v>114</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>243</v>
+        <v>115</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F70" s="12" t="s">
-        <v>56</v>
+      <c r="F70" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="G70" s="10" t="s">
         <v>13</v>
@@ -4824,22 +4962,24 @@
       <c r="H70" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I70" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="J70" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K70" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="L70" s="12" t="s">
-        <v>56</v>
+      <c r="I70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="J70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="K70" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L70" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="M70" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="N70" s="11"/>
+      <c r="N70" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O70" s="11"/>
       <c r="P70" s="11"/>
       <c r="Q70" s="11"/>
@@ -4855,13 +4995,13 @@
         <v>22807</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>26</v>
+        <v>141</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>27</v>
+        <v>142</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>28</v>
+        <v>143</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>13</v>
@@ -4875,8 +5015,8 @@
       <c r="H71" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I71" s="10" t="s">
-        <v>13</v>
+      <c r="I71" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="J71" s="10" t="s">
         <v>13</v>
@@ -4887,10 +5027,12 @@
       <c r="L71" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M71" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N71" s="11"/>
+      <c r="M71" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N71" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O71" s="11"/>
       <c r="P71" s="11"/>
       <c r="Q71" s="11"/>
@@ -4906,13 +5048,13 @@
         <v>22807</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>47</v>
+        <v>164</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>48</v>
+        <v>165</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>49</v>
+        <v>166</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>13</v>
@@ -4926,11 +5068,11 @@
       <c r="H72" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I72" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J72" s="10" t="s">
-        <v>13</v>
+      <c r="I72" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J72" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="K72" s="10" t="s">
         <v>13</v>
@@ -4938,10 +5080,12 @@
       <c r="L72" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M72" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N72" s="11"/>
+      <c r="M72" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N72" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O72" s="11"/>
       <c r="P72" s="11"/>
       <c r="Q72" s="11"/>
@@ -4957,16 +5101,16 @@
         <v>22807</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>119</v>
+        <v>176</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>120</v>
+        <v>177</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E73" s="10" t="s">
-        <v>13</v>
+        <v>178</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="F73" s="10" t="s">
         <v>13</v>
@@ -4980,19 +5124,21 @@
       <c r="I73" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J73" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="K73" s="10" t="s">
-        <v>13</v>
+      <c r="J73" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="K73" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="L73" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="M73" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N73" s="11"/>
+      <c r="M73" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N73" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O73" s="11"/>
       <c r="P73" s="11"/>
       <c r="Q73" s="11"/>
@@ -5008,13 +5154,13 @@
         <v>22807</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>147</v>
+        <v>196</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>148</v>
+        <v>197</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>106</v>
+        <v>198</v>
       </c>
       <c r="E74" s="10" t="s">
         <v>13</v>
@@ -5022,8 +5168,8 @@
       <c r="F74" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G74" s="12" t="s">
-        <v>56</v>
+      <c r="G74" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="H74" s="10" t="s">
         <v>13</v>
@@ -5037,13 +5183,15 @@
       <c r="K74" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L74" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M74" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N74" s="11"/>
+      <c r="L74" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M74" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N74" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O74" s="11"/>
       <c r="P74" s="11"/>
       <c r="Q74" s="11"/>
@@ -5059,42 +5207,44 @@
         <v>22807</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>177</v>
+        <v>210</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>178</v>
+        <v>211</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>179</v>
+        <v>212</v>
       </c>
       <c r="E75" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="F75" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="G75" s="12" t="s">
-        <v>56</v>
+      <c r="F75" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="G75" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="H75" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="K75" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="L75" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="M75" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N75" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="K75" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="L75" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="M75" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="N75" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O75" s="11"/>
       <c r="P75" s="11"/>
       <c r="Q75" s="11"/>
@@ -5110,13 +5260,13 @@
         <v>22807</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>186</v>
+        <v>216</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="E76" s="10" t="s">
         <v>13</v>
@@ -5130,22 +5280,24 @@
       <c r="H76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I76" s="12" t="s">
-        <v>56</v>
+      <c r="I76" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="J76" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="K76" s="12" t="s">
-        <v>56</v>
+      <c r="K76" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="L76" s="10" t="s">
         <v>13</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N76" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N76" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O76" s="11"/>
       <c r="P76" s="11"/>
       <c r="Q76" s="11"/>
@@ -5161,13 +5313,13 @@
         <v>22807</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>206</v>
+        <v>223</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>207</v>
+        <v>224</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>208</v>
+        <v>225</v>
       </c>
       <c r="E77" s="10" t="s">
         <v>13</v>
@@ -5175,28 +5327,30 @@
       <c r="F77" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G77" s="10" t="s">
-        <v>13</v>
+      <c r="G77" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="H77" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="J77" s="10" t="s">
-        <v>13</v>
+      <c r="I77" s="12" t="s">
+        <v>50</v>
+      </c>
+      <c r="J77" s="12" t="s">
+        <v>50</v>
       </c>
       <c r="K77" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="L77" s="12" t="s">
-        <v>56</v>
+      <c r="L77" s="10" t="s">
+        <v>13</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N77" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N77" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O77" s="11"/>
       <c r="P77" s="11"/>
       <c r="Q77" s="11"/>
@@ -5212,16 +5366,16 @@
         <v>22807</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>226</v>
+        <v>232</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>227</v>
+        <v>233</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>228</v>
+        <v>234</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F78" s="10" t="s">
         <v>13</v>
@@ -5233,7 +5387,7 @@
         <v>13</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J78" s="10" t="s">
         <v>13</v>
@@ -5242,12 +5396,14 @@
         <v>13</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N78" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N78" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O78" s="11"/>
       <c r="P78" s="11"/>
       <c r="Q78" s="11"/>
@@ -5263,19 +5419,19 @@
         <v>22807</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G79" s="10" t="s">
         <v>13</v>
@@ -5287,18 +5443,20 @@
         <v>13</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K79" s="10" t="s">
         <v>13</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N79" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N79" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O79" s="11"/>
       <c r="P79" s="11"/>
       <c r="Q79" s="11"/>
@@ -5314,13 +5472,13 @@
         <v>22807</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E80" s="10" t="s">
         <v>13</v>
@@ -5335,21 +5493,23 @@
         <v>13</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N80" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N80" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O80" s="11"/>
       <c r="P80" s="11"/>
       <c r="Q80" s="11"/>
@@ -5365,19 +5525,19 @@
         <v>22807</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E81" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G81" s="10" t="s">
         <v>13</v>
@@ -5386,21 +5546,23 @@
         <v>13</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N81" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N81" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O81" s="11"/>
       <c r="P81" s="11"/>
       <c r="Q81" s="11"/>
@@ -5425,33 +5587,35 @@
         <v>246</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N82" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N82" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O82" s="11"/>
       <c r="P82" s="11"/>
       <c r="Q82" s="11"/>
@@ -5476,33 +5640,35 @@
         <v>248</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N83" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N83" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O83" s="11"/>
       <c r="P83" s="11"/>
       <c r="Q83" s="11"/>
@@ -5521,39 +5687,41 @@
         <v>249</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>196</v>
+        <v>180</v>
       </c>
       <c r="D84" s="8" t="s">
         <v>250</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N84" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N84" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O84" s="11"/>
       <c r="P84" s="11"/>
       <c r="Q84" s="11"/>
@@ -5578,33 +5746,35 @@
         <v>253</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M85" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N85" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N85" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O85" s="11"/>
       <c r="P85" s="11"/>
       <c r="Q85" s="11"/>
@@ -5626,36 +5796,38 @@
         <v>255</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="E86" s="10" t="s">
         <v>13</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M86" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N86" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N86" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O86" s="11"/>
       <c r="P86" s="11"/>
       <c r="Q86" s="11"/>
@@ -5686,27 +5858,29 @@
         <v>13</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H87" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M87" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N87" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N87" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O87" s="11"/>
       <c r="P87" s="11"/>
       <c r="Q87" s="11"/>
@@ -5725,39 +5899,41 @@
         <v>259</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="D88" s="9" t="s">
         <v>260</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N88" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N88" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O88" s="11"/>
       <c r="P88" s="11"/>
       <c r="Q88" s="11"/>
@@ -5782,33 +5958,35 @@
         <v>263</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M89" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N89" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N89" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O89" s="11"/>
       <c r="P89" s="11"/>
       <c r="Q89" s="11"/>
@@ -5836,30 +6014,32 @@
         <v>13</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M90" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N90" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N90" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O90" s="11"/>
       <c r="P90" s="11"/>
       <c r="Q90" s="11"/>
@@ -5878,39 +6058,41 @@
         <v>267</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D91" s="8" t="s">
         <v>12</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N91" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N91" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O91" s="11"/>
       <c r="P91" s="11"/>
       <c r="Q91" s="11"/>
@@ -5935,33 +6117,35 @@
         <v>270</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M92" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N92" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N92" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O92" s="11"/>
       <c r="P92" s="11"/>
       <c r="Q92" s="11"/>
@@ -5992,27 +6176,29 @@
         <v>13</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H93" s="10" t="s">
         <v>13</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N93" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N93" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O93" s="11"/>
       <c r="P93" s="11"/>
       <c r="Q93" s="11"/>
@@ -6040,30 +6226,32 @@
         <v>13</v>
       </c>
       <c r="F94" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G94" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H94" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I94" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J94" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K94" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L94" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M94" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N94" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N94" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O94" s="11"/>
       <c r="P94" s="11"/>
       <c r="Q94" s="11"/>
@@ -6088,33 +6276,35 @@
         <v>279</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N95" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N95" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O95" s="11"/>
       <c r="P95" s="11"/>
       <c r="Q95" s="11"/>
@@ -6139,33 +6329,35 @@
         <v>282</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="M96" s="12" t="s">
-        <v>56</v>
-      </c>
-      <c r="N96" s="11"/>
+        <v>50</v>
+      </c>
+      <c r="N96" s="12" t="s">
+        <v>50</v>
+      </c>
       <c r="O96" s="11"/>
       <c r="P96" s="11"/>
       <c r="Q96" s="11"/>
@@ -28579,7 +28771,12 @@
       <c r="W992" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W992">
+    <sortState ref="A2:Z992">
+      <sortCondition ref="N1:N992"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/22807.xlsx
+++ b/22807.xlsx
@@ -14,16 +14,13 @@
   <sheets>
     <sheet name="#22807" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22807'!$A$1:$W$992</definedName>
-  </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="0"/>
   <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="287">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -53,6 +50,15 @@
   </si>
   <si>
     <t>20-sep</t>
+  </si>
+  <si>
+    <t>22-sep</t>
+  </si>
+  <si>
+    <t>27-sep</t>
+  </si>
+  <si>
+    <t>29-sep</t>
   </si>
   <si>
     <t>alvarezhfs21@gmail.com</t>
@@ -223,15 +229,6 @@
     <t>Echagüe</t>
   </si>
   <si>
-    <t>gabrielcolussi@gmail.com</t>
-  </si>
-  <si>
-    <t>gabriel</t>
-  </si>
-  <si>
-    <t>colussi</t>
-  </si>
-  <si>
     <t>isabelrodriguez.dg@gmail.com</t>
   </si>
   <si>
@@ -241,15 +238,6 @@
     <t>Rodríguez</t>
   </si>
   <si>
-    <t>german.elias@hotmail.com.ar</t>
-  </si>
-  <si>
-    <t>German</t>
-  </si>
-  <si>
-    <t>Elias</t>
-  </si>
-  <si>
     <t>emanuel006@gmail.com</t>
   </si>
   <si>
@@ -257,15 +245,6 @@
   </si>
   <si>
     <t>Miravalles</t>
-  </si>
-  <si>
-    <t>alejandroberrini@hotmail.com</t>
-  </si>
-  <si>
-    <t>Alejandro</t>
-  </si>
-  <si>
-    <t>Berrini</t>
   </si>
   <si>
     <t>lizzy_vadillo@hotmail.com</t>
@@ -364,15 +343,6 @@
     <t>quiroga</t>
   </si>
   <si>
-    <t>marin.manuel.enrique@gmail.com</t>
-  </si>
-  <si>
-    <t>Manuel Enrique</t>
-  </si>
-  <si>
-    <t>marin Palomino</t>
-  </si>
-  <si>
     <t>carlagleadell@gmail.com</t>
   </si>
   <si>
@@ -421,6 +391,9 @@
     <t>borgesgerman28@gmail.com</t>
   </si>
   <si>
+    <t>German</t>
+  </si>
+  <si>
     <t>Borges</t>
   </si>
   <si>
@@ -446,15 +419,6 @@
   </si>
   <si>
     <t>Federico</t>
-  </si>
-  <si>
-    <t>federicobonifacio94@gmail.com</t>
-  </si>
-  <si>
-    <t>Federico Juan</t>
-  </si>
-  <si>
-    <t>Bonifacio</t>
   </si>
   <si>
     <t>jefersonjbsousa@gmail.com</t>
@@ -517,15 +481,6 @@
     <t>quiroga vera</t>
   </si>
   <si>
-    <t>angel.m.lavanchy@gmail.com</t>
-  </si>
-  <si>
-    <t>Angel Marcelo</t>
-  </si>
-  <si>
-    <t>Lavanchy</t>
-  </si>
-  <si>
     <t>alanmmarasca@gmail.com</t>
   </si>
   <si>
@@ -551,15 +506,6 @@
   </si>
   <si>
     <t>Contreras</t>
-  </si>
-  <si>
-    <t>pereyra.maximo@gmail.com</t>
-  </si>
-  <si>
-    <t>Maximo Fermin</t>
-  </si>
-  <si>
-    <t>Pereyra</t>
   </si>
   <si>
     <t>gunsett.javier@gmail.com</t>
@@ -613,15 +559,6 @@
     <t>Mercado</t>
   </si>
   <si>
-    <t>belu.jad@hotmail.com</t>
-  </si>
-  <si>
-    <t>María Belén</t>
-  </si>
-  <si>
-    <t>Jader</t>
-  </si>
-  <si>
     <t>gabmb79@gmail.com</t>
   </si>
   <si>
@@ -655,15 +592,6 @@
     <t>Morles</t>
   </si>
   <si>
-    <t>cmartinezarmas@gmail.com</t>
-  </si>
-  <si>
-    <t>Christians</t>
-  </si>
-  <si>
-    <t>Martinez</t>
-  </si>
-  <si>
     <t>marioramb@gmail.com</t>
   </si>
   <si>
@@ -671,15 +599,6 @@
   </si>
   <si>
     <t>Ramb</t>
-  </si>
-  <si>
-    <t>torresricardoe@gmail.com</t>
-  </si>
-  <si>
-    <t>Ricardo Enrique</t>
-  </si>
-  <si>
-    <t>Torres</t>
   </si>
   <si>
     <t>Ceciliaolejarczyk@gmail.com</t>
@@ -692,15 +611,6 @@
   </si>
   <si>
     <t>Gonzalo</t>
-  </si>
-  <si>
-    <t>lurdes.gmartinez@gmail.com</t>
-  </si>
-  <si>
-    <t>Lurdes Viviana</t>
-  </si>
-  <si>
-    <t>Martínez Gamarra</t>
   </si>
   <si>
     <t>leandro.bado.42@gmail.com</t>
@@ -719,6 +629,102 @@
   </si>
   <si>
     <t>Mogro</t>
+  </si>
+  <si>
+    <t>gabrielcolussi@gmail.com</t>
+  </si>
+  <si>
+    <t>gabriel</t>
+  </si>
+  <si>
+    <t>colussi</t>
+  </si>
+  <si>
+    <t>german.elias@hotmail.com.ar</t>
+  </si>
+  <si>
+    <t>Elias</t>
+  </si>
+  <si>
+    <t>alejandroberrini@hotmail.com</t>
+  </si>
+  <si>
+    <t>Alejandro</t>
+  </si>
+  <si>
+    <t>Berrini</t>
+  </si>
+  <si>
+    <t>marin.manuel.enrique@gmail.com</t>
+  </si>
+  <si>
+    <t>Manuel Enrique</t>
+  </si>
+  <si>
+    <t>marin Palomino</t>
+  </si>
+  <si>
+    <t>federicobonifacio94@gmail.com</t>
+  </si>
+  <si>
+    <t>Federico Juan</t>
+  </si>
+  <si>
+    <t>Bonifacio</t>
+  </si>
+  <si>
+    <t>angel.m.lavanchy@gmail.com</t>
+  </si>
+  <si>
+    <t>Angel Marcelo</t>
+  </si>
+  <si>
+    <t>Lavanchy</t>
+  </si>
+  <si>
+    <t>pereyra.maximo@gmail.com</t>
+  </si>
+  <si>
+    <t>Maximo Fermin</t>
+  </si>
+  <si>
+    <t>Pereyra</t>
+  </si>
+  <si>
+    <t>belu.jad@hotmail.com</t>
+  </si>
+  <si>
+    <t>María Belén</t>
+  </si>
+  <si>
+    <t>Jader</t>
+  </si>
+  <si>
+    <t>cmartinezarmas@gmail.com</t>
+  </si>
+  <si>
+    <t>Christians</t>
+  </si>
+  <si>
+    <t>Martinez</t>
+  </si>
+  <si>
+    <t>torresricardoe@gmail.com</t>
+  </si>
+  <si>
+    <t>Ricardo Enrique</t>
+  </si>
+  <si>
+    <t>Torres</t>
+  </si>
+  <si>
+    <t>lurdes.gmartinez@gmail.com</t>
+  </si>
+  <si>
+    <t>Lurdes Viviana</t>
+  </si>
+  <si>
+    <t>Martínez Gamarra</t>
   </si>
   <si>
     <t>valentinapernuzzi@gmail.com</t>
@@ -1320,11 +1326,15 @@
       <c r="M1" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="N1" s="3">
-        <v>44826</v>
-      </c>
-      <c r="O1" s="5"/>
-      <c r="P1" s="5"/>
+      <c r="N1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="O1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="P1" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
@@ -1338,46 +1348,50 @@
         <v>22807</v>
       </c>
       <c r="B2" s="8" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="8" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E2" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F2" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G2" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M2" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N2" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="11"/>
-      <c r="P2" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P2" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q2" s="11"/>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
@@ -1391,46 +1405,50 @@
         <v>22807</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F3" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G3" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H3" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I3" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M3" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N3" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O3" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P3" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q3" s="11"/>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
@@ -1444,46 +1462,50 @@
         <v>22807</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G4" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H4" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I4" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J4" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M4" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O4" s="11"/>
-      <c r="P4" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O4" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P4" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q4" s="11"/>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
@@ -1497,46 +1519,50 @@
         <v>22807</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H5" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I5" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L5" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M5" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N5" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O5" s="11"/>
-      <c r="P5" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O5" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P5" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q5" s="11"/>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
@@ -1550,46 +1576,50 @@
         <v>22807</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F6" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G6" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H6" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I6" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J6" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L6" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M6" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N6" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O6" s="11"/>
-      <c r="P6" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O6" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P6" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q6" s="11"/>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
@@ -1603,46 +1633,50 @@
         <v>22807</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M7" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N7" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O7" s="11"/>
-      <c r="P7" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O7" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q7" s="11"/>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
@@ -1656,46 +1690,50 @@
         <v>22807</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H8" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I8" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J8" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K8" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L8" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M8" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N8" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O8" s="11"/>
-      <c r="P8" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O8" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P8" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q8" s="11"/>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
@@ -1709,46 +1747,50 @@
         <v>22807</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H9" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I9" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J9" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K9" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L9" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M9" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N9" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O9" s="11"/>
-      <c r="P9" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q9" s="11"/>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
@@ -1762,46 +1804,50 @@
         <v>22807</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="E10" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G10" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H10" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J10" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M10" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N10" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O10" s="11"/>
-      <c r="P10" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P10" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q10" s="11"/>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
@@ -1815,46 +1861,50 @@
         <v>22807</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H11" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I11" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J11" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M11" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O11" s="11"/>
-      <c r="P11" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O11" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P11" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q11" s="11"/>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
@@ -1868,46 +1918,50 @@
         <v>22807</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="E12" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F12" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G12" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H12" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I12" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J12" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K12" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L12" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M12" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N12" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O12" s="11"/>
-      <c r="P12" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P12" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q12" s="11"/>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
@@ -1921,46 +1975,50 @@
         <v>22807</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="E13" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F13" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G13" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H13" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I13" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J13" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L13" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M13" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O13" s="11"/>
-      <c r="P13" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P13" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q13" s="11"/>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
@@ -1974,46 +2032,50 @@
         <v>22807</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="E14" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G14" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H14" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I14" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J14" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K14" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L14" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M14" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N14" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O14" s="11"/>
-      <c r="P14" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P14" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q14" s="11"/>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
@@ -2027,46 +2089,50 @@
         <v>22807</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D15" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E15" s="12" t="s">
-        <v>50</v>
-      </c>
       <c r="F15" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G15" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H15" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J15" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K15" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L15" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M15" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N15" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O15" s="11"/>
-      <c r="P15" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P15" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q15" s="11"/>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
@@ -2080,46 +2146,50 @@
         <v>22807</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="E16" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F16" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G16" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H16" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I16" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J16" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K16" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L16" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M16" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N16" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O16" s="11"/>
-      <c r="P16" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P16" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q16" s="11"/>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
@@ -2133,46 +2203,50 @@
         <v>22807</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="E17" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F17" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H17" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I17" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J17" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K17" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L17" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M17" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N17" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P17" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q17" s="11"/>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
@@ -2186,46 +2260,50 @@
         <v>22807</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E18" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F18" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G18" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H18" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I18" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J18" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K18" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L18" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M18" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N18" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P18" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q18" s="11"/>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
@@ -2239,46 +2317,50 @@
         <v>22807</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="E19" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F19" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G19" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H19" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I19" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J19" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K19" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L19" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M19" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N19" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P19" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q19" s="11"/>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
@@ -2301,37 +2383,41 @@
         <v>71</v>
       </c>
       <c r="E20" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G20" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H20" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I20" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J20" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K20" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L20" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M20" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N20" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O20" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P20" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q20" s="11"/>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
@@ -2345,46 +2431,50 @@
         <v>22807</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E21" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G21" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H21" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I21" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J21" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K21" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L21" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M21" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N21" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P21" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q21" s="11"/>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
@@ -2398,46 +2488,50 @@
         <v>22807</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="E22" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G22" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H22" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I22" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J22" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K22" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L22" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M22" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N22" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O22" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P22" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q22" s="11"/>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
@@ -2451,46 +2545,50 @@
         <v>22807</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="E23" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F23" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G23" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H23" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I23" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J23" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K23" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L23" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M23" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N23" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O23" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P23" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q23" s="11"/>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
@@ -2504,46 +2602,50 @@
         <v>22807</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="E24" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F24" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G24" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H24" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I24" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J24" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K24" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L24" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M24" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N24" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O24" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P24" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q24" s="11"/>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
@@ -2557,46 +2659,50 @@
         <v>22807</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E25" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F25" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G25" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H25" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I25" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J25" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K25" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L25" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M25" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N25" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O25" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q25" s="11"/>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
@@ -2610,46 +2716,50 @@
         <v>22807</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E26" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F26" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H26" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I26" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J26" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K26" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L26" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M26" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N26" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O26" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P26" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q26" s="11"/>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
@@ -2663,46 +2773,50 @@
         <v>22807</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="E27" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F27" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H27" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I27" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J27" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K27" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L27" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M27" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N27" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O27" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P27" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q27" s="11"/>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
@@ -2716,46 +2830,50 @@
         <v>22807</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E28" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F28" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G28" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H28" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I28" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J28" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K28" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L28" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M28" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N28" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O28" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P28" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q28" s="11"/>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
@@ -2769,46 +2887,50 @@
         <v>22807</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="E29" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F29" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G29" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H29" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I29" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J29" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K29" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L29" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M29" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N29" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O29" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P29" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q29" s="11"/>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
@@ -2822,46 +2944,50 @@
         <v>22807</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="E30" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F30" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G30" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H30" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I30" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J30" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K30" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L30" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M30" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N30" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O30" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P30" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q30" s="11"/>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
@@ -2875,46 +3001,50 @@
         <v>22807</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F31" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G31" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H31" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I31" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J31" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K31" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L31" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M31" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N31" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O31" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P31" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q31" s="11"/>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
@@ -2928,46 +3058,50 @@
         <v>22807</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="E32" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F32" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G32" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H32" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I32" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J32" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K32" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L32" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M32" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N32" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O32" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P32" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q32" s="11"/>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
@@ -2981,46 +3115,50 @@
         <v>22807</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E33" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F33" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G33" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H33" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I33" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J33" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K33" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L33" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M33" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N33" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O33" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P33" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q33" s="11"/>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
@@ -3034,46 +3172,50 @@
         <v>22807</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>120</v>
+        <v>111</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="E34" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F34" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G34" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H34" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I34" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J34" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K34" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L34" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M34" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N34" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O34" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P34" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q34" s="11"/>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
@@ -3087,46 +3229,50 @@
         <v>22807</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E35" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F35" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G35" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H35" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I35" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J35" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K35" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L35" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M35" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N35" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O35" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P35" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q35" s="11"/>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
@@ -3140,46 +3286,50 @@
         <v>22807</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="E36" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F36" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G36" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H36" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I36" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J36" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K36" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L36" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M36" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N36" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O36" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P36" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q36" s="11"/>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
@@ -3193,46 +3343,50 @@
         <v>22807</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>129</v>
+        <v>120</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>130</v>
+        <v>121</v>
       </c>
       <c r="E37" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F37" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G37" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I37" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J37" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K37" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L37" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M37" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N37" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O37" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P37" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q37" s="11"/>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
@@ -3246,46 +3400,50 @@
         <v>22807</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E38" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F38" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G38" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H38" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I38" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J38" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K38" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L38" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M38" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N38" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O38" s="11"/>
-      <c r="P38" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O38" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P38" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q38" s="11"/>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
@@ -3299,46 +3457,50 @@
         <v>22807</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>133</v>
+        <v>125</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>134</v>
+        <v>126</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>135</v>
+        <v>127</v>
       </c>
       <c r="E39" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F39" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G39" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H39" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I39" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J39" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K39" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L39" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M39" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N39" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O39" s="11"/>
-      <c r="P39" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P39" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q39" s="11"/>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
@@ -3352,46 +3514,50 @@
         <v>22807</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>136</v>
+        <v>128</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>137</v>
+        <v>129</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="E40" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F40" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G40" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H40" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I40" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J40" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K40" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L40" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M40" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N40" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O40" s="11"/>
-      <c r="P40" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P40" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q40" s="11"/>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
@@ -3405,46 +3571,50 @@
         <v>22807</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F41" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G41" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H41" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I41" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J41" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K41" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L41" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M41" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N41" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O41" s="11"/>
-      <c r="P41" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O41" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P41" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q41" s="11"/>
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
@@ -3458,46 +3628,50 @@
         <v>22807</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>145</v>
+        <v>134</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>132</v>
+        <v>124</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F42" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G42" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H42" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I42" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J42" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K42" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L42" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M42" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N42" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O42" s="11"/>
-      <c r="P42" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P42" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q42" s="11"/>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
@@ -3511,46 +3685,50 @@
         <v>22807</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>148</v>
+        <v>137</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F43" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G43" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H43" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I43" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J43" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K43" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L43" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M43" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N43" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O43" s="11"/>
-      <c r="P43" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O43" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P43" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q43" s="11"/>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
@@ -3564,46 +3742,50 @@
         <v>22807</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>149</v>
+        <v>138</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>150</v>
+        <v>139</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>151</v>
+        <v>140</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F44" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G44" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H44" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I44" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J44" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K44" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L44" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M44" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N44" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O44" s="11"/>
-      <c r="P44" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O44" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P44" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q44" s="11"/>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
@@ -3617,46 +3799,50 @@
         <v>22807</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>152</v>
+        <v>141</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>153</v>
+        <v>142</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="E45" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F45" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G45" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H45" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I45" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J45" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K45" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L45" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M45" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N45" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O45" s="11"/>
-      <c r="P45" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O45" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P45" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q45" s="11"/>
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
@@ -3670,46 +3856,50 @@
         <v>22807</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>156</v>
+        <v>145</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>157</v>
+        <v>146</v>
       </c>
       <c r="E46" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F46" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G46" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H46" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I46" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J46" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K46" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L46" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M46" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N46" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O46" s="11"/>
-      <c r="P46" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P46" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q46" s="11"/>
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
@@ -3723,46 +3913,50 @@
         <v>22807</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>158</v>
+        <v>147</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>160</v>
+        <v>149</v>
       </c>
       <c r="E47" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F47" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G47" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H47" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I47" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J47" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K47" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L47" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M47" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N47" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O47" s="11"/>
-      <c r="P47" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O47" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P47" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q47" s="11"/>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
@@ -3776,46 +3970,50 @@
         <v>22807</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>161</v>
+        <v>150</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>162</v>
+        <v>151</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>163</v>
+        <v>152</v>
       </c>
       <c r="E48" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F48" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G48" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H48" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I48" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J48" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K48" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L48" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M48" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N48" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O48" s="11"/>
-      <c r="P48" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P48" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q48" s="11"/>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
@@ -3829,46 +4027,50 @@
         <v>22807</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>167</v>
+        <v>153</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>168</v>
+        <v>154</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>169</v>
+        <v>155</v>
       </c>
       <c r="E49" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F49" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G49" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H49" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I49" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J49" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K49" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L49" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M49" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N49" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O49" s="11"/>
-      <c r="P49" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O49" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P49" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q49" s="11"/>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
@@ -3882,46 +4084,50 @@
         <v>22807</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>170</v>
+        <v>156</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>171</v>
+        <v>157</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>172</v>
+        <v>158</v>
       </c>
       <c r="E50" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F50" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G50" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H50" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I50" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J50" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K50" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L50" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M50" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N50" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O50" s="11"/>
-      <c r="P50" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P50" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q50" s="11"/>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
@@ -3935,46 +4141,50 @@
         <v>22807</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>173</v>
+        <v>159</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>174</v>
+        <v>160</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>175</v>
+        <v>161</v>
       </c>
       <c r="E51" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F51" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G51" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H51" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I51" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J51" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K51" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L51" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M51" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N51" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O51" s="11"/>
-      <c r="P51" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P51" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q51" s="11"/>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
@@ -3988,46 +4198,50 @@
         <v>22807</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>181</v>
+        <v>164</v>
       </c>
       <c r="E52" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F52" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G52" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H52" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I52" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J52" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K52" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L52" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M52" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N52" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O52" s="11"/>
-      <c r="P52" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P52" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q52" s="11"/>
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
@@ -4041,46 +4255,50 @@
         <v>22807</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>182</v>
+        <v>165</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>183</v>
+        <v>166</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>184</v>
+        <v>167</v>
       </c>
       <c r="E53" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F53" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G53" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H53" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I53" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J53" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K53" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L53" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M53" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N53" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O53" s="11"/>
-      <c r="P53" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O53" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P53" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q53" s="11"/>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
@@ -4094,46 +4312,50 @@
         <v>22807</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>185</v>
+        <v>168</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>186</v>
+        <v>169</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="E54" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F54" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G54" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H54" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I54" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J54" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K54" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L54" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M54" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N54" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O54" s="11"/>
-      <c r="P54" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O54" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P54" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q54" s="11"/>
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
@@ -4147,46 +4369,50 @@
         <v>22807</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>187</v>
+        <v>170</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>188</v>
+        <v>171</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>189</v>
+        <v>172</v>
       </c>
       <c r="E55" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F55" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G55" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H55" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I55" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J55" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K55" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L55" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M55" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N55" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O55" s="11"/>
-      <c r="P55" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O55" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P55" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q55" s="11"/>
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
@@ -4200,46 +4426,50 @@
         <v>22807</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>190</v>
+        <v>173</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>191</v>
+        <v>174</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
       <c r="E56" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F56" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G56" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H56" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I56" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J56" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K56" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L56" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M56" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N56" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O56" s="11"/>
-      <c r="P56" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P56" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q56" s="11"/>
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
@@ -4253,46 +4483,50 @@
         <v>22807</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>193</v>
+        <v>176</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>194</v>
+        <v>177</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>195</v>
+        <v>178</v>
       </c>
       <c r="E57" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F57" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G57" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H57" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I57" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J57" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K57" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L57" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M57" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N57" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O57" s="11"/>
-      <c r="P57" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O57" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P57" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q57" s="11"/>
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
@@ -4306,46 +4540,50 @@
         <v>22807</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>199</v>
+        <v>179</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>200</v>
+        <v>180</v>
       </c>
       <c r="E58" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F58" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G58" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H58" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I58" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J58" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K58" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L58" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M58" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N58" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O58" s="11"/>
-      <c r="P58" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O58" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P58" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q58" s="11"/>
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
@@ -4359,46 +4597,50 @@
         <v>22807</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>201</v>
+        <v>181</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>202</v>
+        <v>182</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>203</v>
+        <v>183</v>
       </c>
       <c r="E59" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F59" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G59" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H59" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I59" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J59" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K59" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L59" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M59" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N59" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O59" s="11"/>
-      <c r="P59" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O59" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P59" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q59" s="11"/>
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
@@ -4412,46 +4654,50 @@
         <v>22807</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>204</v>
+        <v>184</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>205</v>
+        <v>185</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>206</v>
+        <v>186</v>
       </c>
       <c r="E60" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F60" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G60" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H60" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I60" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J60" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K60" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L60" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M60" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N60" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O60" s="11"/>
-      <c r="P60" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O60" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P60" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q60" s="11"/>
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
@@ -4465,46 +4711,50 @@
         <v>22807</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>207</v>
+        <v>187</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>208</v>
+        <v>188</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>209</v>
+        <v>189</v>
       </c>
       <c r="E61" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F61" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G61" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H61" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I61" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J61" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K61" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L61" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M61" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="N61" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O61" s="11"/>
-      <c r="P61" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O61" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P61" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q61" s="11"/>
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
@@ -4518,46 +4768,50 @@
         <v>22807</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="E62" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F62" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G62" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H62" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I62" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J62" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K62" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L62" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M62" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N62" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O62" s="11"/>
-      <c r="P62" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O62" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P62" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q62" s="11"/>
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
@@ -4571,46 +4825,50 @@
         <v>22807</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>219</v>
+        <v>193</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>220</v>
+        <v>194</v>
       </c>
       <c r="E63" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F63" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G63" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H63" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I63" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J63" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K63" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L63" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M63" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N63" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O63" s="11"/>
-      <c r="P63" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O63" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P63" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q63" s="11"/>
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
@@ -4624,46 +4882,50 @@
         <v>22807</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>221</v>
+        <v>195</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>222</v>
+        <v>196</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="E64" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F64" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G64" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H64" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I64" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J64" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K64" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L64" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M64" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N64" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O64" s="11"/>
-      <c r="P64" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O64" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P64" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q64" s="11"/>
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
@@ -4677,46 +4939,50 @@
         <v>22807</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>226</v>
+        <v>197</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>227</v>
+        <v>198</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>228</v>
+        <v>199</v>
       </c>
       <c r="E65" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F65" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G65" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H65" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I65" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J65" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K65" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L65" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M65" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N65" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O65" s="11"/>
-      <c r="P65" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
@@ -4730,46 +4996,50 @@
         <v>22807</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>229</v>
+        <v>200</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>230</v>
+        <v>201</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>231</v>
+        <v>202</v>
       </c>
       <c r="E66" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F66" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G66" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I66" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J66" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K66" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L66" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M66" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N66" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="O66" s="11"/>
-      <c r="P66" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="O66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P66" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
@@ -4783,46 +5053,50 @@
         <v>22807</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>66</v>
+        <v>203</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>67</v>
+        <v>204</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>68</v>
+        <v>205</v>
       </c>
       <c r="E67" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F67" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G67" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H67" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I67" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J67" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K67" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L67" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M67" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N67" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O67" s="11"/>
-      <c r="P67" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="N67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O67" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P67" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q67" s="11"/>
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
@@ -4836,46 +5110,50 @@
         <v>22807</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>72</v>
+        <v>206</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>73</v>
+        <v>123</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>74</v>
+        <v>207</v>
       </c>
       <c r="E68" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F68" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G68" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H68" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I68" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J68" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K68" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L68" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M68" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N68" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O68" s="11"/>
-      <c r="P68" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="N68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O68" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P68" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q68" s="11"/>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
@@ -4889,46 +5167,50 @@
         <v>22807</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>78</v>
+        <v>208</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>79</v>
+        <v>209</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>80</v>
+        <v>210</v>
       </c>
       <c r="E69" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F69" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G69" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H69" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I69" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J69" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K69" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L69" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M69" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N69" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O69" s="11"/>
-      <c r="P69" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="N69" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O69" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P69" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q69" s="11"/>
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
@@ -4942,46 +5224,50 @@
         <v>22807</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>113</v>
+        <v>211</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>114</v>
+        <v>212</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>115</v>
+        <v>213</v>
       </c>
       <c r="E70" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F70" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G70" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H70" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I70" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J70" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K70" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L70" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M70" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N70" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O70" s="11"/>
-      <c r="P70" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="N70" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O70" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P70" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q70" s="11"/>
       <c r="R70" s="11"/>
       <c r="S70" s="11"/>
@@ -4995,46 +5281,50 @@
         <v>22807</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>141</v>
+        <v>214</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>142</v>
+        <v>215</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>143</v>
+        <v>216</v>
       </c>
       <c r="E71" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F71" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G71" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H71" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I71" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J71" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K71" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L71" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M71" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N71" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O71" s="11"/>
-      <c r="P71" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="N71" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O71" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P71" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q71" s="11"/>
       <c r="R71" s="11"/>
       <c r="S71" s="11"/>
@@ -5048,46 +5338,50 @@
         <v>22807</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>164</v>
+        <v>217</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>165</v>
+        <v>218</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>166</v>
+        <v>219</v>
       </c>
       <c r="E72" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F72" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G72" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H72" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I72" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J72" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K72" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L72" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M72" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N72" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O72" s="11"/>
-      <c r="P72" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
       <c r="S72" s="11"/>
@@ -5101,46 +5395,50 @@
         <v>22807</v>
       </c>
       <c r="B73" s="8" t="s">
-        <v>176</v>
+        <v>220</v>
       </c>
       <c r="C73" s="8" t="s">
-        <v>177</v>
+        <v>221</v>
       </c>
       <c r="D73" s="8" t="s">
-        <v>178</v>
+        <v>222</v>
       </c>
       <c r="E73" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F73" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G73" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H73" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I73" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J73" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K73" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L73" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M73" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N73" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O73" s="11"/>
-      <c r="P73" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="N73" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O73" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P73" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q73" s="11"/>
       <c r="R73" s="11"/>
       <c r="S73" s="11"/>
@@ -5154,46 +5452,50 @@
         <v>22807</v>
       </c>
       <c r="B74" s="8" t="s">
-        <v>196</v>
+        <v>223</v>
       </c>
       <c r="C74" s="8" t="s">
-        <v>197</v>
+        <v>224</v>
       </c>
       <c r="D74" s="8" t="s">
-        <v>198</v>
+        <v>225</v>
       </c>
       <c r="E74" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F74" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G74" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H74" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I74" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J74" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K74" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L74" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M74" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N74" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O74" s="11"/>
-      <c r="P74" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="N74" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O74" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P74" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q74" s="11"/>
       <c r="R74" s="11"/>
       <c r="S74" s="11"/>
@@ -5207,46 +5509,50 @@
         <v>22807</v>
       </c>
       <c r="B75" s="8" t="s">
-        <v>210</v>
+        <v>226</v>
       </c>
       <c r="C75" s="8" t="s">
-        <v>211</v>
+        <v>227</v>
       </c>
       <c r="D75" s="8" t="s">
-        <v>212</v>
+        <v>228</v>
       </c>
       <c r="E75" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F75" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G75" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H75" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I75" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J75" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K75" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L75" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M75" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="N75" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O75" s="11"/>
-      <c r="P75" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="N75" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O75" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P75" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q75" s="11"/>
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
@@ -5260,46 +5566,50 @@
         <v>22807</v>
       </c>
       <c r="B76" s="8" t="s">
-        <v>216</v>
+        <v>229</v>
       </c>
       <c r="C76" s="8" t="s">
-        <v>217</v>
+        <v>230</v>
       </c>
       <c r="D76" s="8" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="E76" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F76" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G76" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H76" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I76" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J76" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L76" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M76" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N76" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O76" s="11"/>
-      <c r="P76" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O76" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P76" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q76" s="11"/>
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
@@ -5313,46 +5623,50 @@
         <v>22807</v>
       </c>
       <c r="B77" s="8" t="s">
-        <v>223</v>
+        <v>232</v>
       </c>
       <c r="C77" s="8" t="s">
-        <v>224</v>
+        <v>233</v>
       </c>
       <c r="D77" s="8" t="s">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="E77" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F77" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G77" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H77" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I77" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J77" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L77" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="M77" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N77" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O77" s="11"/>
-      <c r="P77" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O77" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P77" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q77" s="11"/>
       <c r="R77" s="11"/>
       <c r="S77" s="11"/>
@@ -5366,46 +5680,50 @@
         <v>22807</v>
       </c>
       <c r="B78" s="8" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="C78" s="8" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="D78" s="8" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="E78" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F78" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G78" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H78" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I78" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J78" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="K78" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L78" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M78" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N78" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O78" s="11"/>
-      <c r="P78" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O78" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P78" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q78" s="11"/>
       <c r="R78" s="11"/>
       <c r="S78" s="11"/>
@@ -5419,46 +5737,50 @@
         <v>22807</v>
       </c>
       <c r="B79" s="8" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="C79" s="8" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="D79" s="8" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="E79" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F79" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G79" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H79" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I79" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J79" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K79" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="L79" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M79" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N79" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O79" s="11"/>
-      <c r="P79" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O79" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P79" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q79" s="11"/>
       <c r="R79" s="11"/>
       <c r="S79" s="11"/>
@@ -5472,46 +5794,50 @@
         <v>22807</v>
       </c>
       <c r="B80" s="8" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="C80" s="8" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="D80" s="8" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="E80" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F80" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G80" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H80" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I80" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J80" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K80" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L80" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M80" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N80" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O80" s="11"/>
-      <c r="P80" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O80" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q80" s="11"/>
       <c r="R80" s="11"/>
       <c r="S80" s="11"/>
@@ -5525,46 +5851,50 @@
         <v>22807</v>
       </c>
       <c r="B81" s="8" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="C81" s="8" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D81" s="8" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="E81" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F81" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G81" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="H81" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I81" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J81" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K81" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L81" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M81" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N81" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O81" s="11"/>
-      <c r="P81" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O81" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P81" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q81" s="11"/>
       <c r="R81" s="11"/>
       <c r="S81" s="11"/>
@@ -5578,46 +5908,50 @@
         <v>22807</v>
       </c>
       <c r="B82" s="8" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="C82" s="8" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="D82" s="8" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="E82" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F82" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G82" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H82" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I82" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J82" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K82" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L82" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M82" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N82" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O82" s="11"/>
-      <c r="P82" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O82" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P82" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q82" s="11"/>
       <c r="R82" s="11"/>
       <c r="S82" s="11"/>
@@ -5631,46 +5965,50 @@
         <v>22807</v>
       </c>
       <c r="B83" s="8" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="C83" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D83" s="8" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="E83" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F83" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G83" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H83" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I83" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J83" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K83" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L83" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M83" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N83" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O83" s="11"/>
-      <c r="P83" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O83" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q83" s="11"/>
       <c r="R83" s="11"/>
       <c r="S83" s="11"/>
@@ -5684,46 +6022,50 @@
         <v>22807</v>
       </c>
       <c r="B84" s="8" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="C84" s="8" t="s">
-        <v>180</v>
+        <v>163</v>
       </c>
       <c r="D84" s="8" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="E84" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F84" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G84" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H84" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I84" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J84" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K84" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L84" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M84" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N84" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O84" s="11"/>
-      <c r="P84" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O84" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P84" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q84" s="11"/>
       <c r="R84" s="11"/>
       <c r="S84" s="11"/>
@@ -5737,46 +6079,50 @@
         <v>22807</v>
       </c>
       <c r="B85" s="8" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="C85" s="8" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="D85" s="8" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="E85" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F85" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G85" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H85" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I85" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J85" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K85" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L85" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M85" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N85" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O85" s="11"/>
-      <c r="P85" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O85" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q85" s="11"/>
       <c r="R85" s="11"/>
       <c r="S85" s="11"/>
@@ -5790,46 +6136,50 @@
         <v>22807</v>
       </c>
       <c r="B86" s="8" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="C86" s="8" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="D86" s="8" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="E86" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F86" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G86" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H86" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I86" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J86" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K86" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L86" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M86" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N86" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O86" s="11"/>
-      <c r="P86" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O86" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P86" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q86" s="11"/>
       <c r="R86" s="11"/>
       <c r="S86" s="11"/>
@@ -5843,46 +6193,50 @@
         <v>22807</v>
       </c>
       <c r="B87" s="8" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="C87" s="8" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="D87" s="8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="E87" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F87" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G87" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H87" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I87" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J87" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K87" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L87" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M87" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N87" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O87" s="11"/>
-      <c r="P87" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O87" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P87" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q87" s="11"/>
       <c r="R87" s="11"/>
       <c r="S87" s="11"/>
@@ -5896,46 +6250,50 @@
         <v>22807</v>
       </c>
       <c r="B88" s="9" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="C88" s="9" t="s">
-        <v>159</v>
+        <v>148</v>
       </c>
       <c r="D88" s="9" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="E88" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F88" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G88" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H88" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I88" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J88" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K88" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L88" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M88" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N88" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O88" s="11"/>
-      <c r="P88" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O88" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P88" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q88" s="11"/>
       <c r="R88" s="11"/>
       <c r="S88" s="11"/>
@@ -5949,46 +6307,50 @@
         <v>22807</v>
       </c>
       <c r="B89" s="8" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="C89" s="8" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="D89" s="8" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="E89" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F89" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G89" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H89" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I89" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J89" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K89" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L89" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M89" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N89" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O89" s="11"/>
-      <c r="P89" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O89" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P89" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q89" s="11"/>
       <c r="R89" s="11"/>
       <c r="S89" s="11"/>
@@ -6002,46 +6364,50 @@
         <v>22807</v>
       </c>
       <c r="B90" s="8" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="C90" s="8" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="D90" s="8" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="E90" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F90" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G90" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H90" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I90" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J90" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K90" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L90" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M90" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N90" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O90" s="11"/>
-      <c r="P90" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O90" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P90" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q90" s="11"/>
       <c r="R90" s="11"/>
       <c r="S90" s="11"/>
@@ -6055,46 +6421,50 @@
         <v>22807</v>
       </c>
       <c r="B91" s="8" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="C91" s="8" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D91" s="8" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="E91" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F91" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G91" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H91" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I91" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J91" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K91" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L91" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M91" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N91" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O91" s="11"/>
-      <c r="P91" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O91" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P91" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q91" s="11"/>
       <c r="R91" s="11"/>
       <c r="S91" s="11"/>
@@ -6108,46 +6478,50 @@
         <v>22807</v>
       </c>
       <c r="B92" s="8" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="C92" s="8" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D92" s="8" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E92" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F92" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G92" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H92" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I92" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J92" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K92" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L92" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M92" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N92" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O92" s="11"/>
-      <c r="P92" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O92" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P92" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q92" s="11"/>
       <c r="R92" s="11"/>
       <c r="S92" s="11"/>
@@ -6161,46 +6535,50 @@
         <v>22807</v>
       </c>
       <c r="B93" s="8" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="C93" s="8" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="D93" s="8" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="E93" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F93" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="G93" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H93" s="10" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="I93" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J93" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K93" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L93" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M93" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N93" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O93" s="11"/>
-      <c r="P93" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O93" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P93" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q93" s="11"/>
       <c r="R93" s="11"/>
       <c r="S93" s="11"/>
@@ -6214,46 +6592,50 @@
         <v>22807</v>
       </c>
       <c r="B94" s="8" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="C94" s="8" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="D94" s="8" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>13</v>
-      </c>
-      <c r="F94" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="G94" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="H94" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="I94" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="J94" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="K94" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="L94" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="M94" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="N94" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O94" s="11"/>
-      <c r="P94" s="11"/>
+        <v>16</v>
+      </c>
+      <c r="F94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O94" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P94" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="Q94" s="11"/>
       <c r="R94" s="11"/>
       <c r="S94" s="11"/>
@@ -6267,46 +6649,50 @@
         <v>22807</v>
       </c>
       <c r="B95" s="8" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="C95" s="8" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="D95" s="8" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="E95" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F95" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G95" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H95" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I95" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J95" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K95" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L95" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M95" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N95" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O95" s="11"/>
-      <c r="P95" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O95" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P95" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q95" s="11"/>
       <c r="R95" s="11"/>
       <c r="S95" s="11"/>
@@ -6320,46 +6706,50 @@
         <v>22807</v>
       </c>
       <c r="B96" s="8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="C96" s="8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="D96" s="8" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="E96" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="F96" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="G96" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="H96" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="I96" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="J96" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K96" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="L96" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="M96" s="12" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="N96" s="12" t="s">
-        <v>50</v>
-      </c>
-      <c r="O96" s="11"/>
-      <c r="P96" s="11"/>
+        <v>53</v>
+      </c>
+      <c r="O96" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P96" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="Q96" s="11"/>
       <c r="R96" s="11"/>
       <c r="S96" s="11"/>
@@ -6995,7 +7385,7 @@
     </row>
     <row r="122" spans="1:23" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A122" s="14" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="B122" s="11"/>
       <c r="C122" s="11"/>
@@ -28771,12 +29161,7 @@
       <c r="W992" s="6"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:W992">
-    <sortState ref="A2:Z992">
-      <sortCondition ref="N1:N992"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape" r:id="rId1"/>
+  <pageSetup orientation="landscape"/>
 </worksheet>
 </file>
--- a/22807.xlsx
+++ b/22807.xlsx
@@ -9,18 +9,21 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17256" windowHeight="5712"/>
   </bookViews>
   <sheets>
     <sheet name="#22807" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22807'!$A$1:$W$992</definedName>
+  </definedNames>
+  <calcPr calcId="162913"/>
   <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1439" uniqueCount="287">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1534" uniqueCount="287">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -1274,7 +1277,7 @@
   <dimension ref="A1:W992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="E1:G1048576"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1335,7 +1338,9 @@
       <c r="P1" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="Q1" s="5"/>
+      <c r="Q1" s="3">
+        <v>44808</v>
+      </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>
       <c r="T1" s="5"/>
@@ -1392,7 +1397,9 @@
       <c r="P2" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q2" s="11"/>
+      <c r="Q2" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R2" s="11"/>
       <c r="S2" s="11"/>
       <c r="T2" s="11"/>
@@ -1405,13 +1412,13 @@
         <v>22807</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C3" s="8" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E3" s="10" t="s">
         <v>16</v>
@@ -1449,7 +1456,9 @@
       <c r="P3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q3" s="11"/>
+      <c r="Q3" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R3" s="11"/>
       <c r="S3" s="11"/>
       <c r="T3" s="11"/>
@@ -1462,13 +1471,13 @@
         <v>22807</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E4" s="10" t="s">
         <v>16</v>
@@ -1506,7 +1515,9 @@
       <c r="P4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q4" s="11"/>
+      <c r="Q4" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R4" s="11"/>
       <c r="S4" s="11"/>
       <c r="T4" s="11"/>
@@ -1519,13 +1530,13 @@
         <v>22807</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E5" s="10" t="s">
         <v>16</v>
@@ -1563,7 +1574,9 @@
       <c r="P5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q5" s="11"/>
+      <c r="Q5" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R5" s="11"/>
       <c r="S5" s="11"/>
       <c r="T5" s="11"/>
@@ -1576,13 +1589,13 @@
         <v>22807</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E6" s="10" t="s">
         <v>16</v>
@@ -1620,7 +1633,9 @@
       <c r="P6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q6" s="11"/>
+      <c r="Q6" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R6" s="11"/>
       <c r="S6" s="11"/>
       <c r="T6" s="11"/>
@@ -1633,13 +1648,13 @@
         <v>22807</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E7" s="10" t="s">
         <v>16</v>
@@ -1677,7 +1692,9 @@
       <c r="P7" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q7" s="11"/>
+      <c r="Q7" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R7" s="11"/>
       <c r="S7" s="11"/>
       <c r="T7" s="11"/>
@@ -1690,13 +1707,13 @@
         <v>22807</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="E8" s="10" t="s">
         <v>16</v>
@@ -1734,7 +1751,9 @@
       <c r="P8" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q8" s="11"/>
+      <c r="Q8" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R8" s="11"/>
       <c r="S8" s="11"/>
       <c r="T8" s="11"/>
@@ -1747,13 +1766,13 @@
         <v>22807</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>35</v>
+        <v>41</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="E9" s="10" t="s">
         <v>16</v>
@@ -1791,7 +1810,9 @@
       <c r="P9" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="11"/>
+      <c r="Q9" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R9" s="11"/>
       <c r="S9" s="11"/>
       <c r="T9" s="11"/>
@@ -1804,13 +1825,13 @@
         <v>22807</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="E10" s="10" t="s">
         <v>16</v>
@@ -1848,7 +1869,9 @@
       <c r="P10" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q10" s="11"/>
+      <c r="Q10" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R10" s="11"/>
       <c r="S10" s="11"/>
       <c r="T10" s="11"/>
@@ -1861,13 +1884,13 @@
         <v>22807</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>41</v>
+        <v>47</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
       <c r="E11" s="10" t="s">
         <v>16</v>
@@ -1905,7 +1928,9 @@
       <c r="P11" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q11" s="11"/>
+      <c r="Q11" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R11" s="11"/>
       <c r="S11" s="11"/>
       <c r="T11" s="11"/>
@@ -1918,16 +1943,16 @@
         <v>22807</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>44</v>
+        <v>50</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" s="10" t="s">
-        <v>16</v>
+        <v>52</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>16</v>
@@ -1962,7 +1987,9 @@
       <c r="P12" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q12" s="11"/>
+      <c r="Q12" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R12" s="11"/>
       <c r="S12" s="11"/>
       <c r="T12" s="11"/>
@@ -1975,16 +2002,16 @@
         <v>22807</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="10" t="s">
-        <v>16</v>
+        <v>56</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>16</v>
@@ -2019,7 +2046,9 @@
       <c r="P13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q13" s="11"/>
+      <c r="Q13" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R13" s="11"/>
       <c r="S13" s="11"/>
       <c r="T13" s="11"/>
@@ -2032,16 +2061,16 @@
         <v>22807</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="12" t="s">
-        <v>53</v>
+        <v>59</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>16</v>
@@ -2076,7 +2105,9 @@
       <c r="P14" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q14" s="11"/>
+      <c r="Q14" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R14" s="11"/>
       <c r="S14" s="11"/>
       <c r="T14" s="11"/>
@@ -2089,16 +2120,16 @@
         <v>22807</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>54</v>
+        <v>60</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>55</v>
+        <v>61</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>56</v>
-      </c>
-      <c r="E15" s="12" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>16</v>
@@ -2133,7 +2164,9 @@
       <c r="P15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q15" s="11"/>
+      <c r="Q15" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R15" s="11"/>
       <c r="S15" s="11"/>
       <c r="T15" s="11"/>
@@ -2146,13 +2179,13 @@
         <v>22807</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>57</v>
+        <v>63</v>
       </c>
       <c r="C16" s="8" t="s">
-        <v>58</v>
+        <v>64</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="E16" s="10" t="s">
         <v>16</v>
@@ -2190,7 +2223,9 @@
       <c r="P16" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q16" s="11"/>
+      <c r="Q16" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R16" s="11"/>
       <c r="S16" s="11"/>
       <c r="T16" s="11"/>
@@ -2203,13 +2238,13 @@
         <v>22807</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>61</v>
+        <v>67</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>62</v>
+        <v>68</v>
       </c>
       <c r="E17" s="10" t="s">
         <v>16</v>
@@ -2247,7 +2282,9 @@
       <c r="P17" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q17" s="11"/>
+      <c r="Q17" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R17" s="11"/>
       <c r="S17" s="11"/>
       <c r="T17" s="11"/>
@@ -2260,13 +2297,13 @@
         <v>22807</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>63</v>
+        <v>69</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>64</v>
+        <v>70</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="E18" s="10" t="s">
         <v>16</v>
@@ -2304,7 +2341,9 @@
       <c r="P18" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q18" s="11"/>
+      <c r="Q18" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R18" s="11"/>
       <c r="S18" s="11"/>
       <c r="T18" s="11"/>
@@ -2317,13 +2356,13 @@
         <v>22807</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>66</v>
+        <v>72</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>67</v>
+        <v>73</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>68</v>
+        <v>74</v>
       </c>
       <c r="E19" s="10" t="s">
         <v>16</v>
@@ -2361,7 +2400,9 @@
       <c r="P19" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q19" s="11"/>
+      <c r="Q19" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R19" s="11"/>
       <c r="S19" s="11"/>
       <c r="T19" s="11"/>
@@ -2374,13 +2415,13 @@
         <v>22807</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="C20" s="8" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="E20" s="10" t="s">
         <v>16</v>
@@ -2418,7 +2459,9 @@
       <c r="P20" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q20" s="11"/>
+      <c r="Q20" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R20" s="11"/>
       <c r="S20" s="11"/>
       <c r="T20" s="11"/>
@@ -2431,13 +2474,13 @@
         <v>22807</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C21" s="8" t="s">
-        <v>73</v>
+        <v>55</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="E21" s="10" t="s">
         <v>16</v>
@@ -2475,7 +2518,9 @@
       <c r="P21" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q21" s="11"/>
+      <c r="Q21" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R21" s="11"/>
       <c r="S21" s="11"/>
       <c r="T21" s="11"/>
@@ -2488,13 +2533,13 @@
         <v>22807</v>
       </c>
       <c r="B22" s="8" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="C22" s="8" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="E22" s="10" t="s">
         <v>16</v>
@@ -2532,7 +2577,9 @@
       <c r="P22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q22" s="11"/>
+      <c r="Q22" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R22" s="11"/>
       <c r="S22" s="11"/>
       <c r="T22" s="11"/>
@@ -2545,13 +2592,13 @@
         <v>22807</v>
       </c>
       <c r="B23" s="8" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="C23" s="8" t="s">
-        <v>55</v>
+        <v>84</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="E23" s="10" t="s">
         <v>16</v>
@@ -2589,7 +2636,9 @@
       <c r="P23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q23" s="11"/>
+      <c r="Q23" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R23" s="11"/>
       <c r="S23" s="11"/>
       <c r="T23" s="11"/>
@@ -2602,13 +2651,13 @@
         <v>22807</v>
       </c>
       <c r="B24" s="8" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="C24" s="8" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="E24" s="10" t="s">
         <v>16</v>
@@ -2646,7 +2695,9 @@
       <c r="P24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q24" s="11"/>
+      <c r="Q24" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R24" s="11"/>
       <c r="S24" s="11"/>
       <c r="T24" s="11"/>
@@ -2659,13 +2710,13 @@
         <v>22807</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="D25" s="8" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E25" s="10" t="s">
         <v>16</v>
@@ -2703,7 +2754,9 @@
       <c r="P25" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q25" s="11"/>
+      <c r="Q25" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R25" s="11"/>
       <c r="S25" s="11"/>
       <c r="T25" s="11"/>
@@ -2716,13 +2769,13 @@
         <v>22807</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="C26" s="8" t="s">
-        <v>87</v>
+        <v>93</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E26" s="10" t="s">
         <v>16</v>
@@ -2760,7 +2813,9 @@
       <c r="P26" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q26" s="11"/>
+      <c r="Q26" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R26" s="11"/>
       <c r="S26" s="11"/>
       <c r="T26" s="11"/>
@@ -2773,13 +2828,13 @@
         <v>22807</v>
       </c>
       <c r="B27" s="8" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="C27" s="8" t="s">
-        <v>90</v>
+        <v>96</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="E27" s="10" t="s">
         <v>16</v>
@@ -2817,7 +2872,9 @@
       <c r="P27" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q27" s="11"/>
+      <c r="Q27" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R27" s="11"/>
       <c r="S27" s="11"/>
       <c r="T27" s="11"/>
@@ -2830,13 +2887,13 @@
         <v>22807</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>92</v>
+        <v>98</v>
       </c>
       <c r="C28" s="8" t="s">
-        <v>93</v>
+        <v>99</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>94</v>
+        <v>100</v>
       </c>
       <c r="E28" s="10" t="s">
         <v>16</v>
@@ -2874,7 +2931,9 @@
       <c r="P28" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q28" s="11"/>
+      <c r="Q28" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R28" s="11"/>
       <c r="S28" s="11"/>
       <c r="T28" s="11"/>
@@ -2887,13 +2946,13 @@
         <v>22807</v>
       </c>
       <c r="B29" s="8" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="C29" s="8" t="s">
-        <v>96</v>
+        <v>102</v>
       </c>
       <c r="D29" s="8" t="s">
-        <v>97</v>
+        <v>103</v>
       </c>
       <c r="E29" s="10" t="s">
         <v>16</v>
@@ -2931,7 +2990,9 @@
       <c r="P29" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q29" s="11"/>
+      <c r="Q29" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R29" s="11"/>
       <c r="S29" s="11"/>
       <c r="T29" s="11"/>
@@ -2944,13 +3005,13 @@
         <v>22807</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>98</v>
+        <v>104</v>
       </c>
       <c r="C30" s="8" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
       <c r="E30" s="10" t="s">
         <v>16</v>
@@ -2988,7 +3049,9 @@
       <c r="P30" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q30" s="11"/>
+      <c r="Q30" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R30" s="11"/>
       <c r="S30" s="11"/>
       <c r="T30" s="11"/>
@@ -3001,13 +3064,13 @@
         <v>22807</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>102</v>
+        <v>108</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>103</v>
+        <v>109</v>
       </c>
       <c r="E31" s="10" t="s">
         <v>16</v>
@@ -3045,7 +3108,9 @@
       <c r="P31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q31" s="11"/>
+      <c r="Q31" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R31" s="11"/>
       <c r="S31" s="11"/>
       <c r="T31" s="11"/>
@@ -3058,13 +3123,13 @@
         <v>22807</v>
       </c>
       <c r="B32" s="8" t="s">
-        <v>104</v>
+        <v>110</v>
       </c>
       <c r="C32" s="8" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="E32" s="10" t="s">
         <v>16</v>
@@ -3102,7 +3167,9 @@
       <c r="P32" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q32" s="11"/>
+      <c r="Q32" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R32" s="11"/>
       <c r="S32" s="11"/>
       <c r="T32" s="11"/>
@@ -3115,13 +3182,13 @@
         <v>22807</v>
       </c>
       <c r="B33" s="8" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="E33" s="10" t="s">
         <v>16</v>
@@ -3159,7 +3226,9 @@
       <c r="P33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q33" s="11"/>
+      <c r="Q33" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R33" s="11"/>
       <c r="S33" s="11"/>
       <c r="T33" s="11"/>
@@ -3172,13 +3241,13 @@
         <v>22807</v>
       </c>
       <c r="B34" s="8" t="s">
-        <v>110</v>
+        <v>116</v>
       </c>
       <c r="C34" s="8" t="s">
-        <v>111</v>
+        <v>117</v>
       </c>
       <c r="D34" s="8" t="s">
-        <v>112</v>
+        <v>118</v>
       </c>
       <c r="E34" s="10" t="s">
         <v>16</v>
@@ -3216,7 +3285,9 @@
       <c r="P34" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q34" s="11"/>
+      <c r="Q34" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R34" s="11"/>
       <c r="S34" s="11"/>
       <c r="T34" s="11"/>
@@ -3229,13 +3300,13 @@
         <v>22807</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>113</v>
+        <v>119</v>
       </c>
       <c r="C35" s="8" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>115</v>
+        <v>121</v>
       </c>
       <c r="E35" s="10" t="s">
         <v>16</v>
@@ -3273,7 +3344,9 @@
       <c r="P35" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q35" s="11"/>
+      <c r="Q35" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R35" s="11"/>
       <c r="S35" s="11"/>
       <c r="T35" s="11"/>
@@ -3286,13 +3359,13 @@
         <v>22807</v>
       </c>
       <c r="B36" s="8" t="s">
-        <v>116</v>
+        <v>122</v>
       </c>
       <c r="C36" s="8" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
       <c r="D36" s="8" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="E36" s="10" t="s">
         <v>16</v>
@@ -3330,7 +3403,9 @@
       <c r="P36" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q36" s="11"/>
+      <c r="Q36" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R36" s="11"/>
       <c r="S36" s="11"/>
       <c r="T36" s="11"/>
@@ -3343,16 +3418,16 @@
         <v>22807</v>
       </c>
       <c r="B37" s="8" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="C37" s="8" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="D37" s="8" t="s">
-        <v>121</v>
-      </c>
-      <c r="E37" s="10" t="s">
-        <v>16</v>
+        <v>127</v>
+      </c>
+      <c r="E37" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="F37" s="10" t="s">
         <v>16</v>
@@ -3387,7 +3462,9 @@
       <c r="P37" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q37" s="11"/>
+      <c r="Q37" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R37" s="11"/>
       <c r="S37" s="11"/>
       <c r="T37" s="11"/>
@@ -3400,13 +3477,13 @@
         <v>22807</v>
       </c>
       <c r="B38" s="8" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="C38" s="8" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="D38" s="8" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="E38" s="10" t="s">
         <v>16</v>
@@ -3414,8 +3491,8 @@
       <c r="F38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G38" s="10" t="s">
-        <v>16</v>
+      <c r="G38" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="H38" s="10" t="s">
         <v>16</v>
@@ -3444,7 +3521,9 @@
       <c r="P38" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q38" s="11"/>
+      <c r="Q38" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R38" s="11"/>
       <c r="S38" s="11"/>
       <c r="T38" s="11"/>
@@ -3457,23 +3536,23 @@
         <v>22807</v>
       </c>
       <c r="B39" s="8" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="C39" s="8" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="D39" s="8" t="s">
-        <v>127</v>
-      </c>
-      <c r="E39" s="12" t="s">
+        <v>94</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G39" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F39" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G39" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="H39" s="10" t="s">
         <v>16</v>
       </c>
@@ -3501,7 +3580,9 @@
       <c r="P39" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q39" s="11"/>
+      <c r="Q39" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R39" s="11"/>
       <c r="S39" s="11"/>
       <c r="T39" s="11"/>
@@ -3514,13 +3595,13 @@
         <v>22807</v>
       </c>
       <c r="B40" s="8" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="C40" s="8" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="D40" s="8" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="E40" s="10" t="s">
         <v>16</v>
@@ -3528,15 +3609,15 @@
       <c r="F40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G40" s="12" t="s">
+      <c r="G40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H40" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H40" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I40" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="J40" s="10" t="s">
         <v>16</v>
       </c>
@@ -3558,7 +3639,9 @@
       <c r="P40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q40" s="11"/>
+      <c r="Q40" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R40" s="11"/>
       <c r="S40" s="11"/>
       <c r="T40" s="11"/>
@@ -3571,13 +3654,13 @@
         <v>22807</v>
       </c>
       <c r="B41" s="8" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="C41" s="8" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D41" s="8" t="s">
-        <v>94</v>
+        <v>137</v>
       </c>
       <c r="E41" s="10" t="s">
         <v>16</v>
@@ -3585,8 +3668,8 @@
       <c r="F41" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G41" s="12" t="s">
-        <v>53</v>
+      <c r="G41" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="H41" s="10" t="s">
         <v>16</v>
@@ -3615,7 +3698,9 @@
       <c r="P41" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q41" s="11"/>
+      <c r="Q41" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R41" s="11"/>
       <c r="S41" s="11"/>
       <c r="T41" s="11"/>
@@ -3628,13 +3713,13 @@
         <v>22807</v>
       </c>
       <c r="B42" s="8" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="C42" s="8" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="D42" s="8" t="s">
-        <v>124</v>
+        <v>140</v>
       </c>
       <c r="E42" s="10" t="s">
         <v>16</v>
@@ -3648,12 +3733,12 @@
       <c r="H42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="12" t="s">
+      <c r="I42" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J42" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="K42" s="10" t="s">
         <v>16</v>
       </c>
@@ -3672,7 +3757,9 @@
       <c r="P42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q42" s="11"/>
+      <c r="Q42" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R42" s="11"/>
       <c r="S42" s="11"/>
       <c r="T42" s="11"/>
@@ -3685,13 +3772,13 @@
         <v>22807</v>
       </c>
       <c r="B43" s="8" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="C43" s="8" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
       <c r="D43" s="8" t="s">
-        <v>137</v>
+        <v>143</v>
       </c>
       <c r="E43" s="10" t="s">
         <v>16</v>
@@ -3708,8 +3795,8 @@
       <c r="I43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J43" s="10" t="s">
-        <v>16</v>
+      <c r="J43" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="K43" s="10" t="s">
         <v>16</v>
@@ -3729,7 +3816,9 @@
       <c r="P43" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q43" s="11"/>
+      <c r="Q43" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R43" s="11"/>
       <c r="S43" s="11"/>
       <c r="T43" s="11"/>
@@ -3742,13 +3831,13 @@
         <v>22807</v>
       </c>
       <c r="B44" s="8" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C44" s="8" t="s">
-        <v>139</v>
+        <v>148</v>
       </c>
       <c r="D44" s="8" t="s">
-        <v>140</v>
+        <v>149</v>
       </c>
       <c r="E44" s="10" t="s">
         <v>16</v>
@@ -3786,7 +3875,9 @@
       <c r="P44" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q44" s="11"/>
+      <c r="Q44" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R44" s="11"/>
       <c r="S44" s="11"/>
       <c r="T44" s="11"/>
@@ -3799,16 +3890,16 @@
         <v>22807</v>
       </c>
       <c r="B45" s="8" t="s">
-        <v>141</v>
+        <v>150</v>
       </c>
       <c r="C45" s="8" t="s">
-        <v>142</v>
+        <v>151</v>
       </c>
       <c r="D45" s="8" t="s">
-        <v>143</v>
-      </c>
-      <c r="E45" s="10" t="s">
-        <v>16</v>
+        <v>152</v>
+      </c>
+      <c r="E45" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="F45" s="10" t="s">
         <v>16</v>
@@ -3843,7 +3934,9 @@
       <c r="P45" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q45" s="11"/>
+      <c r="Q45" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R45" s="11"/>
       <c r="S45" s="11"/>
       <c r="T45" s="11"/>
@@ -3856,13 +3949,13 @@
         <v>22807</v>
       </c>
       <c r="B46" s="8" t="s">
-        <v>144</v>
+        <v>153</v>
       </c>
       <c r="C46" s="8" t="s">
-        <v>145</v>
+        <v>154</v>
       </c>
       <c r="D46" s="8" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="E46" s="10" t="s">
         <v>16</v>
@@ -3879,12 +3972,12 @@
       <c r="I46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J46" s="12" t="s">
+      <c r="J46" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K46" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K46" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="L46" s="10" t="s">
         <v>16</v>
       </c>
@@ -3900,7 +3993,9 @@
       <c r="P46" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q46" s="11"/>
+      <c r="Q46" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R46" s="11"/>
       <c r="S46" s="11"/>
       <c r="T46" s="11"/>
@@ -3913,13 +4008,13 @@
         <v>22807</v>
       </c>
       <c r="B47" s="8" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="C47" s="8" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="D47" s="8" t="s">
-        <v>149</v>
+        <v>158</v>
       </c>
       <c r="E47" s="10" t="s">
         <v>16</v>
@@ -3927,8 +4022,8 @@
       <c r="F47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G47" s="10" t="s">
-        <v>16</v>
+      <c r="G47" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="H47" s="10" t="s">
         <v>16</v>
@@ -3936,12 +4031,12 @@
       <c r="I47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J47" s="12" t="s">
+      <c r="J47" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K47" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K47" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="L47" s="10" t="s">
         <v>16</v>
       </c>
@@ -3957,7 +4052,9 @@
       <c r="P47" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q47" s="11"/>
+      <c r="Q47" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R47" s="11"/>
       <c r="S47" s="11"/>
       <c r="T47" s="11"/>
@@ -3970,20 +4067,20 @@
         <v>22807</v>
       </c>
       <c r="B48" s="8" t="s">
-        <v>150</v>
+        <v>159</v>
       </c>
       <c r="C48" s="8" t="s">
-        <v>151</v>
+        <v>160</v>
       </c>
       <c r="D48" s="8" t="s">
-        <v>152</v>
-      </c>
-      <c r="E48" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="E48" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F48" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F48" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="G48" s="10" t="s">
         <v>16</v>
       </c>
@@ -3993,8 +4090,8 @@
       <c r="I48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="12" t="s">
-        <v>53</v>
+      <c r="J48" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="K48" s="10" t="s">
         <v>16</v>
@@ -4014,7 +4111,9 @@
       <c r="P48" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q48" s="11"/>
+      <c r="Q48" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R48" s="11"/>
       <c r="S48" s="11"/>
       <c r="T48" s="11"/>
@@ -4027,13 +4126,13 @@
         <v>22807</v>
       </c>
       <c r="B49" s="8" t="s">
-        <v>153</v>
+        <v>162</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="D49" s="8" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="E49" s="10" t="s">
         <v>16</v>
@@ -4050,8 +4149,8 @@
       <c r="I49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="10" t="s">
-        <v>16</v>
+      <c r="J49" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="K49" s="12" t="s">
         <v>53</v>
@@ -4071,7 +4170,9 @@
       <c r="P49" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q49" s="11"/>
+      <c r="Q49" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R49" s="11"/>
       <c r="S49" s="11"/>
       <c r="T49" s="11"/>
@@ -4084,13 +4185,13 @@
         <v>22807</v>
       </c>
       <c r="B50" s="8" t="s">
-        <v>156</v>
+        <v>168</v>
       </c>
       <c r="C50" s="8" t="s">
-        <v>157</v>
+        <v>169</v>
       </c>
       <c r="D50" s="8" t="s">
-        <v>158</v>
+        <v>115</v>
       </c>
       <c r="E50" s="10" t="s">
         <v>16</v>
@@ -4098,24 +4199,24 @@
       <c r="F50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G50" s="12" t="s">
+      <c r="G50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K50" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L50" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H50" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I50" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J50" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K50" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L50" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M50" s="10" t="s">
         <v>16</v>
       </c>
@@ -4128,7 +4229,9 @@
       <c r="P50" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q50" s="11"/>
+      <c r="Q50" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R50" s="11"/>
       <c r="S50" s="11"/>
       <c r="T50" s="11"/>
@@ -4141,38 +4244,38 @@
         <v>22807</v>
       </c>
       <c r="B51" s="8" t="s">
-        <v>159</v>
+        <v>170</v>
       </c>
       <c r="C51" s="8" t="s">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="D51" s="8" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="E51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F51" s="12" t="s">
+      <c r="F51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K51" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L51" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="G51" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I51" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J51" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K51" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L51" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M51" s="10" t="s">
         <v>16</v>
       </c>
@@ -4185,7 +4288,9 @@
       <c r="P51" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q51" s="11"/>
+      <c r="Q51" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R51" s="11"/>
       <c r="S51" s="11"/>
       <c r="T51" s="11"/>
@@ -4198,16 +4303,16 @@
         <v>22807</v>
       </c>
       <c r="B52" s="8" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C52" s="8" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="D52" s="8" t="s">
-        <v>164</v>
-      </c>
-      <c r="E52" s="10" t="s">
-        <v>16</v>
+        <v>175</v>
+      </c>
+      <c r="E52" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="F52" s="10" t="s">
         <v>16</v>
@@ -4221,15 +4326,15 @@
       <c r="I52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J52" s="12" t="s">
+      <c r="J52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K52" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L52" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="K52" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L52" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="M52" s="10" t="s">
         <v>16</v>
       </c>
@@ -4242,7 +4347,9 @@
       <c r="P52" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q52" s="11"/>
+      <c r="Q52" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R52" s="11"/>
       <c r="S52" s="11"/>
       <c r="T52" s="11"/>
@@ -4255,13 +4362,13 @@
         <v>22807</v>
       </c>
       <c r="B53" s="8" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
       <c r="C53" s="8" t="s">
-        <v>166</v>
+        <v>87</v>
       </c>
       <c r="D53" s="8" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="E53" s="10" t="s">
         <v>16</v>
@@ -4299,7 +4406,9 @@
       <c r="P53" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q53" s="11"/>
+      <c r="Q53" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R53" s="11"/>
       <c r="S53" s="11"/>
       <c r="T53" s="11"/>
@@ -4312,13 +4421,13 @@
         <v>22807</v>
       </c>
       <c r="B54" s="8" t="s">
-        <v>168</v>
+        <v>184</v>
       </c>
       <c r="C54" s="8" t="s">
-        <v>169</v>
+        <v>185</v>
       </c>
       <c r="D54" s="8" t="s">
-        <v>115</v>
+        <v>186</v>
       </c>
       <c r="E54" s="10" t="s">
         <v>16</v>
@@ -4332,8 +4441,8 @@
       <c r="H54" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I54" s="10" t="s">
-        <v>16</v>
+      <c r="I54" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="J54" s="10" t="s">
         <v>16</v>
@@ -4356,7 +4465,9 @@
       <c r="P54" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q54" s="11"/>
+      <c r="Q54" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R54" s="11"/>
       <c r="S54" s="11"/>
       <c r="T54" s="11"/>
@@ -4369,13 +4480,13 @@
         <v>22807</v>
       </c>
       <c r="B55" s="8" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="C55" s="8" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
       <c r="D55" s="8" t="s">
-        <v>172</v>
+        <v>189</v>
       </c>
       <c r="E55" s="10" t="s">
         <v>16</v>
@@ -4389,8 +4500,8 @@
       <c r="H55" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I55" s="10" t="s">
-        <v>16</v>
+      <c r="I55" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="J55" s="10" t="s">
         <v>16</v>
@@ -4413,7 +4524,9 @@
       <c r="P55" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q55" s="11"/>
+      <c r="Q55" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R55" s="11"/>
       <c r="S55" s="11"/>
       <c r="T55" s="11"/>
@@ -4426,41 +4539,41 @@
         <v>22807</v>
       </c>
       <c r="B56" s="8" t="s">
-        <v>173</v>
+        <v>190</v>
       </c>
       <c r="C56" s="8" t="s">
-        <v>174</v>
+        <v>191</v>
       </c>
       <c r="D56" s="8" t="s">
-        <v>175</v>
-      </c>
-      <c r="E56" s="12" t="s">
+        <v>192</v>
+      </c>
+      <c r="E56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="F56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L56" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M56" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="F56" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="G56" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H56" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I56" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J56" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K56" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L56" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="M56" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="N56" s="10" t="s">
         <v>16</v>
       </c>
@@ -4470,7 +4583,9 @@
       <c r="P56" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q56" s="11"/>
+      <c r="Q56" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R56" s="11"/>
       <c r="S56" s="11"/>
       <c r="T56" s="11"/>
@@ -4483,13 +4598,13 @@
         <v>22807</v>
       </c>
       <c r="B57" s="8" t="s">
-        <v>176</v>
+        <v>193</v>
       </c>
       <c r="C57" s="8" t="s">
-        <v>177</v>
+        <v>114</v>
       </c>
       <c r="D57" s="8" t="s">
-        <v>178</v>
+        <v>194</v>
       </c>
       <c r="E57" s="10" t="s">
         <v>16</v>
@@ -4512,12 +4627,12 @@
       <c r="K57" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L57" s="12" t="s">
+      <c r="L57" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M57" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M57" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="N57" s="10" t="s">
         <v>16</v>
       </c>
@@ -4527,7 +4642,9 @@
       <c r="P57" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q57" s="11"/>
+      <c r="Q57" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R57" s="11"/>
       <c r="S57" s="11"/>
       <c r="T57" s="11"/>
@@ -4540,13 +4657,13 @@
         <v>22807</v>
       </c>
       <c r="B58" s="8" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="C58" s="8" t="s">
-        <v>87</v>
+        <v>198</v>
       </c>
       <c r="D58" s="8" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="E58" s="10" t="s">
         <v>16</v>
@@ -4560,20 +4677,20 @@
       <c r="H58" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="10" t="s">
-        <v>16</v>
+      <c r="I58" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="J58" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="K58" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L58" s="12" t="s">
+      <c r="K58" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M58" s="10" t="s">
-        <v>16</v>
+      <c r="L58" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M58" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="N58" s="10" t="s">
         <v>16</v>
@@ -4584,7 +4701,9 @@
       <c r="P58" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q58" s="11"/>
+      <c r="Q58" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R58" s="11"/>
       <c r="S58" s="11"/>
       <c r="T58" s="11"/>
@@ -4597,13 +4716,13 @@
         <v>22807</v>
       </c>
       <c r="B59" s="8" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="C59" s="8" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="D59" s="8" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="E59" s="10" t="s">
         <v>16</v>
@@ -4629,8 +4748,8 @@
       <c r="L59" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M59" s="10" t="s">
-        <v>16</v>
+      <c r="M59" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="N59" s="10" t="s">
         <v>16</v>
@@ -4641,7 +4760,9 @@
       <c r="P59" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q59" s="11"/>
+      <c r="Q59" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R59" s="11"/>
       <c r="S59" s="11"/>
       <c r="T59" s="11"/>
@@ -4654,13 +4775,13 @@
         <v>22807</v>
       </c>
       <c r="B60" s="8" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="C60" s="8" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="D60" s="8" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="E60" s="10" t="s">
         <v>16</v>
@@ -4674,8 +4795,8 @@
       <c r="H60" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I60" s="12" t="s">
-        <v>53</v>
+      <c r="I60" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="J60" s="10" t="s">
         <v>16</v>
@@ -4683,8 +4804,8 @@
       <c r="K60" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L60" s="12" t="s">
-        <v>53</v>
+      <c r="L60" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="M60" s="10" t="s">
         <v>16</v>
@@ -4698,7 +4819,9 @@
       <c r="P60" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q60" s="11"/>
+      <c r="Q60" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R60" s="11"/>
       <c r="S60" s="11"/>
       <c r="T60" s="11"/>
@@ -4711,13 +4834,13 @@
         <v>22807</v>
       </c>
       <c r="B61" s="8" t="s">
-        <v>187</v>
+        <v>208</v>
       </c>
       <c r="C61" s="8" t="s">
-        <v>188</v>
+        <v>209</v>
       </c>
       <c r="D61" s="8" t="s">
-        <v>189</v>
+        <v>210</v>
       </c>
       <c r="E61" s="10" t="s">
         <v>16</v>
@@ -4731,8 +4854,8 @@
       <c r="H61" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I61" s="12" t="s">
-        <v>53</v>
+      <c r="I61" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="J61" s="10" t="s">
         <v>16</v>
@@ -4740,8 +4863,8 @@
       <c r="K61" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L61" s="12" t="s">
-        <v>53</v>
+      <c r="L61" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="M61" s="10" t="s">
         <v>16</v>
@@ -4755,7 +4878,9 @@
       <c r="P61" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q61" s="11"/>
+      <c r="Q61" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R61" s="11"/>
       <c r="S61" s="11"/>
       <c r="T61" s="11"/>
@@ -4768,13 +4893,13 @@
         <v>22807</v>
       </c>
       <c r="B62" s="8" t="s">
-        <v>190</v>
+        <v>211</v>
       </c>
       <c r="C62" s="8" t="s">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="D62" s="8" t="s">
-        <v>192</v>
+        <v>213</v>
       </c>
       <c r="E62" s="10" t="s">
         <v>16</v>
@@ -4800,8 +4925,8 @@
       <c r="L62" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M62" s="12" t="s">
-        <v>53</v>
+      <c r="M62" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="N62" s="10" t="s">
         <v>16</v>
@@ -4812,7 +4937,9 @@
       <c r="P62" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q62" s="11"/>
+      <c r="Q62" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R62" s="11"/>
       <c r="S62" s="11"/>
       <c r="T62" s="11"/>
@@ -4825,13 +4952,13 @@
         <v>22807</v>
       </c>
       <c r="B63" s="8" t="s">
-        <v>193</v>
+        <v>214</v>
       </c>
       <c r="C63" s="8" t="s">
-        <v>114</v>
+        <v>215</v>
       </c>
       <c r="D63" s="8" t="s">
-        <v>194</v>
+        <v>216</v>
       </c>
       <c r="E63" s="10" t="s">
         <v>16</v>
@@ -4845,8 +4972,8 @@
       <c r="H63" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I63" s="10" t="s">
-        <v>16</v>
+      <c r="I63" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="J63" s="10" t="s">
         <v>16</v>
@@ -4857,8 +4984,8 @@
       <c r="L63" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M63" s="12" t="s">
-        <v>53</v>
+      <c r="M63" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="N63" s="10" t="s">
         <v>16</v>
@@ -4869,7 +4996,9 @@
       <c r="P63" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q63" s="11"/>
+      <c r="Q63" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R63" s="11"/>
       <c r="S63" s="11"/>
       <c r="T63" s="11"/>
@@ -4882,13 +5011,13 @@
         <v>22807</v>
       </c>
       <c r="B64" s="8" t="s">
-        <v>195</v>
+        <v>217</v>
       </c>
       <c r="C64" s="8" t="s">
-        <v>196</v>
+        <v>218</v>
       </c>
       <c r="D64" s="8" t="s">
-        <v>94</v>
+        <v>219</v>
       </c>
       <c r="E64" s="10" t="s">
         <v>16</v>
@@ -4896,17 +5025,17 @@
       <c r="F64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G64" s="12" t="s">
+      <c r="G64" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="H64" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="H64" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="J64" s="10" t="s">
-        <v>16</v>
+      <c r="J64" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="K64" s="10" t="s">
         <v>16</v>
@@ -4914,8 +5043,8 @@
       <c r="L64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="M64" s="12" t="s">
-        <v>53</v>
+      <c r="M64" s="10" t="s">
+        <v>16</v>
       </c>
       <c r="N64" s="10" t="s">
         <v>16</v>
@@ -4926,7 +5055,9 @@
       <c r="P64" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q64" s="11"/>
+      <c r="Q64" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="R64" s="11"/>
       <c r="S64" s="11"/>
       <c r="T64" s="11"/>
@@ -4939,13 +5070,13 @@
         <v>22807</v>
       </c>
       <c r="B65" s="8" t="s">
-        <v>197</v>
+        <v>17</v>
       </c>
       <c r="C65" s="8" t="s">
-        <v>198</v>
+        <v>18</v>
       </c>
       <c r="D65" s="8" t="s">
-        <v>199</v>
+        <v>19</v>
       </c>
       <c r="E65" s="10" t="s">
         <v>16</v>
@@ -4959,31 +5090,33 @@
       <c r="H65" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I65" s="12" t="s">
+      <c r="I65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P65" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q65" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K65" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="L65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M65" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P65" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q65" s="11"/>
       <c r="R65" s="11"/>
       <c r="S65" s="11"/>
       <c r="T65" s="11"/>
@@ -4996,13 +5129,13 @@
         <v>22807</v>
       </c>
       <c r="B66" s="8" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="C66" s="8" t="s">
-        <v>201</v>
+        <v>33</v>
       </c>
       <c r="D66" s="8" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="E66" s="10" t="s">
         <v>16</v>
@@ -5025,22 +5158,24 @@
       <c r="K66" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L66" s="12" t="s">
+      <c r="L66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P66" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q66" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="M66" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="N66" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O66" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P66" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q66" s="11"/>
       <c r="R66" s="11"/>
       <c r="S66" s="11"/>
       <c r="T66" s="11"/>
@@ -5053,13 +5188,13 @@
         <v>22807</v>
       </c>
       <c r="B67" s="8" t="s">
-        <v>203</v>
+        <v>144</v>
       </c>
       <c r="C67" s="8" t="s">
-        <v>204</v>
+        <v>145</v>
       </c>
       <c r="D67" s="8" t="s">
-        <v>205</v>
+        <v>146</v>
       </c>
       <c r="E67" s="10" t="s">
         <v>16</v>
@@ -5076,8 +5211,8 @@
       <c r="I67" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="10" t="s">
-        <v>16</v>
+      <c r="J67" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="K67" s="10" t="s">
         <v>16</v>
@@ -5097,7 +5232,9 @@
       <c r="P67" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q67" s="11"/>
+      <c r="Q67" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R67" s="11"/>
       <c r="S67" s="11"/>
       <c r="T67" s="11"/>
@@ -5110,13 +5247,13 @@
         <v>22807</v>
       </c>
       <c r="B68" s="8" t="s">
-        <v>206</v>
+        <v>165</v>
       </c>
       <c r="C68" s="8" t="s">
-        <v>123</v>
+        <v>166</v>
       </c>
       <c r="D68" s="8" t="s">
-        <v>207</v>
+        <v>167</v>
       </c>
       <c r="E68" s="10" t="s">
         <v>16</v>
@@ -5139,8 +5276,8 @@
       <c r="K68" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L68" s="10" t="s">
-        <v>16</v>
+      <c r="L68" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="M68" s="10" t="s">
         <v>16</v>
@@ -5154,7 +5291,9 @@
       <c r="P68" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q68" s="11"/>
+      <c r="Q68" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R68" s="11"/>
       <c r="S68" s="11"/>
       <c r="T68" s="11"/>
@@ -5167,13 +5306,13 @@
         <v>22807</v>
       </c>
       <c r="B69" s="8" t="s">
-        <v>208</v>
+        <v>176</v>
       </c>
       <c r="C69" s="8" t="s">
-        <v>209</v>
+        <v>177</v>
       </c>
       <c r="D69" s="8" t="s">
-        <v>210</v>
+        <v>178</v>
       </c>
       <c r="E69" s="10" t="s">
         <v>16</v>
@@ -5196,8 +5335,8 @@
       <c r="K69" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L69" s="10" t="s">
-        <v>16</v>
+      <c r="L69" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="M69" s="10" t="s">
         <v>16</v>
@@ -5211,7 +5350,9 @@
       <c r="P69" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q69" s="11"/>
+      <c r="Q69" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R69" s="11"/>
       <c r="S69" s="11"/>
       <c r="T69" s="11"/>
@@ -5224,13 +5365,13 @@
         <v>22807</v>
       </c>
       <c r="B70" s="8" t="s">
-        <v>211</v>
+        <v>181</v>
       </c>
       <c r="C70" s="8" t="s">
-        <v>212</v>
+        <v>182</v>
       </c>
       <c r="D70" s="8" t="s">
-        <v>213</v>
+        <v>183</v>
       </c>
       <c r="E70" s="10" t="s">
         <v>16</v>
@@ -5253,8 +5394,8 @@
       <c r="K70" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="L70" s="10" t="s">
-        <v>16</v>
+      <c r="L70" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="M70" s="10" t="s">
         <v>16</v>
@@ -5268,7 +5409,9 @@
       <c r="P70" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q70" s="11"/>
+      <c r="Q70" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R70" s="11"/>
       <c r="S70" s="11"/>
       <c r="T70" s="11"/>
@@ -5281,13 +5424,13 @@
         <v>22807</v>
       </c>
       <c r="B71" s="8" t="s">
-        <v>214</v>
+        <v>195</v>
       </c>
       <c r="C71" s="8" t="s">
-        <v>215</v>
+        <v>196</v>
       </c>
       <c r="D71" s="8" t="s">
-        <v>216</v>
+        <v>94</v>
       </c>
       <c r="E71" s="10" t="s">
         <v>16</v>
@@ -5295,27 +5438,27 @@
       <c r="F71" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G71" s="10" t="s">
-        <v>16</v>
+      <c r="G71" s="12" t="s">
+        <v>53</v>
       </c>
       <c r="H71" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I71" s="12" t="s">
+      <c r="I71" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J71" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K71" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L71" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M71" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J71" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="K71" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L71" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M71" s="10" t="s">
-        <v>16</v>
-      </c>
       <c r="N71" s="10" t="s">
         <v>16</v>
       </c>
@@ -5325,7 +5468,9 @@
       <c r="P71" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q71" s="11"/>
+      <c r="Q71" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R71" s="11"/>
       <c r="S71" s="11"/>
       <c r="T71" s="11"/>
@@ -5338,13 +5483,13 @@
         <v>22807</v>
       </c>
       <c r="B72" s="8" t="s">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="C72" s="8" t="s">
-        <v>218</v>
+        <v>123</v>
       </c>
       <c r="D72" s="8" t="s">
-        <v>219</v>
+        <v>207</v>
       </c>
       <c r="E72" s="10" t="s">
         <v>16</v>
@@ -5358,31 +5503,33 @@
       <c r="H72" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="I72" s="12" t="s">
+      <c r="I72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="K72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="L72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="M72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="N72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="O72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="P72" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q72" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="J72" s="12" t="s">
-        <v>53</v>
-      </c>
-      <c r="K72" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="L72" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="M72" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="N72" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="O72" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="P72" s="10" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q72" s="11"/>
       <c r="R72" s="11"/>
       <c r="S72" s="11"/>
       <c r="T72" s="11"/>
@@ -5439,7 +5586,9 @@
       <c r="P73" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q73" s="11"/>
+      <c r="Q73" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R73" s="11"/>
       <c r="S73" s="11"/>
       <c r="T73" s="11"/>
@@ -5496,7 +5645,9 @@
       <c r="P74" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q74" s="11"/>
+      <c r="Q74" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R74" s="11"/>
       <c r="S74" s="11"/>
       <c r="T74" s="11"/>
@@ -5553,7 +5704,9 @@
       <c r="P75" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q75" s="11"/>
+      <c r="Q75" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R75" s="11"/>
       <c r="S75" s="11"/>
       <c r="T75" s="11"/>
@@ -5610,7 +5763,9 @@
       <c r="P76" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q76" s="11"/>
+      <c r="Q76" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R76" s="11"/>
       <c r="S76" s="11"/>
       <c r="T76" s="11"/>
@@ -5667,7 +5822,9 @@
       <c r="P77" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q77" s="11"/>
+      <c r="Q77" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R77" s="11"/>
       <c r="S77" s="11"/>
       <c r="T77" s="11"/>
@@ -5724,7 +5881,9 @@
       <c r="P78" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q78" s="11"/>
+      <c r="Q78" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R78" s="11"/>
       <c r="S78" s="11"/>
       <c r="T78" s="11"/>
@@ -5781,7 +5940,9 @@
       <c r="P79" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q79" s="11"/>
+      <c r="Q79" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R79" s="11"/>
       <c r="S79" s="11"/>
       <c r="T79" s="11"/>
@@ -5838,7 +5999,9 @@
       <c r="P80" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q80" s="11"/>
+      <c r="Q80" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R80" s="11"/>
       <c r="S80" s="11"/>
       <c r="T80" s="11"/>
@@ -5895,7 +6058,9 @@
       <c r="P81" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q81" s="11"/>
+      <c r="Q81" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R81" s="11"/>
       <c r="S81" s="11"/>
       <c r="T81" s="11"/>
@@ -5952,7 +6117,9 @@
       <c r="P82" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q82" s="11"/>
+      <c r="Q82" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R82" s="11"/>
       <c r="S82" s="11"/>
       <c r="T82" s="11"/>
@@ -6009,7 +6176,9 @@
       <c r="P83" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q83" s="11"/>
+      <c r="Q83" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R83" s="11"/>
       <c r="S83" s="11"/>
       <c r="T83" s="11"/>
@@ -6066,7 +6235,9 @@
       <c r="P84" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q84" s="11"/>
+      <c r="Q84" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R84" s="11"/>
       <c r="S84" s="11"/>
       <c r="T84" s="11"/>
@@ -6123,7 +6294,9 @@
       <c r="P85" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q85" s="11"/>
+      <c r="Q85" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R85" s="11"/>
       <c r="S85" s="11"/>
       <c r="T85" s="11"/>
@@ -6180,7 +6353,9 @@
       <c r="P86" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q86" s="11"/>
+      <c r="Q86" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R86" s="11"/>
       <c r="S86" s="11"/>
       <c r="T86" s="11"/>
@@ -6237,7 +6412,9 @@
       <c r="P87" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q87" s="11"/>
+      <c r="Q87" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R87" s="11"/>
       <c r="S87" s="11"/>
       <c r="T87" s="11"/>
@@ -6294,7 +6471,9 @@
       <c r="P88" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q88" s="11"/>
+      <c r="Q88" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R88" s="11"/>
       <c r="S88" s="11"/>
       <c r="T88" s="11"/>
@@ -6351,7 +6530,9 @@
       <c r="P89" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q89" s="11"/>
+      <c r="Q89" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R89" s="11"/>
       <c r="S89" s="11"/>
       <c r="T89" s="11"/>
@@ -6408,7 +6589,9 @@
       <c r="P90" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q90" s="11"/>
+      <c r="Q90" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R90" s="11"/>
       <c r="S90" s="11"/>
       <c r="T90" s="11"/>
@@ -6465,7 +6648,9 @@
       <c r="P91" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q91" s="11"/>
+      <c r="Q91" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R91" s="11"/>
       <c r="S91" s="11"/>
       <c r="T91" s="11"/>
@@ -6522,7 +6707,9 @@
       <c r="P92" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q92" s="11"/>
+      <c r="Q92" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R92" s="11"/>
       <c r="S92" s="11"/>
       <c r="T92" s="11"/>
@@ -6579,7 +6766,9 @@
       <c r="P93" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q93" s="11"/>
+      <c r="Q93" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R93" s="11"/>
       <c r="S93" s="11"/>
       <c r="T93" s="11"/>
@@ -6636,7 +6825,9 @@
       <c r="P94" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="Q94" s="11"/>
+      <c r="Q94" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R94" s="11"/>
       <c r="S94" s="11"/>
       <c r="T94" s="11"/>
@@ -6693,7 +6884,9 @@
       <c r="P95" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q95" s="11"/>
+      <c r="Q95" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R95" s="11"/>
       <c r="S95" s="11"/>
       <c r="T95" s="11"/>
@@ -6750,7 +6943,9 @@
       <c r="P96" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Q96" s="11"/>
+      <c r="Q96" s="12" t="s">
+        <v>53</v>
+      </c>
       <c r="R96" s="11"/>
       <c r="S96" s="11"/>
       <c r="T96" s="11"/>
@@ -29161,6 +29356,11 @@
       <c r="W992" s="6"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:W992">
+    <sortState ref="A2:Z992">
+      <sortCondition ref="Q1:Q992"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>

--- a/22807.xlsx
+++ b/22807.xlsx
@@ -18,7 +18,6 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22807'!$A$1:$W$992</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
@@ -1277,7 +1276,7 @@
   <dimension ref="A1:W992"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="Q6" sqref="Q6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1339,7 +1338,7 @@
         <v>12</v>
       </c>
       <c r="Q1" s="3">
-        <v>44808</v>
+        <v>44838</v>
       </c>
       <c r="R1" s="5"/>
       <c r="S1" s="5"/>

--- a/22807.xlsx
+++ b/22807.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9192"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
   </bookViews>
   <sheets>
     <sheet name="#22807" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1688" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1781" uniqueCount="282">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -283,15 +283,6 @@
     <t>Gleadell</t>
   </si>
   <si>
-    <t>martinezcecilia2707@gmail.com</t>
-  </si>
-  <si>
-    <t>Cecilia</t>
-  </si>
-  <si>
-    <t>Martínez</t>
-  </si>
-  <si>
     <t>danielemiro@gmail.com</t>
   </si>
   <si>
@@ -397,24 +388,6 @@
     <t>quiroga vera</t>
   </si>
   <si>
-    <t>alanmmarasca@gmail.com</t>
-  </si>
-  <si>
-    <t>Alan</t>
-  </si>
-  <si>
-    <t>Marasca</t>
-  </si>
-  <si>
-    <t>javiercristianc.15.c@gmail.com</t>
-  </si>
-  <si>
-    <t>Cristian Javier</t>
-  </si>
-  <si>
-    <t>Contreras</t>
-  </si>
-  <si>
     <t>gunsett.javier@gmail.com</t>
   </si>
   <si>
@@ -428,6 +401,9 @@
   </si>
   <si>
     <t>Nicolas</t>
+  </si>
+  <si>
+    <t>Martínez</t>
   </si>
   <si>
     <t>clo.revollo@gmail.com</t>
@@ -452,12 +428,6 @@
   </si>
   <si>
     <t>Morles</t>
-  </si>
-  <si>
-    <t>Ceciliaolejarczyk@gmail.com</t>
-  </si>
-  <si>
-    <t>Olejarczyk</t>
   </si>
   <si>
     <t>leandro.bado.42@gmail.com</t>
@@ -550,12 +520,6 @@
     <t>ocaña</t>
   </si>
   <si>
-    <t>txalomdq@gmail.com</t>
-  </si>
-  <si>
-    <t>Gonzalo</t>
-  </si>
-  <si>
     <t>pereyra.maximo@gmail.com</t>
   </si>
   <si>
@@ -599,15 +563,6 @@
   </si>
   <si>
     <t>Gasali</t>
-  </si>
-  <si>
-    <t>maxi.salvo@live.com</t>
-  </si>
-  <si>
-    <t>Maximiliano</t>
-  </si>
-  <si>
-    <t>Salvo</t>
   </si>
   <si>
     <t>cristiansena@gmail.com</t>
@@ -679,6 +634,60 @@
     <t>colussi</t>
   </si>
   <si>
+    <t>gbdadx@gmail.com</t>
+  </si>
+  <si>
+    <t>Gabriela</t>
+  </si>
+  <si>
+    <t>Diaz</t>
+  </si>
+  <si>
+    <t>martinezcecilia2707@gmail.com</t>
+  </si>
+  <si>
+    <t>Cecilia</t>
+  </si>
+  <si>
+    <t>alanmmarasca@gmail.com</t>
+  </si>
+  <si>
+    <t>Alan</t>
+  </si>
+  <si>
+    <t>Marasca</t>
+  </si>
+  <si>
+    <t>javiercristianc.15.c@gmail.com</t>
+  </si>
+  <si>
+    <t>Cristian Javier</t>
+  </si>
+  <si>
+    <t>Contreras</t>
+  </si>
+  <si>
+    <t>Ceciliaolejarczyk@gmail.com</t>
+  </si>
+  <si>
+    <t>Olejarczyk</t>
+  </si>
+  <si>
+    <t>txalomdq@gmail.com</t>
+  </si>
+  <si>
+    <t>Gonzalo</t>
+  </si>
+  <si>
+    <t>maxi.salvo@live.com</t>
+  </si>
+  <si>
+    <t>Maximiliano</t>
+  </si>
+  <si>
+    <t>Salvo</t>
+  </si>
+  <si>
     <t>marin.manuel.enrique@gmail.com</t>
   </si>
   <si>
@@ -686,15 +695,6 @@
   </si>
   <si>
     <t>marin Palomino</t>
-  </si>
-  <si>
-    <t>gbdadx@gmail.com</t>
-  </si>
-  <si>
-    <t>Gabriela</t>
-  </si>
-  <si>
-    <t>Diaz</t>
   </si>
   <si>
     <t>german.elias@hotmail.com.ar</t>
@@ -1265,7 +1265,7 @@
   <dimension ref="A1:W990"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S71" sqref="A70:S71"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -1332,10 +1332,12 @@
       <c r="R1" s="3">
         <v>44840</v>
       </c>
-      <c r="S1" s="5">
+      <c r="S1" s="3">
         <v>44845</v>
       </c>
-      <c r="T1" s="6"/>
+      <c r="T1" s="5">
+        <v>44847</v>
+      </c>
       <c r="U1" s="6"/>
       <c r="V1" s="6"/>
       <c r="W1" s="7"/>
@@ -1398,7 +1400,9 @@
       <c r="S2" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T2" s="12"/>
+      <c r="T2" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U2" s="12"/>
       <c r="V2" s="12"/>
       <c r="W2" s="7"/>
@@ -1461,7 +1465,9 @@
       <c r="S3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T3" s="12"/>
+      <c r="T3" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
       <c r="W3" s="7"/>
@@ -1524,7 +1530,9 @@
       <c r="S4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T4" s="12"/>
+      <c r="T4" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U4" s="12"/>
       <c r="V4" s="12"/>
       <c r="W4" s="7"/>
@@ -1587,7 +1595,9 @@
       <c r="S5" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T5" s="12"/>
+      <c r="T5" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U5" s="12"/>
       <c r="V5" s="12"/>
       <c r="W5" s="7"/>
@@ -1650,7 +1660,9 @@
       <c r="S6" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T6" s="12"/>
+      <c r="T6" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U6" s="12"/>
       <c r="V6" s="12"/>
       <c r="W6" s="7"/>
@@ -1713,7 +1725,9 @@
       <c r="S7" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T7" s="12"/>
+      <c r="T7" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
       <c r="W7" s="7"/>
@@ -1776,7 +1790,9 @@
       <c r="S8" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T8" s="12"/>
+      <c r="T8" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U8" s="12"/>
       <c r="V8" s="12"/>
       <c r="W8" s="7"/>
@@ -1839,7 +1855,9 @@
       <c r="S9" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T9" s="12"/>
+      <c r="T9" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="7"/>
@@ -1902,7 +1920,9 @@
       <c r="S10" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T10" s="12"/>
+      <c r="T10" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U10" s="12"/>
       <c r="V10" s="12"/>
       <c r="W10" s="7"/>
@@ -1965,7 +1985,9 @@
       <c r="S11" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T11" s="12"/>
+      <c r="T11" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U11" s="12"/>
       <c r="V11" s="12"/>
       <c r="W11" s="7"/>
@@ -2028,7 +2050,9 @@
       <c r="S12" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T12" s="12"/>
+      <c r="T12" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U12" s="12"/>
       <c r="V12" s="12"/>
       <c r="W12" s="7"/>
@@ -2091,7 +2115,9 @@
       <c r="S13" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T13" s="12"/>
+      <c r="T13" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U13" s="12"/>
       <c r="V13" s="12"/>
       <c r="W13" s="7"/>
@@ -2154,7 +2180,9 @@
       <c r="S14" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T14" s="12"/>
+      <c r="T14" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U14" s="12"/>
       <c r="V14" s="12"/>
       <c r="W14" s="7"/>
@@ -2217,7 +2245,9 @@
       <c r="S15" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T15" s="12"/>
+      <c r="T15" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U15" s="12"/>
       <c r="V15" s="12"/>
       <c r="W15" s="7"/>
@@ -2280,7 +2310,9 @@
       <c r="S16" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T16" s="12"/>
+      <c r="T16" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U16" s="12"/>
       <c r="V16" s="12"/>
       <c r="W16" s="7"/>
@@ -2343,7 +2375,9 @@
       <c r="S17" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T17" s="12"/>
+      <c r="T17" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U17" s="12"/>
       <c r="V17" s="12"/>
       <c r="W17" s="7"/>
@@ -2406,7 +2440,9 @@
       <c r="S18" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T18" s="12"/>
+      <c r="T18" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U18" s="12"/>
       <c r="V18" s="12"/>
       <c r="W18" s="7"/>
@@ -2469,7 +2505,9 @@
       <c r="S19" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T19" s="12"/>
+      <c r="T19" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U19" s="12"/>
       <c r="V19" s="12"/>
       <c r="W19" s="7"/>
@@ -2532,7 +2570,9 @@
       <c r="S20" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T20" s="12"/>
+      <c r="T20" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U20" s="12"/>
       <c r="V20" s="12"/>
       <c r="W20" s="7"/>
@@ -2595,7 +2635,9 @@
       <c r="S21" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T21" s="12"/>
+      <c r="T21" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U21" s="12"/>
       <c r="V21" s="12"/>
       <c r="W21" s="7"/>
@@ -2658,7 +2700,9 @@
       <c r="S22" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T22" s="12"/>
+      <c r="T22" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U22" s="12"/>
       <c r="V22" s="12"/>
       <c r="W22" s="7"/>
@@ -2721,7 +2765,9 @@
       <c r="S23" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T23" s="12"/>
+      <c r="T23" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U23" s="12"/>
       <c r="V23" s="12"/>
       <c r="W23" s="7"/>
@@ -2784,7 +2830,9 @@
       <c r="S24" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T24" s="12"/>
+      <c r="T24" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U24" s="12"/>
       <c r="V24" s="12"/>
       <c r="W24" s="7"/>
@@ -2847,7 +2895,9 @@
       <c r="S25" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T25" s="12"/>
+      <c r="T25" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U25" s="12"/>
       <c r="V25" s="12"/>
       <c r="W25" s="7"/>
@@ -2857,13 +2907,13 @@
         <v>22807</v>
       </c>
       <c r="B26" s="9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="E26" s="11" t="s">
         <v>16</v>
@@ -2910,7 +2960,9 @@
       <c r="S26" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T26" s="12"/>
+      <c r="T26" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U26" s="12"/>
       <c r="V26" s="12"/>
       <c r="W26" s="7"/>
@@ -2973,7 +3025,9 @@
       <c r="S27" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T27" s="12"/>
+      <c r="T27" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U27" s="12"/>
       <c r="V27" s="12"/>
       <c r="W27" s="7"/>
@@ -2991,8 +3045,8 @@
       <c r="D28" s="9" t="s">
         <v>97</v>
       </c>
-      <c r="E28" s="11" t="s">
-        <v>16</v>
+      <c r="E28" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="F28" s="11" t="s">
         <v>16</v>
@@ -3036,7 +3090,9 @@
       <c r="S28" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T28" s="12"/>
+      <c r="T28" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U28" s="12"/>
       <c r="V28" s="12"/>
       <c r="W28" s="7"/>
@@ -3046,22 +3102,22 @@
         <v>22807</v>
       </c>
       <c r="B29" s="9" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>100</v>
-      </c>
-      <c r="E29" s="13" t="s">
         <v>101</v>
       </c>
+      <c r="E29" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="F29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G29" s="11" t="s">
-        <v>16</v>
+      <c r="G29" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="H29" s="11" t="s">
         <v>16</v>
@@ -3099,7 +3155,9 @@
       <c r="S29" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T29" s="12"/>
+      <c r="T29" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U29" s="12"/>
       <c r="V29" s="12"/>
       <c r="W29" s="7"/>
@@ -3115,7 +3173,7 @@
         <v>103</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>104</v>
+        <v>70</v>
       </c>
       <c r="E30" s="11" t="s">
         <v>16</v>
@@ -3124,7 +3182,7 @@
         <v>16</v>
       </c>
       <c r="G30" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H30" s="11" t="s">
         <v>16</v>
@@ -3162,7 +3220,9 @@
       <c r="S30" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T30" s="12"/>
+      <c r="T30" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U30" s="12"/>
       <c r="V30" s="12"/>
       <c r="W30" s="7"/>
@@ -3172,13 +3232,13 @@
         <v>22807</v>
       </c>
       <c r="B31" s="9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C31" s="9" t="s">
         <v>105</v>
       </c>
-      <c r="C31" s="9" t="s">
-        <v>106</v>
-      </c>
       <c r="D31" s="9" t="s">
-        <v>70</v>
+        <v>94</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>16</v>
@@ -3186,14 +3246,14 @@
       <c r="F31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G31" s="13" t="s">
-        <v>101</v>
+      <c r="G31" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I31" s="11" t="s">
-        <v>16</v>
+      <c r="I31" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="J31" s="11" t="s">
         <v>16</v>
@@ -3225,7 +3285,9 @@
       <c r="S31" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T31" s="12"/>
+      <c r="T31" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U31" s="12"/>
       <c r="V31" s="12"/>
       <c r="W31" s="7"/>
@@ -3235,14 +3297,14 @@
         <v>22807</v>
       </c>
       <c r="B32" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="C32" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>108</v>
       </c>
-      <c r="D32" s="9" t="s">
-        <v>97</v>
-      </c>
       <c r="E32" s="11" t="s">
         <v>16</v>
       </c>
@@ -3255,8 +3317,8 @@
       <c r="H32" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I32" s="13" t="s">
-        <v>101</v>
+      <c r="I32" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="J32" s="11" t="s">
         <v>16</v>
@@ -3288,7 +3350,9 @@
       <c r="S32" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T32" s="12"/>
+      <c r="T32" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U32" s="12"/>
       <c r="V32" s="12"/>
       <c r="W32" s="7"/>
@@ -3321,8 +3385,8 @@
       <c r="I33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J33" s="11" t="s">
-        <v>16</v>
+      <c r="J33" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="K33" s="11" t="s">
         <v>16</v>
@@ -3351,7 +3415,9 @@
       <c r="S33" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T33" s="12"/>
+      <c r="T33" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U33" s="12"/>
       <c r="V33" s="12"/>
       <c r="W33" s="7"/>
@@ -3385,7 +3451,7 @@
         <v>16</v>
       </c>
       <c r="J34" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K34" s="11" t="s">
         <v>16</v>
@@ -3414,7 +3480,9 @@
       <c r="S34" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T34" s="12"/>
+      <c r="T34" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U34" s="12"/>
       <c r="V34" s="12"/>
       <c r="W34" s="7"/>
@@ -3448,7 +3516,7 @@
         <v>16</v>
       </c>
       <c r="J35" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K35" s="11" t="s">
         <v>16</v>
@@ -3477,7 +3545,9 @@
       <c r="S35" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T35" s="12"/>
+      <c r="T35" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U35" s="12"/>
       <c r="V35" s="12"/>
       <c r="W35" s="7"/>
@@ -3495,8 +3565,8 @@
       <c r="D36" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="E36" s="11" t="s">
-        <v>16</v>
+      <c r="E36" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="F36" s="11" t="s">
         <v>16</v>
@@ -3511,7 +3581,7 @@
         <v>16</v>
       </c>
       <c r="J36" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K36" s="11" t="s">
         <v>16</v>
@@ -3540,7 +3610,9 @@
       <c r="S36" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T36" s="12"/>
+      <c r="T36" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U36" s="12"/>
       <c r="V36" s="12"/>
       <c r="W36" s="7"/>
@@ -3558,8 +3630,8 @@
       <c r="D37" s="9" t="s">
         <v>123</v>
       </c>
-      <c r="E37" s="13" t="s">
-        <v>101</v>
+      <c r="E37" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F37" s="11" t="s">
         <v>16</v>
@@ -3574,10 +3646,10 @@
         <v>16</v>
       </c>
       <c r="J37" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K37" s="11" t="s">
-        <v>16</v>
+        <v>98</v>
+      </c>
+      <c r="K37" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="L37" s="11" t="s">
         <v>16</v>
@@ -3603,7 +3675,9 @@
       <c r="S37" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T37" s="12"/>
+      <c r="T37" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U37" s="12"/>
       <c r="V37" s="12"/>
       <c r="W37" s="7"/>
@@ -3613,13 +3687,13 @@
         <v>22807</v>
       </c>
       <c r="B38" s="9" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="E38" s="11" t="s">
         <v>16</v>
@@ -3636,14 +3710,14 @@
       <c r="I38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J38" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K38" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L38" s="11" t="s">
-        <v>16</v>
+      <c r="J38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K38" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L38" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="M38" s="11" t="s">
         <v>16</v>
@@ -3666,7 +3740,9 @@
       <c r="S38" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T38" s="12"/>
+      <c r="T38" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U38" s="12"/>
       <c r="V38" s="12"/>
       <c r="W38" s="7"/>
@@ -3676,13 +3752,13 @@
         <v>22807</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="D39" s="9" t="s">
-        <v>88</v>
+        <v>129</v>
       </c>
       <c r="E39" s="11" t="s">
         <v>16</v>
@@ -3706,7 +3782,7 @@
         <v>16</v>
       </c>
       <c r="L39" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M39" s="11" t="s">
         <v>16</v>
@@ -3729,7 +3805,9 @@
       <c r="S39" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T39" s="12"/>
+      <c r="T39" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U39" s="12"/>
       <c r="V39" s="12"/>
       <c r="W39" s="7"/>
@@ -3739,13 +3817,13 @@
         <v>22807</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>136</v>
+        <v>63</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="E40" s="11" t="s">
         <v>16</v>
@@ -3769,7 +3847,7 @@
         <v>16</v>
       </c>
       <c r="L40" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M40" s="11" t="s">
         <v>16</v>
@@ -3792,7 +3870,9 @@
       <c r="S40" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T40" s="12"/>
+      <c r="T40" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U40" s="12"/>
       <c r="V40" s="12"/>
       <c r="W40" s="7"/>
@@ -3802,13 +3882,13 @@
         <v>22807</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>63</v>
+        <v>133</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="E41" s="11" t="s">
         <v>16</v>
@@ -3822,8 +3902,8 @@
       <c r="H41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I41" s="11" t="s">
-        <v>16</v>
+      <c r="I41" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="J41" s="11" t="s">
         <v>16</v>
@@ -3832,7 +3912,7 @@
         <v>16</v>
       </c>
       <c r="L41" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M41" s="11" t="s">
         <v>16</v>
@@ -3855,7 +3935,9 @@
       <c r="S41" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T41" s="12"/>
+      <c r="T41" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U41" s="12"/>
       <c r="V41" s="12"/>
       <c r="W41" s="7"/>
@@ -3865,13 +3947,13 @@
         <v>22807</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E42" s="11" t="s">
         <v>16</v>
@@ -3886,19 +3968,19 @@
         <v>16</v>
       </c>
       <c r="I42" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J42" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K42" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L42" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="M42" s="11" t="s">
-        <v>16</v>
+      <c r="K42" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L42" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M42" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="N42" s="11" t="s">
         <v>16</v>
@@ -3918,7 +4000,9 @@
       <c r="S42" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T42" s="12"/>
+      <c r="T42" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U42" s="12"/>
       <c r="V42" s="12"/>
       <c r="W42" s="7"/>
@@ -3928,13 +4012,13 @@
         <v>22807</v>
       </c>
       <c r="B43" s="9" t="s">
-        <v>145</v>
+        <v>138</v>
       </c>
       <c r="C43" s="9" t="s">
-        <v>146</v>
+        <v>139</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>147</v>
+        <v>140</v>
       </c>
       <c r="E43" s="11" t="s">
         <v>16</v>
@@ -3948,20 +4032,20 @@
       <c r="H43" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I43" s="13" t="s">
-        <v>101</v>
+      <c r="I43" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="J43" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K43" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="L43" s="11" t="s">
-        <v>16</v>
+      <c r="K43" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="L43" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="M43" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N43" s="11" t="s">
         <v>16</v>
@@ -3981,7 +4065,9 @@
       <c r="S43" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T43" s="12"/>
+      <c r="T43" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U43" s="12"/>
       <c r="V43" s="12"/>
       <c r="W43" s="7"/>
@@ -3991,13 +4077,13 @@
         <v>22807</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>148</v>
+        <v>141</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>149</v>
+        <v>142</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>150</v>
+        <v>143</v>
       </c>
       <c r="E44" s="11" t="s">
         <v>16</v>
@@ -4020,11 +4106,11 @@
       <c r="K44" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L44" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="M44" s="13" t="s">
-        <v>101</v>
+      <c r="L44" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="M44" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="N44" s="11" t="s">
         <v>16</v>
@@ -4044,7 +4130,9 @@
       <c r="S44" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T44" s="12"/>
+      <c r="T44" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U44" s="12"/>
       <c r="V44" s="12"/>
       <c r="W44" s="7"/>
@@ -4054,13 +4142,13 @@
         <v>22807</v>
       </c>
       <c r="B45" s="9" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
       <c r="C45" s="9" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="D45" s="9" t="s">
-        <v>153</v>
+        <v>146</v>
       </c>
       <c r="E45" s="11" t="s">
         <v>16</v>
@@ -4074,8 +4162,8 @@
       <c r="H45" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I45" s="11" t="s">
-        <v>16</v>
+      <c r="I45" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="J45" s="11" t="s">
         <v>16</v>
@@ -4107,7 +4195,9 @@
       <c r="S45" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T45" s="12"/>
+      <c r="T45" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U45" s="12"/>
       <c r="V45" s="12"/>
       <c r="W45" s="7"/>
@@ -4117,13 +4207,13 @@
         <v>22807</v>
       </c>
       <c r="B46" s="9" t="s">
-        <v>154</v>
+        <v>147</v>
       </c>
       <c r="C46" s="9" t="s">
-        <v>155</v>
+        <v>148</v>
       </c>
       <c r="D46" s="9" t="s">
-        <v>156</v>
+        <v>149</v>
       </c>
       <c r="E46" s="11" t="s">
         <v>16</v>
@@ -4138,10 +4228,10 @@
         <v>16</v>
       </c>
       <c r="I46" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J46" s="11" t="s">
-        <v>16</v>
+        <v>98</v>
+      </c>
+      <c r="J46" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="K46" s="11" t="s">
         <v>16</v>
@@ -4170,7 +4260,9 @@
       <c r="S46" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T46" s="12"/>
+      <c r="T46" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U46" s="12"/>
       <c r="V46" s="12"/>
       <c r="W46" s="7"/>
@@ -4180,13 +4272,13 @@
         <v>22807</v>
       </c>
       <c r="B47" s="9" t="s">
-        <v>157</v>
+        <v>150</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>158</v>
+        <v>151</v>
       </c>
       <c r="D47" s="9" t="s">
-        <v>159</v>
+        <v>152</v>
       </c>
       <c r="E47" s="11" t="s">
         <v>16</v>
@@ -4200,11 +4292,11 @@
       <c r="H47" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I47" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="J47" s="13" t="s">
-        <v>101</v>
+      <c r="I47" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J47" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="K47" s="11" t="s">
         <v>16</v>
@@ -4224,8 +4316,8 @@
       <c r="P47" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q47" s="11" t="s">
-        <v>16</v>
+      <c r="Q47" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="R47" s="11" t="s">
         <v>16</v>
@@ -4233,7 +4325,9 @@
       <c r="S47" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T47" s="12"/>
+      <c r="T47" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U47" s="12"/>
       <c r="V47" s="12"/>
       <c r="W47" s="7"/>
@@ -4243,13 +4337,13 @@
         <v>22807</v>
       </c>
       <c r="B48" s="9" t="s">
-        <v>160</v>
+        <v>153</v>
       </c>
       <c r="C48" s="9" t="s">
-        <v>161</v>
+        <v>154</v>
       </c>
       <c r="D48" s="9" t="s">
-        <v>162</v>
+        <v>155</v>
       </c>
       <c r="E48" s="11" t="s">
         <v>16</v>
@@ -4266,8 +4360,8 @@
       <c r="I48" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J48" s="11" t="s">
-        <v>16</v>
+      <c r="J48" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="K48" s="11" t="s">
         <v>16</v>
@@ -4288,7 +4382,7 @@
         <v>16</v>
       </c>
       <c r="Q48" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R48" s="11" t="s">
         <v>16</v>
@@ -4296,7 +4390,9 @@
       <c r="S48" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T48" s="12"/>
+      <c r="T48" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U48" s="12"/>
       <c r="V48" s="12"/>
       <c r="W48" s="7"/>
@@ -4306,13 +4402,13 @@
         <v>22807</v>
       </c>
       <c r="B49" s="9" t="s">
-        <v>163</v>
+        <v>156</v>
       </c>
       <c r="C49" s="9" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D49" s="9" t="s">
-        <v>165</v>
+        <v>158</v>
       </c>
       <c r="E49" s="11" t="s">
         <v>16</v>
@@ -4329,14 +4425,14 @@
       <c r="I49" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J49" s="13" t="s">
-        <v>101</v>
+      <c r="J49" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="K49" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L49" s="11" t="s">
-        <v>16</v>
+      <c r="L49" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="M49" s="11" t="s">
         <v>16</v>
@@ -4351,7 +4447,7 @@
         <v>16</v>
       </c>
       <c r="Q49" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R49" s="11" t="s">
         <v>16</v>
@@ -4359,7 +4455,9 @@
       <c r="S49" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T49" s="12"/>
+      <c r="T49" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U49" s="12"/>
       <c r="V49" s="12"/>
       <c r="W49" s="7"/>
@@ -4369,13 +4467,13 @@
         <v>22807</v>
       </c>
       <c r="B50" s="9" t="s">
-        <v>166</v>
+        <v>159</v>
       </c>
       <c r="C50" s="9" t="s">
-        <v>167</v>
+        <v>160</v>
       </c>
       <c r="D50" s="9" t="s">
-        <v>168</v>
+        <v>161</v>
       </c>
       <c r="E50" s="11" t="s">
         <v>16</v>
@@ -4399,7 +4497,7 @@
         <v>16</v>
       </c>
       <c r="L50" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M50" s="11" t="s">
         <v>16</v>
@@ -4414,7 +4512,7 @@
         <v>16</v>
       </c>
       <c r="Q50" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R50" s="11" t="s">
         <v>16</v>
@@ -4422,7 +4520,9 @@
       <c r="S50" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T50" s="12"/>
+      <c r="T50" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U50" s="12"/>
       <c r="V50" s="12"/>
       <c r="W50" s="7"/>
@@ -4432,16 +4532,16 @@
         <v>22807</v>
       </c>
       <c r="B51" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C51" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="D51" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="E51" s="11" t="s">
-        <v>16</v>
+        <v>167</v>
+      </c>
+      <c r="E51" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="F51" s="11" t="s">
         <v>16</v>
@@ -4455,14 +4555,14 @@
       <c r="I51" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="K51" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L51" s="13" t="s">
-        <v>101</v>
+      <c r="J51" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K51" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L51" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="M51" s="11" t="s">
         <v>16</v>
@@ -4477,7 +4577,7 @@
         <v>16</v>
       </c>
       <c r="Q51" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R51" s="11" t="s">
         <v>16</v>
@@ -4485,7 +4585,9 @@
       <c r="S51" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T51" s="12"/>
+      <c r="T51" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U51" s="12"/>
       <c r="V51" s="12"/>
       <c r="W51" s="7"/>
@@ -4495,14 +4597,14 @@
         <v>22807</v>
       </c>
       <c r="B52" s="9" t="s">
+        <v>171</v>
+      </c>
+      <c r="C52" s="9" t="s">
         <v>172</v>
       </c>
-      <c r="C52" s="9" t="s">
+      <c r="D52" s="9" t="s">
         <v>173</v>
       </c>
-      <c r="D52" s="9" t="s">
-        <v>174</v>
-      </c>
       <c r="E52" s="11" t="s">
         <v>16</v>
       </c>
@@ -4524,8 +4626,8 @@
       <c r="K52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L52" s="13" t="s">
-        <v>101</v>
+      <c r="L52" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="M52" s="11" t="s">
         <v>16</v>
@@ -4539,16 +4641,18 @@
       <c r="P52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q52" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="R52" s="11" t="s">
-        <v>16</v>
+      <c r="Q52" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R52" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="S52" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T52" s="12"/>
+      <c r="T52" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U52" s="12"/>
       <c r="V52" s="12"/>
       <c r="W52" s="7"/>
@@ -4558,16 +4662,16 @@
         <v>22807</v>
       </c>
       <c r="B53" s="9" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="C53" s="9" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="D53" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="E53" s="13" t="s">
-        <v>101</v>
+        <v>176</v>
+      </c>
+      <c r="E53" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F53" s="11" t="s">
         <v>16</v>
@@ -4581,11 +4685,11 @@
       <c r="I53" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J53" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="K53" s="13" t="s">
-        <v>101</v>
+      <c r="J53" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="K53" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="L53" s="11" t="s">
         <v>16</v>
@@ -4602,16 +4706,18 @@
       <c r="P53" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q53" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="R53" s="11" t="s">
-        <v>16</v>
+      <c r="Q53" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R53" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="S53" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T53" s="12"/>
+      <c r="T53" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U53" s="12"/>
       <c r="V53" s="12"/>
       <c r="W53" s="7"/>
@@ -4621,13 +4727,13 @@
         <v>22807</v>
       </c>
       <c r="B54" s="9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C54" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D54" s="9" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="E54" s="11" t="s">
         <v>16</v>
@@ -4665,16 +4771,18 @@
       <c r="P54" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q54" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="R54" s="11" t="s">
-        <v>16</v>
+      <c r="Q54" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R54" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="S54" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T54" s="12"/>
+      <c r="T54" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U54" s="12"/>
       <c r="V54" s="12"/>
       <c r="W54" s="7"/>
@@ -4684,16 +4792,16 @@
         <v>22807</v>
       </c>
       <c r="B55" s="9" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="C55" s="9" t="s">
-        <v>184</v>
+        <v>54</v>
       </c>
       <c r="D55" s="9" t="s">
-        <v>185</v>
-      </c>
-      <c r="E55" s="11" t="s">
-        <v>16</v>
+        <v>181</v>
+      </c>
+      <c r="E55" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="F55" s="11" t="s">
         <v>16</v>
@@ -4732,12 +4840,14 @@
         <v>16</v>
       </c>
       <c r="R55" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S55" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T55" s="12"/>
+      <c r="T55" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U55" s="12"/>
       <c r="V55" s="12"/>
       <c r="W55" s="7"/>
@@ -4747,13 +4857,13 @@
         <v>22807</v>
       </c>
       <c r="B56" s="9" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C56" s="9" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D56" s="9" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="E56" s="11" t="s">
         <v>16</v>
@@ -4795,12 +4905,14 @@
         <v>16</v>
       </c>
       <c r="R56" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S56" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T56" s="12"/>
+      <c r="T56" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U56" s="12"/>
       <c r="V56" s="12"/>
       <c r="W56" s="7"/>
@@ -4810,13 +4922,13 @@
         <v>22807</v>
       </c>
       <c r="B57" s="9" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="C57" s="9" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
       <c r="D57" s="9" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="E57" s="11" t="s">
         <v>16</v>
@@ -4858,12 +4970,14 @@
         <v>16</v>
       </c>
       <c r="R57" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S57" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T57" s="12"/>
+      <c r="T57" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U57" s="12"/>
       <c r="V57" s="12"/>
       <c r="W57" s="7"/>
@@ -4873,16 +4987,16 @@
         <v>22807</v>
       </c>
       <c r="B58" s="9" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="9" t="s">
         <v>195</v>
-      </c>
-      <c r="C58" s="9" t="s">
-        <v>54</v>
       </c>
       <c r="D58" s="9" t="s">
         <v>196</v>
       </c>
-      <c r="E58" s="13" t="s">
-        <v>101</v>
+      <c r="E58" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F58" s="11" t="s">
         <v>16</v>
@@ -4893,8 +5007,8 @@
       <c r="H58" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I58" s="11" t="s">
-        <v>16</v>
+      <c r="I58" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="J58" s="11" t="s">
         <v>16</v>
@@ -4902,8 +5016,8 @@
       <c r="K58" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L58" s="11" t="s">
-        <v>16</v>
+      <c r="L58" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="M58" s="11" t="s">
         <v>16</v>
@@ -4921,12 +5035,14 @@
         <v>16</v>
       </c>
       <c r="R58" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S58" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T58" s="12"/>
+      <c r="T58" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U58" s="12"/>
       <c r="V58" s="12"/>
       <c r="W58" s="7"/>
@@ -4968,8 +5084,8 @@
       <c r="L59" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M59" s="11" t="s">
-        <v>16</v>
+      <c r="M59" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="N59" s="11" t="s">
         <v>16</v>
@@ -4984,12 +5100,14 @@
         <v>16</v>
       </c>
       <c r="R59" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S59" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T59" s="12"/>
+      <c r="T59" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U59" s="12"/>
       <c r="V59" s="12"/>
       <c r="W59" s="7"/>
@@ -5047,12 +5165,14 @@
         <v>16</v>
       </c>
       <c r="R60" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S60" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T60" s="12"/>
+      <c r="T60" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U60" s="12"/>
       <c r="V60" s="12"/>
       <c r="W60" s="7"/>
@@ -5076,8 +5196,8 @@
       <c r="F61" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G61" s="13" t="s">
-        <v>101</v>
+      <c r="G61" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="H61" s="11" t="s">
         <v>16</v>
@@ -5088,8 +5208,8 @@
       <c r="J61" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K61" s="13" t="s">
-        <v>101</v>
+      <c r="K61" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="L61" s="11" t="s">
         <v>16</v>
@@ -5106,16 +5226,18 @@
       <c r="P61" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q61" s="11" t="s">
-        <v>16</v>
+      <c r="Q61" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="R61" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S61" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="T61" s="12"/>
+      <c r="T61" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U61" s="12"/>
       <c r="V61" s="12"/>
       <c r="W61" s="7"/>
@@ -5131,10 +5253,10 @@
         <v>207</v>
       </c>
       <c r="D62" s="9" t="s">
-        <v>208</v>
-      </c>
-      <c r="E62" s="13" t="s">
-        <v>101</v>
+        <v>126</v>
+      </c>
+      <c r="E62" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="F62" s="11" t="s">
         <v>16</v>
@@ -5154,8 +5276,8 @@
       <c r="K62" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L62" s="13" t="s">
-        <v>101</v>
+      <c r="L62" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="M62" s="11" t="s">
         <v>16</v>
@@ -5172,13 +5294,15 @@
       <c r="Q62" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R62" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="S62" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T62" s="12"/>
+      <c r="R62" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S62" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="T62" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U62" s="12"/>
       <c r="V62" s="12"/>
       <c r="W62" s="7"/>
@@ -5188,14 +5312,14 @@
         <v>22807</v>
       </c>
       <c r="B63" s="9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C63" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="C63" s="9" t="s">
+      <c r="D63" s="9" t="s">
         <v>210</v>
       </c>
-      <c r="D63" s="9" t="s">
-        <v>211</v>
-      </c>
       <c r="E63" s="11" t="s">
         <v>16</v>
       </c>
@@ -5208,17 +5332,17 @@
       <c r="H63" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="I63" s="13" t="s">
-        <v>101</v>
+      <c r="I63" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="J63" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K63" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="L63" s="13" t="s">
-        <v>101</v>
+      <c r="K63" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="L63" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="M63" s="11" t="s">
         <v>16</v>
@@ -5235,13 +5359,15 @@
       <c r="Q63" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R63" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="S63" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T63" s="12"/>
+      <c r="R63" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S63" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="T63" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U63" s="12"/>
       <c r="V63" s="12"/>
       <c r="W63" s="7"/>
@@ -5251,19 +5377,19 @@
         <v>22807</v>
       </c>
       <c r="B64" s="9" t="s">
+        <v>211</v>
+      </c>
+      <c r="C64" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="C64" s="9" t="s">
+      <c r="D64" s="9" t="s">
         <v>213</v>
       </c>
-      <c r="D64" s="9" t="s">
-        <v>214</v>
-      </c>
       <c r="E64" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F64" s="11" t="s">
-        <v>16</v>
+      <c r="F64" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="G64" s="11" t="s">
         <v>16</v>
@@ -5283,8 +5409,8 @@
       <c r="L64" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M64" s="13" t="s">
-        <v>101</v>
+      <c r="M64" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="N64" s="11" t="s">
         <v>16</v>
@@ -5298,13 +5424,15 @@
       <c r="Q64" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R64" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="S64" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T64" s="12"/>
+      <c r="R64" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S64" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="T64" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U64" s="12"/>
       <c r="V64" s="12"/>
       <c r="W64" s="7"/>
@@ -5314,14 +5442,14 @@
         <v>22807</v>
       </c>
       <c r="B65" s="9" t="s">
+        <v>214</v>
+      </c>
+      <c r="C65" s="9" t="s">
+        <v>207</v>
+      </c>
+      <c r="D65" s="9" t="s">
         <v>215</v>
       </c>
-      <c r="C65" s="9" t="s">
-        <v>216</v>
-      </c>
-      <c r="D65" s="9" t="s">
-        <v>217</v>
-      </c>
       <c r="E65" s="11" t="s">
         <v>16</v>
       </c>
@@ -5346,8 +5474,8 @@
       <c r="L65" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M65" s="11" t="s">
-        <v>16</v>
+      <c r="M65" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="N65" s="11" t="s">
         <v>16</v>
@@ -5361,13 +5489,15 @@
       <c r="Q65" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R65" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="S65" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T65" s="12"/>
+      <c r="R65" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="S65" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="T65" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U65" s="12"/>
       <c r="V65" s="12"/>
       <c r="W65" s="7"/>
@@ -5377,16 +5507,16 @@
         <v>22807</v>
       </c>
       <c r="B66" s="9" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="C66" s="9" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="D66" s="9" t="s">
-        <v>223</v>
-      </c>
-      <c r="E66" s="11" t="s">
-        <v>16</v>
+        <v>220</v>
+      </c>
+      <c r="E66" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="F66" s="11" t="s">
         <v>16</v>
@@ -5421,16 +5551,18 @@
       <c r="P66" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q66" s="13" t="s">
-        <v>101</v>
+      <c r="Q66" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="R66" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="S66" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="T66" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="S66" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="T66" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U66" s="12"/>
       <c r="V66" s="12"/>
       <c r="W66" s="7"/>
@@ -5440,13 +5572,13 @@
         <v>22807</v>
       </c>
       <c r="B67" s="9" t="s">
-        <v>86</v>
+        <v>221</v>
       </c>
       <c r="C67" s="9" t="s">
-        <v>87</v>
+        <v>222</v>
       </c>
       <c r="D67" s="9" t="s">
-        <v>88</v>
+        <v>223</v>
       </c>
       <c r="E67" s="11" t="s">
         <v>16</v>
@@ -5487,13 +5619,15 @@
       <c r="Q67" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="R67" s="11" t="s">
-        <v>16</v>
+      <c r="R67" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="S67" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T67" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T67" s="11" t="s">
+        <v>16</v>
+      </c>
       <c r="U67" s="12"/>
       <c r="V67" s="12"/>
       <c r="W67" s="7"/>
@@ -5503,13 +5637,13 @@
         <v>22807</v>
       </c>
       <c r="B68" s="9" t="s">
-        <v>124</v>
+        <v>89</v>
       </c>
       <c r="C68" s="9" t="s">
-        <v>125</v>
+        <v>90</v>
       </c>
       <c r="D68" s="9" t="s">
-        <v>126</v>
+        <v>91</v>
       </c>
       <c r="E68" s="11" t="s">
         <v>16</v>
@@ -5529,8 +5663,8 @@
       <c r="J68" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K68" s="13" t="s">
-        <v>101</v>
+      <c r="K68" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="L68" s="11" t="s">
         <v>16</v>
@@ -5553,10 +5687,12 @@
       <c r="R68" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S68" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T68" s="12"/>
+      <c r="S68" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T68" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U68" s="12"/>
       <c r="V68" s="12"/>
       <c r="W68" s="7"/>
@@ -5566,19 +5702,19 @@
         <v>22807</v>
       </c>
       <c r="B69" s="9" t="s">
-        <v>127</v>
+        <v>162</v>
       </c>
       <c r="C69" s="9" t="s">
-        <v>128</v>
+        <v>163</v>
       </c>
       <c r="D69" s="9" t="s">
-        <v>129</v>
+        <v>164</v>
       </c>
       <c r="E69" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="F69" s="13" t="s">
-        <v>101</v>
+      <c r="F69" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="G69" s="11" t="s">
         <v>16</v>
@@ -5595,8 +5731,8 @@
       <c r="K69" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L69" s="11" t="s">
-        <v>16</v>
+      <c r="L69" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="M69" s="11" t="s">
         <v>16</v>
@@ -5610,16 +5746,18 @@
       <c r="P69" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q69" s="11" t="s">
-        <v>16</v>
+      <c r="Q69" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="R69" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S69" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T69" s="12"/>
+      <c r="S69" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T69" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U69" s="12"/>
       <c r="V69" s="12"/>
       <c r="W69" s="7"/>
@@ -5629,13 +5767,13 @@
         <v>22807</v>
       </c>
       <c r="B70" s="9" t="s">
-        <v>143</v>
+        <v>168</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>87</v>
+        <v>169</v>
       </c>
       <c r="D70" s="9" t="s">
-        <v>144</v>
+        <v>170</v>
       </c>
       <c r="E70" s="11" t="s">
         <v>16</v>
@@ -5661,8 +5799,8 @@
       <c r="L70" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M70" s="13" t="s">
-        <v>101</v>
+      <c r="M70" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="N70" s="11" t="s">
         <v>16</v>
@@ -5673,16 +5811,18 @@
       <c r="P70" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q70" s="11" t="s">
-        <v>16</v>
+      <c r="Q70" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="R70" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="S70" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T70" s="12"/>
+      <c r="S70" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T70" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U70" s="12"/>
       <c r="V70" s="12"/>
       <c r="W70" s="7"/>
@@ -5692,13 +5832,13 @@
         <v>22807</v>
       </c>
       <c r="B71" s="9" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="C71" s="9" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D71" s="9" t="s">
-        <v>70</v>
+        <v>190</v>
       </c>
       <c r="E71" s="11" t="s">
         <v>16</v>
@@ -5707,7 +5847,7 @@
         <v>16</v>
       </c>
       <c r="G71" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H71" s="11" t="s">
         <v>16</v>
@@ -5718,14 +5858,14 @@
       <c r="J71" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="K71" s="11" t="s">
-        <v>16</v>
+      <c r="K71" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="L71" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M71" s="13" t="s">
-        <v>101</v>
+      <c r="M71" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="N71" s="11" t="s">
         <v>16</v>
@@ -5736,16 +5876,18 @@
       <c r="P71" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q71" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="R71" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="S71" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T71" s="12"/>
+      <c r="Q71" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="R71" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="S71" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T71" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U71" s="12"/>
       <c r="V71" s="12"/>
       <c r="W71" s="7"/>
@@ -5755,16 +5897,16 @@
         <v>22807</v>
       </c>
       <c r="B72" s="9" t="s">
+        <v>191</v>
+      </c>
+      <c r="C72" s="9" t="s">
         <v>192</v>
       </c>
-      <c r="C72" s="9" t="s">
+      <c r="D72" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="D72" s="9" t="s">
-        <v>194</v>
-      </c>
       <c r="E72" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F72" s="11" t="s">
         <v>16</v>
@@ -5784,8 +5926,8 @@
       <c r="K72" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="L72" s="11" t="s">
-        <v>16</v>
+      <c r="L72" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="M72" s="11" t="s">
         <v>16</v>
@@ -5803,12 +5945,14 @@
         <v>16</v>
       </c>
       <c r="R72" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="S72" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T72" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="S72" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="T72" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U72" s="12"/>
       <c r="V72" s="12"/>
       <c r="W72" s="7"/>
@@ -5818,13 +5962,13 @@
         <v>22807</v>
       </c>
       <c r="B73" s="9" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="C73" s="9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="D73" s="9" t="s">
-        <v>220</v>
+        <v>70</v>
       </c>
       <c r="E73" s="11" t="s">
         <v>16</v>
@@ -5832,8 +5976,8 @@
       <c r="F73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="G73" s="11" t="s">
-        <v>16</v>
+      <c r="G73" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="H73" s="11" t="s">
         <v>16</v>
@@ -5850,8 +5994,8 @@
       <c r="L73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="M73" s="11" t="s">
-        <v>16</v>
+      <c r="M73" s="13" t="s">
+        <v>98</v>
       </c>
       <c r="N73" s="11" t="s">
         <v>16</v>
@@ -5862,16 +6006,18 @@
       <c r="P73" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="Q73" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="R73" s="13" t="s">
-        <v>101</v>
+      <c r="Q73" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="R73" s="11" t="s">
+        <v>16</v>
       </c>
       <c r="S73" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T73" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T73" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U73" s="12"/>
       <c r="V73" s="12"/>
       <c r="W73" s="7"/>
@@ -5884,7 +6030,7 @@
         <v>224</v>
       </c>
       <c r="C74" s="9" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D74" s="9" t="s">
         <v>225</v>
@@ -5926,15 +6072,17 @@
         <v>16</v>
       </c>
       <c r="Q74" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R74" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S74" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T74" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T74" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U74" s="12"/>
       <c r="V74" s="12"/>
       <c r="W74" s="7"/>
@@ -5974,7 +6122,7 @@
         <v>16</v>
       </c>
       <c r="L75" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M75" s="11" t="s">
         <v>16</v>
@@ -5989,15 +6137,17 @@
         <v>16</v>
       </c>
       <c r="Q75" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R75" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S75" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T75" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T75" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U75" s="12"/>
       <c r="V75" s="12"/>
       <c r="W75" s="7"/>
@@ -6019,7 +6169,7 @@
         <v>16</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G76" s="11" t="s">
         <v>16</v>
@@ -6028,16 +6178,16 @@
         <v>16</v>
       </c>
       <c r="I76" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J76" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K76" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L76" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M76" s="11" t="s">
         <v>16</v>
@@ -6052,15 +6202,17 @@
         <v>16</v>
       </c>
       <c r="Q76" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R76" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S76" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T76" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T76" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U76" s="12"/>
       <c r="V76" s="12"/>
       <c r="W76" s="7"/>
@@ -6085,16 +6237,16 @@
         <v>16</v>
       </c>
       <c r="G77" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H77" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I77" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J77" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K77" s="11" t="s">
         <v>16</v>
@@ -6103,27 +6255,29 @@
         <v>16</v>
       </c>
       <c r="M77" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N77" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O77" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P77" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q77" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R77" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S77" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T77" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T77" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U77" s="12"/>
       <c r="V77" s="12"/>
       <c r="W77" s="7"/>
@@ -6142,7 +6296,7 @@
         <v>237</v>
       </c>
       <c r="E78" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F78" s="11" t="s">
         <v>16</v>
@@ -6154,7 +6308,7 @@
         <v>16</v>
       </c>
       <c r="I78" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J78" s="11" t="s">
         <v>16</v>
@@ -6163,30 +6317,32 @@
         <v>16</v>
       </c>
       <c r="L78" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M78" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N78" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O78" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P78" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q78" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R78" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S78" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T78" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T78" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U78" s="12"/>
       <c r="V78" s="12"/>
       <c r="W78" s="7"/>
@@ -6205,10 +6361,10 @@
         <v>240</v>
       </c>
       <c r="E79" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F79" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G79" s="11" t="s">
         <v>16</v>
@@ -6220,36 +6376,38 @@
         <v>16</v>
       </c>
       <c r="J79" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K79" s="11" t="s">
         <v>16</v>
       </c>
       <c r="L79" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M79" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N79" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O79" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P79" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q79" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R79" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S79" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T79" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T79" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U79" s="12"/>
       <c r="V79" s="12"/>
       <c r="W79" s="7"/>
@@ -6280,39 +6438,41 @@
         <v>16</v>
       </c>
       <c r="I80" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J80" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K80" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L80" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M80" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N80" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O80" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P80" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q80" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R80" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S80" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T80" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T80" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U80" s="12"/>
       <c r="V80" s="12"/>
       <c r="W80" s="7"/>
@@ -6334,7 +6494,7 @@
         <v>16</v>
       </c>
       <c r="F81" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G81" s="11" t="s">
         <v>16</v>
@@ -6343,39 +6503,41 @@
         <v>16</v>
       </c>
       <c r="I81" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J81" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K81" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L81" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M81" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N81" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O81" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P81" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q81" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R81" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S81" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T81" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T81" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U81" s="12"/>
       <c r="V81" s="12"/>
       <c r="W81" s="7"/>
@@ -6394,51 +6556,53 @@
         <v>249</v>
       </c>
       <c r="E82" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F82" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G82" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H82" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I82" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J82" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K82" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L82" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M82" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N82" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O82" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P82" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q82" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R82" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S82" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T82" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T82" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U82" s="12"/>
       <c r="V82" s="12"/>
       <c r="W82" s="7"/>
@@ -6451,57 +6615,59 @@
         <v>250</v>
       </c>
       <c r="C83" s="9" t="s">
-        <v>131</v>
+        <v>122</v>
       </c>
       <c r="D83" s="9" t="s">
         <v>251</v>
       </c>
       <c r="E83" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F83" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G83" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H83" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I83" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J83" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K83" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L83" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M83" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N83" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O83" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P83" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q83" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R83" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S83" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T83" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T83" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U83" s="12"/>
       <c r="V83" s="12"/>
       <c r="W83" s="7"/>
@@ -6520,51 +6686,53 @@
         <v>254</v>
       </c>
       <c r="E84" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F84" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G84" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H84" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I84" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J84" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K84" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L84" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M84" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N84" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O84" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P84" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q84" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R84" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S84" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T84" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T84" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U84" s="12"/>
       <c r="V84" s="12"/>
       <c r="W84" s="7"/>
@@ -6586,48 +6754,50 @@
         <v>16</v>
       </c>
       <c r="F85" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G85" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H85" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I85" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J85" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K85" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L85" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M85" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N85" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O85" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P85" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q85" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R85" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S85" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T85" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T85" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U85" s="12"/>
       <c r="V85" s="12"/>
       <c r="W85" s="7"/>
@@ -6652,45 +6822,47 @@
         <v>16</v>
       </c>
       <c r="G86" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H86" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I86" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J86" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K86" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L86" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M86" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N86" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O86" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P86" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q86" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R86" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S86" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T86" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T86" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U86" s="12"/>
       <c r="V86" s="12"/>
       <c r="W86" s="7"/>
@@ -6703,57 +6875,59 @@
         <v>260</v>
       </c>
       <c r="C87" s="10" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="D87" s="10" t="s">
         <v>261</v>
       </c>
       <c r="E87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R87" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S87" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T87" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T87" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U87" s="12"/>
       <c r="V87" s="12"/>
       <c r="W87" s="7"/>
@@ -6772,51 +6946,53 @@
         <v>264</v>
       </c>
       <c r="E88" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F88" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G88" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H88" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I88" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J88" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K88" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L88" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M88" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N88" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O88" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P88" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q88" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R88" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S88" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T88" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T88" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U88" s="12"/>
       <c r="V88" s="12"/>
       <c r="W88" s="7"/>
@@ -6838,48 +7014,50 @@
         <v>16</v>
       </c>
       <c r="F89" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G89" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H89" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I89" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J89" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K89" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L89" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M89" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N89" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O89" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P89" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q89" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R89" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S89" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T89" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T89" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U89" s="12"/>
       <c r="V89" s="12"/>
       <c r="W89" s="7"/>
@@ -6898,51 +7076,53 @@
         <v>15</v>
       </c>
       <c r="E90" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F90" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G90" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H90" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I90" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J90" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K90" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L90" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M90" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N90" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O90" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P90" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q90" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R90" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S90" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T90" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T90" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U90" s="12"/>
       <c r="V90" s="12"/>
       <c r="W90" s="7"/>
@@ -6961,51 +7141,53 @@
         <v>271</v>
       </c>
       <c r="E91" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F91" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G91" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H91" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I91" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J91" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K91" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L91" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M91" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N91" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O91" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P91" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q91" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R91" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S91" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T91" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T91" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U91" s="12"/>
       <c r="V91" s="12"/>
       <c r="W91" s="7"/>
@@ -7030,45 +7212,47 @@
         <v>16</v>
       </c>
       <c r="G92" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H92" s="11" t="s">
         <v>16</v>
       </c>
       <c r="I92" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J92" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K92" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L92" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M92" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N92" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O92" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P92" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q92" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R92" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S92" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T92" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T92" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U92" s="12"/>
       <c r="V92" s="12"/>
       <c r="W92" s="7"/>
@@ -7087,51 +7271,53 @@
         <v>277</v>
       </c>
       <c r="E93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R93" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S93" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T93" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T93" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U93" s="12"/>
       <c r="V93" s="12"/>
       <c r="W93" s="7"/>
@@ -7150,51 +7336,53 @@
         <v>280</v>
       </c>
       <c r="E94" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="F94" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="G94" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H94" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I94" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J94" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K94" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="L94" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="M94" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="N94" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="O94" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="P94" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="Q94" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="R94" s="13" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="S94" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="T94" s="12"/>
+        <v>98</v>
+      </c>
+      <c r="T94" s="13" t="s">
+        <v>98</v>
+      </c>
       <c r="U94" s="12"/>
       <c r="V94" s="12"/>
       <c r="W94" s="7"/>
@@ -29604,7 +29792,7 @@
   </sheetData>
   <autoFilter ref="A1:W990">
     <sortState ref="A2:Z990">
-      <sortCondition ref="S1:S990"/>
+      <sortCondition ref="T1:T990"/>
     </sortState>
   </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>

--- a/22807.xlsx
+++ b/22807.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12432" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="#22807" sheetId="1" r:id="rId1"/>
+    <sheet name="GRUPOS" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'#22807'!$A$1:$W$990</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">GRUPOS!$A$1:$G$73</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
-  <fileRecoveryPr repairLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="233">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1812" uniqueCount="237">
   <si>
     <t>Nro de comisión</t>
   </si>
@@ -723,6 +724,18 @@
   <si>
     <t>-</t>
   </si>
+  <si>
+    <t>GRUPO</t>
+  </si>
+  <si>
+    <t>NOMBRE PROYECTO</t>
+  </si>
+  <si>
+    <t>OBSERVACIONES</t>
+  </si>
+  <si>
+    <t>REPOSITORIO</t>
+  </si>
 </sst>
 </file>
 
@@ -789,7 +802,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -849,11 +862,159 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,6 +1060,45 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1117,8 +1317,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:W990"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D73" sqref="B1:D73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -29235,4 +29435,1279 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G73"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C80" sqref="C80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+    <col min="2" max="2" width="18.44140625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="5" max="5" width="18.6640625" customWidth="1"/>
+    <col min="6" max="6" width="18.44140625" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="18" t="s">
+        <v>233</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>234</v>
+      </c>
+      <c r="F1" s="18" t="s">
+        <v>235</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="21">
+        <v>1</v>
+      </c>
+      <c r="E2" s="21"/>
+      <c r="F2" s="21"/>
+      <c r="G2" s="22"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D3" s="17">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+      <c r="G3" s="24"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="D4" s="17">
+        <v>1</v>
+      </c>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="24"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" s="17">
+        <v>1</v>
+      </c>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="24"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="23" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="17">
+        <v>1</v>
+      </c>
+      <c r="E6" s="17"/>
+      <c r="F6" s="17"/>
+      <c r="G6" s="24"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D7" s="17">
+        <v>1</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="24"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="23" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D8" s="17">
+        <v>1</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="24"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="17">
+        <v>1</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="24"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="23" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="17">
+        <v>1</v>
+      </c>
+      <c r="E10" s="17"/>
+      <c r="F10" s="17"/>
+      <c r="G10" s="24"/>
+    </row>
+    <row r="11" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="25" t="s">
+        <v>210</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>211</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>212</v>
+      </c>
+      <c r="D11" s="27">
+        <v>1</v>
+      </c>
+      <c r="E11" s="27"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12" s="20" t="s">
+        <v>42</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" s="21">
+        <v>2</v>
+      </c>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="22"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D13" s="17">
+        <v>2</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="24"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>48</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D14" s="17">
+        <v>2</v>
+      </c>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="24"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="17">
+        <v>2</v>
+      </c>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="24"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="23" t="s">
+        <v>53</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D16" s="17">
+        <v>2</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="24"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="23" t="s">
+        <v>56</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="C17" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="17">
+        <v>2</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="24"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="23" t="s">
+        <v>59</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="D18" s="17">
+        <v>2</v>
+      </c>
+      <c r="E18" s="17"/>
+      <c r="F18" s="17"/>
+      <c r="G18" s="24"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>64</v>
+      </c>
+      <c r="D19" s="17">
+        <v>2</v>
+      </c>
+      <c r="E19" s="17"/>
+      <c r="F19" s="17"/>
+      <c r="G19" s="24"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="D20" s="17">
+        <v>2</v>
+      </c>
+      <c r="E20" s="17"/>
+      <c r="F20" s="17"/>
+      <c r="G20" s="24"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="23" t="s">
+        <v>216</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>217</v>
+      </c>
+      <c r="C21" s="16" t="s">
+        <v>218</v>
+      </c>
+      <c r="D21" s="17">
+        <v>2</v>
+      </c>
+      <c r="E21" s="17"/>
+      <c r="F21" s="17"/>
+      <c r="G21" s="24"/>
+    </row>
+    <row r="22" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22" s="26" t="s">
+        <v>223</v>
+      </c>
+      <c r="C22" s="26" t="s">
+        <v>70</v>
+      </c>
+      <c r="D22" s="27">
+        <v>2</v>
+      </c>
+      <c r="E22" s="27"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="28"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="20" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="21">
+        <v>3</v>
+      </c>
+      <c r="E23" s="21"/>
+      <c r="F23" s="21"/>
+      <c r="G23" s="22"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>75</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D24" s="17">
+        <v>3</v>
+      </c>
+      <c r="E24" s="17"/>
+      <c r="F24" s="17"/>
+      <c r="G24" s="24"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="23" t="s">
+        <v>77</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="D25" s="17">
+        <v>3</v>
+      </c>
+      <c r="E25" s="17"/>
+      <c r="F25" s="17"/>
+      <c r="G25" s="24"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="23" t="s">
+        <v>80</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D26" s="17">
+        <v>3</v>
+      </c>
+      <c r="E26" s="17"/>
+      <c r="F26" s="17"/>
+      <c r="G26" s="24"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="23" t="s">
+        <v>83</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>84</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>85</v>
+      </c>
+      <c r="D27" s="17">
+        <v>3</v>
+      </c>
+      <c r="E27" s="17"/>
+      <c r="F27" s="17"/>
+      <c r="G27" s="24"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="23" t="s">
+        <v>86</v>
+      </c>
+      <c r="B28" s="16" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>88</v>
+      </c>
+      <c r="D28" s="17">
+        <v>3</v>
+      </c>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="24"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="23" t="s">
+        <v>89</v>
+      </c>
+      <c r="B29" s="16" t="s">
+        <v>90</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>91</v>
+      </c>
+      <c r="D29" s="17">
+        <v>3</v>
+      </c>
+      <c r="E29" s="17"/>
+      <c r="F29" s="17"/>
+      <c r="G29" s="24"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="23" t="s">
+        <v>92</v>
+      </c>
+      <c r="B30" s="16" t="s">
+        <v>93</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>94</v>
+      </c>
+      <c r="D30" s="17">
+        <v>3</v>
+      </c>
+      <c r="E30" s="17"/>
+      <c r="F30" s="17"/>
+      <c r="G30" s="24"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="23" t="s">
+        <v>99</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="D31" s="17">
+        <v>3</v>
+      </c>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="24"/>
+    </row>
+    <row r="32" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="25" t="s">
+        <v>101</v>
+      </c>
+      <c r="B32" s="26" t="s">
+        <v>102</v>
+      </c>
+      <c r="C32" s="26" t="s">
+        <v>91</v>
+      </c>
+      <c r="D32" s="27">
+        <v>3</v>
+      </c>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="28"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="B33" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="C33" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="D33" s="21">
+        <v>4</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="22"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="23" t="s">
+        <v>106</v>
+      </c>
+      <c r="B34" s="16" t="s">
+        <v>107</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>108</v>
+      </c>
+      <c r="D34" s="17">
+        <v>4</v>
+      </c>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17"/>
+      <c r="G34" s="24"/>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="23" t="s">
+        <v>109</v>
+      </c>
+      <c r="B35" s="16" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="D35" s="17">
+        <v>4</v>
+      </c>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="24"/>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="23" t="s">
+        <v>115</v>
+      </c>
+      <c r="B36" s="16" t="s">
+        <v>116</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="D36" s="17">
+        <v>4</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="24"/>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="23" t="s">
+        <v>118</v>
+      </c>
+      <c r="B37" s="16" t="s">
+        <v>119</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="17">
+        <v>4</v>
+      </c>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="24"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="23" t="s">
+        <v>121</v>
+      </c>
+      <c r="B38" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D38" s="17">
+        <v>4</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="24"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="B39" s="16" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D39" s="17">
+        <v>4</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="24"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="B40" s="16" t="s">
+        <v>136</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="D40" s="17">
+        <v>4</v>
+      </c>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="24"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="B41" s="16" t="s">
+        <v>139</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="D41" s="17">
+        <v>4</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="24"/>
+    </row>
+    <row r="42" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="25" t="s">
+        <v>141</v>
+      </c>
+      <c r="B42" s="26" t="s">
+        <v>142</v>
+      </c>
+      <c r="C42" s="26" t="s">
+        <v>143</v>
+      </c>
+      <c r="D42" s="27">
+        <v>4</v>
+      </c>
+      <c r="E42" s="27"/>
+      <c r="F42" s="27"/>
+      <c r="G42" s="28"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B43" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="21">
+        <v>5</v>
+      </c>
+      <c r="E43" s="21"/>
+      <c r="F43" s="21"/>
+      <c r="G43" s="22"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="23" t="s">
+        <v>147</v>
+      </c>
+      <c r="B44" s="16" t="s">
+        <v>148</v>
+      </c>
+      <c r="C44" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="17">
+        <v>5</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17"/>
+      <c r="G44" s="24"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="23" t="s">
+        <v>150</v>
+      </c>
+      <c r="B45" s="16" t="s">
+        <v>151</v>
+      </c>
+      <c r="C45" s="16" t="s">
+        <v>152</v>
+      </c>
+      <c r="D45" s="17">
+        <v>5</v>
+      </c>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="24"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="23" t="s">
+        <v>153</v>
+      </c>
+      <c r="B46" s="16" t="s">
+        <v>154</v>
+      </c>
+      <c r="C46" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D46" s="17">
+        <v>5</v>
+      </c>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="24"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="23" t="s">
+        <v>156</v>
+      </c>
+      <c r="B47" s="16" t="s">
+        <v>157</v>
+      </c>
+      <c r="C47" s="16" t="s">
+        <v>158</v>
+      </c>
+      <c r="D47" s="17">
+        <v>5</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="24"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="23" t="s">
+        <v>159</v>
+      </c>
+      <c r="B48" s="16" t="s">
+        <v>160</v>
+      </c>
+      <c r="C48" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="D48" s="17">
+        <v>5</v>
+      </c>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="24"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="23" t="s">
+        <v>162</v>
+      </c>
+      <c r="B49" s="16" t="s">
+        <v>54</v>
+      </c>
+      <c r="C49" s="16" t="s">
+        <v>163</v>
+      </c>
+      <c r="D49" s="17">
+        <v>5</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="24"/>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="23" t="s">
+        <v>164</v>
+      </c>
+      <c r="B50" s="16" t="s">
+        <v>165</v>
+      </c>
+      <c r="C50" s="16" t="s">
+        <v>166</v>
+      </c>
+      <c r="D50" s="17">
+        <v>5</v>
+      </c>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="24"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="23" t="s">
+        <v>167</v>
+      </c>
+      <c r="B51" s="16" t="s">
+        <v>168</v>
+      </c>
+      <c r="C51" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="D51" s="17">
+        <v>5</v>
+      </c>
+      <c r="E51" s="17"/>
+      <c r="F51" s="17"/>
+      <c r="G51" s="24"/>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="23" t="s">
+        <v>199</v>
+      </c>
+      <c r="B52" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C52" s="16" t="s">
+        <v>200</v>
+      </c>
+      <c r="D52" s="17">
+        <v>5</v>
+      </c>
+      <c r="E52" s="17"/>
+      <c r="F52" s="17"/>
+      <c r="G52" s="24"/>
+    </row>
+    <row r="53" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A53" s="25" t="s">
+        <v>219</v>
+      </c>
+      <c r="B53" s="26" t="s">
+        <v>220</v>
+      </c>
+      <c r="C53" s="26" t="s">
+        <v>221</v>
+      </c>
+      <c r="D53" s="27">
+        <v>5</v>
+      </c>
+      <c r="E53" s="27"/>
+      <c r="F53" s="27"/>
+      <c r="G53" s="28"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="19" t="s">
+        <v>173</v>
+      </c>
+      <c r="B54" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="C54" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="D54" s="21">
+        <v>6</v>
+      </c>
+      <c r="E54" s="21"/>
+      <c r="F54" s="21"/>
+      <c r="G54" s="22"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="23" t="s">
+        <v>176</v>
+      </c>
+      <c r="B55" s="16" t="s">
+        <v>177</v>
+      </c>
+      <c r="C55" s="16" t="s">
+        <v>178</v>
+      </c>
+      <c r="D55" s="17">
+        <v>6</v>
+      </c>
+      <c r="E55" s="17"/>
+      <c r="F55" s="17"/>
+      <c r="G55" s="24"/>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="B56" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="16" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="17">
+        <v>6</v>
+      </c>
+      <c r="E56" s="17"/>
+      <c r="F56" s="17"/>
+      <c r="G56" s="24"/>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="23" t="s">
+        <v>190</v>
+      </c>
+      <c r="B57" s="16" t="s">
+        <v>191</v>
+      </c>
+      <c r="C57" s="16" t="s">
+        <v>192</v>
+      </c>
+      <c r="D57" s="17">
+        <v>6</v>
+      </c>
+      <c r="E57" s="17"/>
+      <c r="F57" s="17"/>
+      <c r="G57" s="24"/>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="23" t="s">
+        <v>193</v>
+      </c>
+      <c r="B58" s="16" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="16" t="s">
+        <v>195</v>
+      </c>
+      <c r="D58" s="17">
+        <v>6</v>
+      </c>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="24"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="23" t="s">
+        <v>196</v>
+      </c>
+      <c r="B59" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="C59" s="16" t="s">
+        <v>198</v>
+      </c>
+      <c r="D59" s="17">
+        <v>6</v>
+      </c>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="24"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="B60" s="16" t="s">
+        <v>202</v>
+      </c>
+      <c r="C60" s="16" t="s">
+        <v>203</v>
+      </c>
+      <c r="D60" s="17">
+        <v>6</v>
+      </c>
+      <c r="E60" s="17"/>
+      <c r="F60" s="17"/>
+      <c r="G60" s="24"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="23" t="s">
+        <v>204</v>
+      </c>
+      <c r="B61" s="16" t="s">
+        <v>205</v>
+      </c>
+      <c r="C61" s="16" t="s">
+        <v>206</v>
+      </c>
+      <c r="D61" s="17">
+        <v>6</v>
+      </c>
+      <c r="E61" s="17"/>
+      <c r="F61" s="17"/>
+      <c r="G61" s="24"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="B62" s="16" t="s">
+        <v>208</v>
+      </c>
+      <c r="C62" s="16" t="s">
+        <v>209</v>
+      </c>
+      <c r="D62" s="17">
+        <v>6</v>
+      </c>
+      <c r="E62" s="17"/>
+      <c r="F62" s="17"/>
+      <c r="G62" s="24"/>
+    </row>
+    <row r="63" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A63" s="25" t="s">
+        <v>213</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>214</v>
+      </c>
+      <c r="C63" s="26" t="s">
+        <v>215</v>
+      </c>
+      <c r="D63" s="27">
+        <v>6</v>
+      </c>
+      <c r="E63" s="27"/>
+      <c r="F63" s="27"/>
+      <c r="G63" s="28"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="B64" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="C64" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D64" s="21">
+        <v>7</v>
+      </c>
+      <c r="E64" s="21"/>
+      <c r="F64" s="21"/>
+      <c r="G64" s="22"/>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B65" s="16" t="s">
+        <v>97</v>
+      </c>
+      <c r="C65" s="16" t="s">
+        <v>98</v>
+      </c>
+      <c r="D65" s="17">
+        <v>7</v>
+      </c>
+      <c r="E65" s="17"/>
+      <c r="F65" s="17"/>
+      <c r="G65" s="24"/>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="23" t="s">
+        <v>112</v>
+      </c>
+      <c r="B66" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="C66" s="16" t="s">
+        <v>114</v>
+      </c>
+      <c r="D66" s="17">
+        <v>7</v>
+      </c>
+      <c r="E66" s="17"/>
+      <c r="F66" s="17"/>
+      <c r="G66" s="24"/>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="23" t="s">
+        <v>126</v>
+      </c>
+      <c r="B67" s="16" t="s">
+        <v>127</v>
+      </c>
+      <c r="C67" s="16" t="s">
+        <v>128</v>
+      </c>
+      <c r="D67" s="17">
+        <v>7</v>
+      </c>
+      <c r="E67" s="17"/>
+      <c r="F67" s="17"/>
+      <c r="G67" s="24"/>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="16" t="s">
+        <v>130</v>
+      </c>
+      <c r="C68" s="16" t="s">
+        <v>131</v>
+      </c>
+      <c r="D68" s="17">
+        <v>7</v>
+      </c>
+      <c r="E68" s="17"/>
+      <c r="F68" s="17"/>
+      <c r="G68" s="24"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="16" t="s">
+        <v>133</v>
+      </c>
+      <c r="C69" s="16" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="17">
+        <v>7</v>
+      </c>
+      <c r="E69" s="17"/>
+      <c r="F69" s="17"/>
+      <c r="G69" s="24"/>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="23" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" s="16" t="s">
+        <v>171</v>
+      </c>
+      <c r="C70" s="16" t="s">
+        <v>172</v>
+      </c>
+      <c r="D70" s="17">
+        <v>7</v>
+      </c>
+      <c r="E70" s="17"/>
+      <c r="F70" s="17"/>
+      <c r="G70" s="24"/>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="23" t="s">
+        <v>179</v>
+      </c>
+      <c r="B71" s="16" t="s">
+        <v>180</v>
+      </c>
+      <c r="C71" s="16" t="s">
+        <v>120</v>
+      </c>
+      <c r="D71" s="17">
+        <v>7</v>
+      </c>
+      <c r="E71" s="17"/>
+      <c r="F71" s="17"/>
+      <c r="G71" s="24"/>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="23" t="s">
+        <v>181</v>
+      </c>
+      <c r="B72" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="C72" s="16" t="s">
+        <v>183</v>
+      </c>
+      <c r="D72" s="17">
+        <v>7</v>
+      </c>
+      <c r="E72" s="17"/>
+      <c r="F72" s="17"/>
+      <c r="G72" s="24"/>
+    </row>
+    <row r="73" spans="1:7" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A73" s="25" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>188</v>
+      </c>
+      <c r="C73" s="26" t="s">
+        <v>189</v>
+      </c>
+      <c r="D73" s="27">
+        <v>7</v>
+      </c>
+      <c r="E73" s="27"/>
+      <c r="F73" s="27"/>
+      <c r="G73" s="28"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="A1:G73">
+    <sortState ref="A2:G73">
+      <sortCondition ref="D1:D73"/>
+    </sortState>
+  </autoFilter>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>